--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C588"/>
+  <dimension ref="A1:C586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>353.4</v>
+        <v>349.5</v>
       </c>
     </row>
     <row r="3">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>158</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="6">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>160.4</v>
+        <v>159.7</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.3</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>101.5</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>175.1</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.7</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>76.2</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63.4</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>151</v>
+        <v>149.3</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>70.59999999999999</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>141.7</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>145.2</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>163.5</v>
+        <v>159.7</v>
       </c>
     </row>
     <row r="23">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>88.8</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>58.6</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>108.4</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>159.9</v>
+        <v>160.3</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34.9</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>91.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>54.6</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>78.09999999999999</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="31">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="32">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="34">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>57.3</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>62.3</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="36">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38.7</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>27.5</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="41">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.1</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="43">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>112.5</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="44">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>57.7</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="46">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34.3</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="48">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46.9</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>85.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>95.40000000000001</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>126.8</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="52">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>39.4</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="53">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="54">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>72.5</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>63</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="56">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="57">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36.8</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="58">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>68.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>121.3</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="60">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.4</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="61">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>92.2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="63">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="64">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>78.7</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="66">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="67">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>34</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="68">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>96.90000000000001</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="69">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23.8</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="70">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="71">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>165</v>
+        <v>157.6</v>
       </c>
     </row>
     <row r="72">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>89.40000000000001</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="74">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="75">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>12.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>106.3</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="77">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>47.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>39.5</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="80">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>47.9</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="81">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="82">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>175.5</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="83">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="84">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>267.9</v>
+        <v>261.4</v>
       </c>
     </row>
     <row r="86">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="87">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46.7</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="88">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>45.1</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="90">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>42.6</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="91">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="92">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>142.9</v>
+        <v>140.3</v>
       </c>
     </row>
     <row r="93">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>39.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="94">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="96">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>40.7</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="97">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>88.5</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>64.09999999999999</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="99">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="100">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>76.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>28.3</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="102">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="104">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>40.2</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>50.6</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="106">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>57.9</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="107">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>49.2</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="108">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>56.6</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="110">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>63</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="112">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="113">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>29.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="114">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>77.40000000000001</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="115">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>35.4</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="117">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>45.7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>30.4</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="120">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>53.1</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>45.6</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="122">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>74.3</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="123">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>60.7</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="124">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>34</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="125">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>74</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="126">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>28.4</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="127">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>35.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="129">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>32.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="130">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>38.3</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="131">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>23.6</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="132">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="133">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="134">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="135">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>19.4</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="136">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="137">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>18.9</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="138">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>24.1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>19</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="142">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="143">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="144">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="145">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="146">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15.7</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="148">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>25.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>18.2</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="150">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="152">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>17.9</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="153">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="154">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>19.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="157">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="158">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24.6</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="160">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9.699999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="161">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="162">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>16.6</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="163">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="164">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="165">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="166">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="167">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="168">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>16.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="170">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="171">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="172">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="174">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="177">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="178">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>45.8</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="179">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="180">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="181">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="182">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="183">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="187">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="188">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="189">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="190">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="191">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="192">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="194">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="195">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="196">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="197">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="198">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>13.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="199">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="201">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>29</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="202">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>41</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="203">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="206">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="209">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>10.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="213">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="214">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>10.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="216">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="217">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>14.2</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="219">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="220">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="221">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>15</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="223">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="224">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="226">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="227">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="230">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="233">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="234">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="235">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="236">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="237">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="238">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>18.5</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="241">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>14.7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="242">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="243">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="244">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="245">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="246">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="247">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="248">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="249">
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="250">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="251">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="252">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>45.4</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="253">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="254">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="255">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="256">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="257">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="259">
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="260">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="262">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="269">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>16.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271">
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="273">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="274">
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="275">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="278">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="286">
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="287">
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="288">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="289">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="291">
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="292">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="293">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>44.7</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="295">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="296">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="297">
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="299">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="300">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="301">
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="302">
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>23.2</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="303">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="304">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>107.1</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="307">
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="308">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="310">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="313">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="315">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="316">
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>46.5</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="317">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="318">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="319">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>54.6</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="320">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="322">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="323">
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>70.2</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="327">
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>45.4</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="328">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>recover</t>
+          <t>rifle_aptitude</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -4648,11 +4648,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>rifle_aptitude</t>
+          <t>rime_rounds</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="331">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>rime_rounds</t>
+          <t>serrated_rounds</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>serrated_rounds</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -4687,11 +4687,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="334">
@@ -4700,11 +4700,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -4726,11 +4726,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="337">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="338">
@@ -4752,11 +4752,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="339">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="340">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341">
@@ -4791,11 +4791,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>8.5</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="342">
@@ -4804,11 +4804,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>10.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="343">
@@ -4817,11 +4817,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="344">
@@ -4830,11 +4830,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="345">
@@ -4843,11 +4843,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="346">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>deft_tempo</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4869,11 +4869,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348">
@@ -4882,11 +4882,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>hydraulic_gauge</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>loose_hatch</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>maximum_capacity</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="353">
@@ -4947,11 +4947,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3.8</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="354">
@@ -4960,11 +4960,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>33.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="355">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -4986,11 +4986,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="357">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="358">
@@ -5012,11 +5012,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="359">
@@ -5025,11 +5025,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>35.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361">
@@ -5051,11 +5051,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="362">
@@ -5064,11 +5064,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="363">
@@ -5077,11 +5077,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -5090,11 +5090,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="366">
@@ -5116,11 +5116,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="367">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5142,11 +5142,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="369">
@@ -5155,11 +5155,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370">
@@ -5168,11 +5168,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -5181,11 +5181,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -5194,11 +5194,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="373">
@@ -5207,11 +5207,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>motus_setup</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>9.800000000000001</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="374">
@@ -5220,11 +5220,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>motus_setup</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4.8</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="375">
@@ -5233,11 +5233,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -5246,11 +5246,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -5259,11 +5259,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>55.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>28.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5298,11 +5298,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>43</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="381">
@@ -5311,11 +5311,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>59.2</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="382">
@@ -5324,11 +5324,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>33.9</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="383">
@@ -5337,11 +5337,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>54.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="384">
@@ -5350,11 +5350,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="385">
@@ -5363,11 +5363,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="386">
@@ -5376,11 +5376,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="387">
@@ -5389,11 +5389,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>shell_compression</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -5428,11 +5428,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>shell_compression</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>4</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="391">
@@ -5441,11 +5441,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>33.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="392">
@@ -5454,11 +5454,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -5467,11 +5467,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -5493,11 +5493,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>soft_hands</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -5532,11 +5532,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="399">
@@ -5545,11 +5545,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>9.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="400">
@@ -5558,11 +5558,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="401">
@@ -5571,11 +5571,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="402">
@@ -5584,11 +5584,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="403">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -5610,11 +5610,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="405">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>emergent_aftermath</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>harkonar_scope</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -5649,11 +5649,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="408">
@@ -5662,11 +5662,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -5675,11 +5675,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="410">
@@ -5688,11 +5688,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -5701,11 +5701,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="412">
@@ -5714,11 +5714,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3.5</v>
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="413">
@@ -5727,11 +5727,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>62.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="414">
@@ -5740,11 +5740,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="415">
@@ -5753,11 +5753,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="416">
@@ -5766,11 +5766,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="417">
@@ -5779,11 +5779,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>4.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="418">
@@ -5792,11 +5792,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>9.800000000000001</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="419">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>concussion_rounds</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>concussion_rounds</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -5844,11 +5844,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="423">
@@ -5857,11 +5857,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4.6</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="424">
@@ -5870,11 +5870,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>10.7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="425">
@@ -5883,11 +5883,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="426">
@@ -5896,11 +5896,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>7.2</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="427">
@@ -5909,11 +5909,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>22.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -5948,11 +5948,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="431">
@@ -5961,11 +5961,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="432">
@@ -5974,11 +5974,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -5987,11 +5987,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="434">
@@ -6000,11 +6000,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -6013,11 +6013,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1.9</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="436">
@@ -6026,11 +6026,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>58.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="437">
@@ -6039,11 +6039,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>12.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="438">
@@ -6052,11 +6052,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="439">
@@ -6065,11 +6065,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="440">
@@ -6078,11 +6078,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="441">
@@ -6091,11 +6091,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="442">
@@ -6104,11 +6104,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="443">
@@ -6117,11 +6117,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4.1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="444">
@@ -6130,11 +6130,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -6182,11 +6182,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>41.3</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="449">
@@ -6195,11 +6195,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>57.2</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="450">
@@ -6208,11 +6208,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>45.3</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="451">
@@ -6221,11 +6221,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>52.4</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="452">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>27.8</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="454">
@@ -6260,11 +6260,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>71.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="455">
@@ -6273,11 +6273,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -6299,11 +6299,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="458">
@@ -6312,11 +6312,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -6364,11 +6364,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6377,11 +6377,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="464">
@@ -6390,11 +6390,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="465">
@@ -6403,11 +6403,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="466">
@@ -6416,11 +6416,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -6429,11 +6429,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="468">
@@ -6442,11 +6442,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="469">
@@ -6455,11 +6455,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470">
@@ -6468,11 +6468,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>11.9</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="471">
@@ -6481,11 +6481,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="472">
@@ -6494,11 +6494,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6507,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="474">
@@ -6520,11 +6520,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>18.7</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="475">
@@ -6533,11 +6533,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>counterweight</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -6546,11 +6546,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>counterweight</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="477">
@@ -6559,11 +6559,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -6572,11 +6572,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="479">
@@ -6585,11 +6585,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>explosive_demise</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,11 +6637,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>explosive_demise</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="484">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -6663,11 +6663,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="486">
@@ -6676,11 +6676,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -6689,11 +6689,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="488">
@@ -6702,11 +6702,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>19.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="489">
@@ -6715,11 +6715,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4.4</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="490">
@@ -6728,11 +6728,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>25.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -6741,11 +6741,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6754,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>heartseeker</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>heartseeker</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>impenetrable_offense</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -6793,11 +6793,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>impenetrable_offense</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -6806,11 +6806,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="497">
@@ -6819,11 +6819,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>lasting_sting</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -6832,11 +6832,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>lasting_sting</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3.6</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="500">
@@ -6858,11 +6858,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>mortal_conduct</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -6884,11 +6884,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="503">
@@ -6897,11 +6897,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -6949,11 +6949,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="508">
@@ -6962,11 +6962,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>63.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +6975,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>34.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="510">
@@ -6988,11 +6988,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>40.7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="511">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>49.7</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="512">
@@ -7014,11 +7014,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>49.5</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="513">
@@ -7027,11 +7027,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>53.5</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="514">
@@ -7040,11 +7040,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -7053,11 +7053,11 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>45.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="517">
@@ -7079,11 +7079,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>relentless_assault</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>relentless_assault</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -7118,11 +7118,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="521">
@@ -7131,11 +7131,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="522">
@@ -7144,11 +7144,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>serrated_edges</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -7170,11 +7170,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7196,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7209,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>19.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="528">
@@ -7222,11 +7222,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2.4</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="529">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="531">
@@ -7261,11 +7261,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="532">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="533">
@@ -7287,11 +7287,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>4.9</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="534">
@@ -7300,11 +7300,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>5.6</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="535">
@@ -7313,11 +7313,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>58.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="536">
@@ -7326,11 +7326,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>123.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="537">
@@ -7339,11 +7339,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="538">
@@ -7352,11 +7352,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="539">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7378,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7391,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2.5</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="542">
@@ -7404,11 +7404,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -7417,11 +7417,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>50.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7430,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7443,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="546">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7482,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="550">
@@ -7508,11 +7508,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="551">
@@ -7521,11 +7521,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1.1</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="552">
@@ -7534,11 +7534,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7547,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>25.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7573,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3.6</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7586,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>14.9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7625,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="560">
@@ -7638,11 +7638,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="561">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="562">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7677,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="564">
@@ -7690,11 +7690,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="565">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>10.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="566">
@@ -7716,11 +7716,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="567">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="569">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -7768,11 +7768,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7781,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="572">
@@ -7794,11 +7794,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7833,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="577">
@@ -7859,11 +7859,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="578">
@@ -7872,11 +7872,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>sundering_weave</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>swirling_tiger</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -7898,11 +7898,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>swooping_falcon</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="581">
@@ -7911,11 +7911,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>tempo_royale</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="582">
@@ -7924,11 +7924,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>tranquil_cleave</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>9.699999999999999</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="583">
@@ -7937,11 +7937,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>twirling_spire</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>26.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="584">
@@ -7950,11 +7950,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>vengeful_revenant</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>5.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="585">
@@ -7963,11 +7963,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>vermillion_storm</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="586">
@@ -7976,37 +7976,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>vulpine_mask</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>vermillion_storm</t>
-        </is>
-      </c>
-      <c r="C587" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>vulpine_mask</t>
-        </is>
-      </c>
-      <c r="C588" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C586"/>
+  <dimension ref="A1:C583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>349.5</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34.7</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>159.6</v>
+        <v>158.3</v>
       </c>
     </row>
     <row r="5">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>159.7</v>
+        <v>159.8</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41.9</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.9</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100.9</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>172.5</v>
+        <v>169.7</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35.8</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>79.3</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>149.3</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>71.2</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.40000000000001</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>138.4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>140</v>
+        <v>137.1</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>159.7</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="23">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>82.09999999999999</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>63.2</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>111.3</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>160.3</v>
+        <v>163.5</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>72</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46.7</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>77.3</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>57.3</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="32">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>61.4</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="36">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>43.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.9</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>28.2</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="41">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39.4</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="43">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>110.5</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="44">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>26.2</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>54.8</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="46">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="48">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>52.5</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>79.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="51">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>128.8</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="52">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>37.9</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="53">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="54">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>69.90000000000001</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>60.6</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="56">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="57">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="58">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>65.90000000000001</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="59">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>119.1</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="60">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>21.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="61">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>89</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="62">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>43.2</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="63">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="64">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>68.2</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>10.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32.1</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="67">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25.7</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="70">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>61.9</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="71">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>157.6</v>
+        <v>156.7</v>
       </c>
     </row>
     <row r="72">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>89.7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25.3</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="75">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="76">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>100.9</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="78">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="79">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="80">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>45.1</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="81">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>33.4</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="82">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>168.3</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="83">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>33.4</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="84">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>71.40000000000001</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="85">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>261.4</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="86">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="87">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="89">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>43.9</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="90">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>42.1</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="91">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32.2</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="92">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>140.3</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="93">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="94">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>19</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="95">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34.1</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="96">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>45.1</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="97">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>66.3</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>48.5</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="99">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="100">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>82.40000000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>34.6</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="102">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>26</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="103">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>42.1</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>56.3</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="106">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>52.4</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="107">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="108">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>62.9</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>65.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>24.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="112">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>29.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="113">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="114">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>73.7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>71.90000000000001</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="116">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>36.3</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="117">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="118">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>32.7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>64.90000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>54.8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>94.8</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="123">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>65.2</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="124">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="125">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>78.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="127">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>33.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>36.6</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="129">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="130">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>35.9</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="131">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>20.5</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="132">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="133">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="134">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="135">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>26.2</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="136">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>23.6</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="137">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="139">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>27.4</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="140">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="142">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="143">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="145">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="146">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>21</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="149">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>19.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="150">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="152">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>16.7</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="153">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="154">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>24.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>23.6</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="158">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>19.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="160">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="161">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>17.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="163">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="164">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="165">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="167">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="168">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>24.9</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="170">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="171">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>10.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="173">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>12.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="174">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="175">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="176">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="177">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="178">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>48.2</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="179">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="180">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="182">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="185">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="187">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="188">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>50.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="189">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="190">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="192">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="195">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="196">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="197">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="198">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="199">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="201">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>42.9</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="202">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>56.7</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="203">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="204">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="205">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="207">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="208">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>13.6</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="209">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="210">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="211">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="212">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="213">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="215">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="216">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="217">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="219">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="220">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="222">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>16.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="223">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="226">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="227">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="228">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="229">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="231">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="234">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="237">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="238">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="239">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="240">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>15.6</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="241">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="242">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="243">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="244">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="245">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="246">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="247">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="249">
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="250">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>15.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="251">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>44.1</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="252">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>46.5</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="253">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="254">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="255">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="257">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="258">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="259">
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="260">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="265">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="269">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="274">
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="276">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="286">
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>9.9</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="289">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="292">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="293">
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="295">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="296">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="299">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="300">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="301">
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="302">
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="303">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="304">
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>106.4</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="307">
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>12.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="308">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>18.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="311">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="312">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="313">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="315">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="316">
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>39.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="317">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="318">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="319">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>27.9</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="320">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="323">
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="325">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>85.7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327">
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>49.2</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="328">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="330">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>15.1</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="331">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>serrated_rounds</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="333">
@@ -4687,11 +4687,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -4713,11 +4713,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="336">
@@ -4726,11 +4726,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="337">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -4752,11 +4752,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="339">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="340">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="341">
@@ -4791,11 +4791,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>11.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="342">
@@ -4804,11 +4804,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="343">
@@ -4817,11 +4817,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="344">
@@ -4830,11 +4830,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -4843,11 +4843,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>deft_tempo</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="347">
@@ -4869,11 +4869,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>hydraulic_gauge</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>loose_hatch</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>maximum_capacity</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -4921,11 +4921,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="352">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3.7</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="353">
@@ -4947,11 +4947,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>56.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="354">
@@ -4960,11 +4960,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>8.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="355">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -4986,11 +4986,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="357">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>4.5</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="358">
@@ -5012,11 +5012,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>32</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="359">
@@ -5025,11 +5025,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="360">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="361">
@@ -5051,11 +5051,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="362">
@@ -5064,11 +5064,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -5077,11 +5077,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="364">
@@ -5090,11 +5090,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -5116,11 +5116,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -5129,11 +5129,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="368">
@@ -5142,11 +5142,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="369">
@@ -5155,11 +5155,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="370">
@@ -5168,11 +5168,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="371">
@@ -5181,11 +5181,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="372">
@@ -5194,11 +5194,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>9.699999999999999</v>
+        <v>39</v>
       </c>
     </row>
     <row r="373">
@@ -5207,11 +5207,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>motus_setup</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -5220,11 +5220,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>48.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -5259,11 +5259,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="378">
@@ -5272,11 +5272,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="379">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="380">
@@ -5298,11 +5298,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>61.3</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="381">
@@ -5311,11 +5311,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>41.6</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="382">
@@ -5324,11 +5324,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>56.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="383">
@@ -5337,11 +5337,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -5350,11 +5350,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="385">
@@ -5363,11 +5363,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="386">
@@ -5376,11 +5376,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="387">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>shell_compression</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -5402,11 +5402,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="389">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>shell_compression</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -5428,11 +5428,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>30.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="391">
@@ -5441,11 +5441,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -5454,11 +5454,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="393">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -5480,11 +5480,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>soft_hands</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -5506,11 +5506,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397">
@@ -5519,11 +5519,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="398">
@@ -5532,11 +5532,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>9.800000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="399">
@@ -5545,11 +5545,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="400">
@@ -5558,11 +5558,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -5571,11 +5571,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="402">
@@ -5584,11 +5584,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>13.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="403">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>emergent_aftermath</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -5610,11 +5610,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>harkonar_scope</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="405">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>351.8</v>
       </c>
     </row>
     <row r="406">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -5649,11 +5649,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>340.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="408">
@@ -5662,11 +5662,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="409">
@@ -5675,11 +5675,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -5688,11 +5688,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="411">
@@ -5701,11 +5701,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="412">
@@ -5714,11 +5714,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>66.90000000000001</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="413">
@@ -5727,11 +5727,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="414">
@@ -5740,11 +5740,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="415">
@@ -5753,11 +5753,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="416">
@@ -5766,11 +5766,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417">
@@ -5779,11 +5779,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>concussion_rounds</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -5792,11 +5792,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>concussion_rounds</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="420">
@@ -5818,11 +5818,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="421">
@@ -5831,11 +5831,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="422">
@@ -5844,11 +5844,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -5857,11 +5857,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="424">
@@ -5870,11 +5870,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>8.5</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="425">
@@ -5883,11 +5883,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="426">
@@ -5896,11 +5896,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -5922,11 +5922,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="429">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -5948,11 +5948,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -5961,11 +5961,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="432">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -5987,11 +5987,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>4.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="434">
@@ -6000,11 +6000,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="435">
@@ -6013,11 +6013,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>28.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="436">
@@ -6026,11 +6026,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>11.8</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="437">
@@ -6039,11 +6039,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="438">
@@ -6052,11 +6052,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="439">
@@ -6065,11 +6065,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="440">
@@ -6078,11 +6078,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441">
@@ -6091,11 +6091,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -6104,11 +6104,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6117,11 +6117,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="446">
@@ -6156,11 +6156,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="447">
@@ -6169,11 +6169,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="448">
@@ -6182,11 +6182,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>59.5</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="449">
@@ -6195,11 +6195,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>66.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -6208,11 +6208,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>62.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -6221,11 +6221,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>42.3</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="452">
@@ -6234,11 +6234,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="453">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>92.2</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="454">
@@ -6260,11 +6260,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="455">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -6299,11 +6299,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>7.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="458">
@@ -6312,11 +6312,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="459">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="460">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -6351,11 +6351,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="462">
@@ -6364,11 +6364,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="463">
@@ -6377,11 +6377,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -6390,11 +6390,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="465">
@@ -6403,11 +6403,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="466">
@@ -6416,11 +6416,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="467">
@@ -6429,11 +6429,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>11.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="468">
@@ -6442,11 +6442,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="469">
@@ -6455,11 +6455,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>11</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="470">
@@ -6468,11 +6468,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>15.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="471">
@@ -6481,11 +6481,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>12.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="472">
@@ -6494,11 +6494,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>3.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6507,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>counterweight</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -6520,11 +6520,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>9.300000000000001</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="475">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>counterweight</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -6546,11 +6546,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="477">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -6572,11 +6572,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="479">
@@ -6585,11 +6585,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="480">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>explosive_demise</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -6611,11 +6611,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="482">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>explosive_demise</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,11 +6637,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="484">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -6663,11 +6663,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>6.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="486">
@@ -6676,11 +6676,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487">
@@ -6689,11 +6689,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>16.7</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="488">
@@ -6702,11 +6702,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="489">
@@ -6715,11 +6715,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>21.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="490">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>heartseeker</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -6741,11 +6741,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6754,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>heartseeker</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="493">
@@ -6767,11 +6767,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="494">
@@ -6780,11 +6780,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>impenetrable_offense</t>
+          <t>lasting_sting</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="495">
@@ -6793,11 +6793,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="496">
@@ -6806,11 +6806,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2.9</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="497">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>lasting_sting</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -6832,11 +6832,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>mortal_conduct</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>63.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="500">
@@ -6858,11 +6858,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -6884,11 +6884,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="503">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -6910,11 +6910,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="505">
@@ -6923,11 +6923,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="506">
@@ -6936,11 +6936,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="507">
@@ -6949,11 +6949,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>81.8</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="508">
@@ -6962,11 +6962,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>36</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +6975,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>54.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="510">
@@ -6988,11 +6988,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>58</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="511">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>80.8</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="512">
@@ -7014,11 +7014,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>69.59999999999999</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="513">
@@ -7027,11 +7027,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>89.09999999999999</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="514">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>relentless_assault</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -7079,11 +7079,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="518">
@@ -7092,11 +7092,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>relentless_assault</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="519">
@@ -7105,11 +7105,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="520">
@@ -7118,11 +7118,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="521">
@@ -7131,11 +7131,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="522">
@@ -7144,11 +7144,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="523">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -7170,11 +7170,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>16.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7196,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7209,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="528">
@@ -7222,11 +7222,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>9.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="529">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>7.8</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="531">
@@ -7261,11 +7261,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>5.7</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="532">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="533">
@@ -7287,11 +7287,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>27.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="534">
@@ -7300,11 +7300,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>125.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="535">
@@ -7313,11 +7313,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="536">
@@ -7326,11 +7326,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="537">
@@ -7339,11 +7339,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="538">
@@ -7352,11 +7352,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>4.1</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="539">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7378,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7391,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -7404,11 +7404,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543">
@@ -7417,11 +7417,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7430,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7443,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="546">
@@ -7456,11 +7456,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="547">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7482,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>8.4</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="550">
@@ -7508,11 +7508,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>9.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="551">
@@ -7521,11 +7521,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>19.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="552">
@@ -7534,11 +7534,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>4.6</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7547,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7573,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7586,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>10.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7625,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="560">
@@ -7638,11 +7638,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="561">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="562">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7677,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>10.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="564">
@@ -7690,11 +7690,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="566">
@@ -7716,11 +7716,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -7729,11 +7729,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="569">
@@ -7755,11 +7755,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="570">
@@ -7768,11 +7768,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7781,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="572">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7833,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>sundering_weave</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>swirling_tiger</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="577">
@@ -7859,11 +7859,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>swooping_falcon</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>11.3</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="578">
@@ -7872,11 +7872,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>tempo_royale</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="579">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>tranquil_cleave</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="580">
@@ -7898,11 +7898,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>twirling_spire</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="581">
@@ -7911,11 +7911,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>vengeful_revenant</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>22.9</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="582">
@@ -7924,11 +7924,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>vermillion_storm</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="583">
@@ -7937,50 +7937,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>vulpine_mask</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>vengeful_revenant</t>
-        </is>
-      </c>
-      <c r="C584" t="n">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>vermillion_storm</t>
-        </is>
-      </c>
-      <c r="C585" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>vulpine_mask</t>
-        </is>
-      </c>
-      <c r="C586" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C583"/>
+  <dimension ref="A1:C578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>351.6</v>
+        <v>367.7</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.7</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>158.3</v>
+        <v>170.2</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34.7</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="6">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>159.8</v>
+        <v>127.7</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.2</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.4</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>169.7</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>84.8</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>149.5</v>
+        <v>159.9</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>69.40000000000001</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90.8</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>137</v>
+        <v>140.3</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>137.1</v>
+        <v>139.6</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56.2</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29.4</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>160.5</v>
+        <v>163.2</v>
       </c>
     </row>
     <row r="23">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>78</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>63.9</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>114.7</v>
+        <v>139.2</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>163.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33.1</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>81.2</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>50.2</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>72.40000000000001</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="31">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>54.6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="34">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>59.9</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="36">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>43</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37.7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="41">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>41</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39.8</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="43">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>110.1</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="44">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>53.5</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="46">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14.6</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31.9</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="48">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>57.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>76.90000000000001</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="50">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>92.5</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>114.1</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="53">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="54">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>68.90000000000001</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="55">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>60.4</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="56">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="57">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35.6</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="58">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>62.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="59">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>109.9</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="60">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19.5</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="61">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>85.3</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>42.2</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="63">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>64.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>29.6</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="67">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>31</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="68">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>92.90000000000001</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="69">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>27.9</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="70">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>60.7</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="71">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>156.7</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="72">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>123</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="73">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>88</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="74">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="75">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="76">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>99.59999999999999</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="77">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22.8</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="78">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>48.9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>39.9</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="80">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>42.3</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="81">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>31.3</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="82">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>166.2</v>
+        <v>161.7</v>
       </c>
     </row>
     <row r="83">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>31.3</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="84">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>73.5</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>254.5</v>
+        <v>220.3</v>
       </c>
     </row>
     <row r="86">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45.3</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="88">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="89">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>43.5</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="90">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>45.9</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="91">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>30.4</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="92">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>138.5</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="93">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>36.4</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="94">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>46.4</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="97">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>70.59999999999999</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>50.8</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="99">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>28.9</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="100">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>70</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="101">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>33.3</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="102">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>25.1</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="103">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>41.2</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>49.8</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="106">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>60.6</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>38.1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>67.90000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="111">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>26.2</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="112">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="113">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>28.3</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="114">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>81</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>63.7</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="116">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>31.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="117">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>57.1</v>
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>29.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>34</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="120">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>64</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>75.2</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="123">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>57.4</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="124">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>30.9</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="125">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>75</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>27.7</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="127">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>33.6</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="129">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>31.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>38.5</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="131">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>19.3</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="132">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="133">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="134">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18.9</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="135">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>13.3</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="136">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>25.1</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="137">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>28</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="138">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>13.2</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="139">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>30.9</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="140">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>28.6</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="142">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="143">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="144">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="145">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="146">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="147">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="148">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>23.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="149">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="150">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="151">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="152">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="154">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="157">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>29.2</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="158">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="159">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="160">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="161">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>18.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="164">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="165">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="166">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="167">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="168">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="169">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>27.8</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="170">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="171">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>12</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="172">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="173">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="174">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="175">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="176">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="177">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>50.9</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="179">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="180">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="181">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="182">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="183">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="187">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="188">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>54.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="189">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="190">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="193">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="194">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="197">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="198">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="199">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="201">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>47.5</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="202">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>62.6</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="203">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="204">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="206">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="207">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>17.1</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="209">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="211">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="212">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="215">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="216">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="217">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>14.3</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="219">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="221">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="222">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>13.4</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="223">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="224">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="226">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="231">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="234">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="235">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="237">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="238">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="239">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="240">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>18.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="241">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="243">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="244">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="245">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="246">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="248">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>20.2</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="249">
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="250">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>47.1</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="252">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>46.2</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="253">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="254">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="255">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="257">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="258">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="259">
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="260">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="262">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="264">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="269">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="274">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="278">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="285">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="286">
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="287">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="293">
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>41.1</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="295">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="297">
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="298">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="299">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="300">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="301">
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>21.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="303">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="304">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="305">
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>28.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="307">
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="308">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="310">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="313">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="314">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="315">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="316">
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="317">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="318">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="319">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>30.7</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="320">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="321">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="322">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="323">
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>15.9</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="325">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>92</v>
+        <v>139.7</v>
       </c>
     </row>
     <row r="327">
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>50.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="328">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="330">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>16.6</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="331">
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="333">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="336">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="337">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="340">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="341">
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="342">
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="344">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="345">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="347">
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="352">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>52.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -4951,7 +4951,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="354">
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="356">
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>29.9</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="358">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="361">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="364">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="365">
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="368">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="369">
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>9.300000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="372">
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>39</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="373">
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376">
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="377">
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>66.40000000000001</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="379">
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>40.9</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="380">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>63.1</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="381">
@@ -5315,7 +5315,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>63.8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="382">
@@ -5328,7 +5328,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="383">
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="385">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>32</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="389">
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="390">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="393">
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="397">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="399">
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="400">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="403">
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>351.8</v>
+        <v>378.8</v>
       </c>
     </row>
     <row r="406">
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="407">
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="409">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="410">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>70.09999999999999</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="411">
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="412">
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="413">
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="414">
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="415">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="417">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="421">
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="422">
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="423">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="424">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>24.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="425">
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="426">
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="429">
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="430">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="432">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="433">
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>30.5</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="434">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="436">
@@ -6030,7 +6030,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="437">
@@ -6043,7 +6043,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="438">
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="439">
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="441">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="443">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="444">
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="445">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>44.3</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="446">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>58.2</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="447">
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>60.1</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="449">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="450">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="451">
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>97.7</v>
+        <v>153.4</v>
       </c>
     </row>
     <row r="452">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="453">
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="455">
@@ -6303,7 +6303,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="458">
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="459">
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="460">
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="462">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="464">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="466">
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>9.800000000000001</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="467">
@@ -6433,7 +6433,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="468">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="469">
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="470">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="471">
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="472">
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6507,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>counterweight</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="474">
@@ -6520,11 +6520,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -6533,11 +6533,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="476">
@@ -6546,11 +6546,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -6572,11 +6572,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="479">
@@ -6585,11 +6585,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>explosive_demise</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -6611,11 +6611,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="482">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,11 +6637,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>7.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="484">
@@ -6650,11 +6650,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485">
@@ -6663,11 +6663,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>18</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="486">
@@ -6676,11 +6676,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="487">
@@ -6689,11 +6689,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>21.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="488">
@@ -6702,11 +6702,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -6715,11 +6715,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="490">
@@ -6728,11 +6728,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>heartseeker</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="491">
@@ -6741,11 +6741,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6754,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="493">
@@ -6767,11 +6767,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="494">
@@ -6780,11 +6780,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>lasting_sting</t>
+          <t>mortal_conduct</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -6793,11 +6793,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="496">
@@ -6806,11 +6806,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>22.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -6832,11 +6832,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="499">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -6858,11 +6858,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="501">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="502">
@@ -6884,11 +6884,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3.4</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="503">
@@ -6897,11 +6897,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="504">
@@ -6910,11 +6910,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -6923,11 +6923,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -6936,11 +6936,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="507">
@@ -6949,11 +6949,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>54.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -6962,11 +6962,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>74.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +6975,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>67.40000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="510">
@@ -6988,11 +6988,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>74.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>67.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -7014,11 +7014,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="513">
@@ -7027,11 +7027,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>10.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="514">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>relentless_assault</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="517">
@@ -7079,11 +7079,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>2.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="518">
@@ -7092,11 +7092,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -7105,11 +7105,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="520">
@@ -7118,11 +7118,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="521">
@@ -7131,11 +7131,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -7144,11 +7144,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>13.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="523">
@@ -7157,11 +7157,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="524">
@@ -7170,11 +7170,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>8.5</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7196,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7209,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -7222,11 +7222,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="529">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>28.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="531">
@@ -7261,11 +7261,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>37.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="532">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="533">
@@ -7287,11 +7287,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3.6</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="534">
@@ -7300,11 +7300,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -7313,11 +7313,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="536">
@@ -7326,11 +7326,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -7339,11 +7339,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="538">
@@ -7352,11 +7352,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>51.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="539">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7378,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7391,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="542">
@@ -7404,11 +7404,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="543">
@@ -7417,11 +7417,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1.6</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7430,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7443,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="546">
@@ -7456,11 +7456,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="547">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>8.699999999999999</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7482,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>17.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="550">
@@ -7508,11 +7508,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -7521,11 +7521,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -7534,11 +7534,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>15.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7547,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7573,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7586,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7625,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -7638,11 +7638,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="561">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7677,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="564">
@@ -7690,11 +7690,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="565">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="566">
@@ -7716,11 +7716,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="567">
@@ -7729,11 +7729,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569">
@@ -7755,11 +7755,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="570">
@@ -7768,11 +7768,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>sundering_weave</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7781,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>swirling_tiger</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -7794,11 +7794,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>swooping_falcon</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="573">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>tempo_royale</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>8.800000000000001</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>tranquil_cleave</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7833,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>twirling_spire</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="576">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>vengeful_revenant</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>2.6</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="577">
@@ -7859,11 +7859,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>vermillion_storm</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="578">
@@ -7872,76 +7872,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>vulpine_mask</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>tranquil_cleave</t>
-        </is>
-      </c>
-      <c r="C579" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>twirling_spire</t>
-        </is>
-      </c>
-      <c r="C580" t="n">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>vengeful_revenant</t>
-        </is>
-      </c>
-      <c r="C581" t="n">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>vermillion_storm</t>
-        </is>
-      </c>
-      <c r="C582" t="n">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>vulpine_mask</t>
-        </is>
-      </c>
-      <c r="C583" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C578"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>367.7</v>
+        <v>395.6</v>
       </c>
     </row>
     <row r="3">
@@ -397,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>equinox_prime_set</t>
+          <t>titania_prime_set</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35.2</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="4">
@@ -410,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rhino_prime_set</t>
+          <t>equinox_prime_set</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>170.2</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="5">
@@ -423,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mesa_prime_set</t>
+          <t>rhino_prime_set</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35.2</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="6">
@@ -436,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ember_prime_set</t>
+          <t>mesa_prime_set</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>127.7</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="7">
@@ -449,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>limbo_prime_set</t>
+          <t>ember_prime_set</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>88.09999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="8">
@@ -462,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ivara_prime_set</t>
+          <t>limbo_prime_set</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -475,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chroma_prime_set</t>
+          <t>ivara_prime_set</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62.5</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="10">
@@ -488,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nyx_prime_set</t>
+          <t>chroma_prime_set</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>108.5</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -501,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frost_prime_set</t>
+          <t>nyx_prime_set</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129.9</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="12">
@@ -514,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>trinity_prime_set</t>
+          <t>frost_prime_set</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34.7</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="13">
@@ -527,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hydroid_prime_set</t>
+          <t>trinity_prime_set</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89.09999999999999</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -540,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nova_prime_set</t>
+          <t>hydroid_prime_set</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58.4</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="15">
@@ -553,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>saryn_prime_set</t>
+          <t>nova_prime_set</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>159.9</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="16">
@@ -566,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mirage_prime_set</t>
+          <t>saryn_prime_set</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>80.7</v>
+        <v>169.3</v>
       </c>
     </row>
     <row r="17">
@@ -579,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>valkyr_prime_set</t>
+          <t>mirage_prime_set</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>96.8</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="18">
@@ -592,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mag_prime_set</t>
+          <t>valkyr_prime_set</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>140.3</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="19">
@@ -605,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ash_prime_set</t>
+          <t>mag_prime_set</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>139.6</v>
+        <v>142.9</v>
       </c>
     </row>
     <row r="20">
@@ -618,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>zephyr_prime_set</t>
+          <t>ash_prime_set</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>65.3</v>
+        <v>138.7</v>
       </c>
     </row>
     <row r="21">
@@ -631,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wukong_prime_set</t>
+          <t>zephyr_prime_set</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31.6</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="22">
@@ -644,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vauban_prime_set</t>
+          <t>wukong_prime_set</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>163.2</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="23">
@@ -657,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>banshee_prime_set</t>
+          <t>vauban_prime_set</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>85.09999999999999</v>
+        <v>167.8</v>
       </c>
     </row>
     <row r="24">
@@ -670,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>oberon_prime_set</t>
+          <t>banshee_prime_set</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71.3</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -683,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nekros_prime_set</t>
+          <t>oberon_prime_set</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>139.2</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="26">
@@ -696,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>volt_prime_set</t>
+          <t>nekros_prime_set</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>157.5</v>
+        <v>141.9</v>
       </c>
     </row>
     <row r="27">
@@ -709,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>atlas_prime_set</t>
+          <t>volt_prime_set</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34.4</v>
+        <v>160.2</v>
       </c>
     </row>
     <row r="28">
@@ -722,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>inaros_prime_set</t>
+          <t>atlas_prime_set</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>63.4</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="29">
@@ -735,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baza_prime_set</t>
+          <t>inaros_prime_set</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48.1</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="30">
@@ -748,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>boar_prime_set</t>
+          <t>baza_prime_set</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>76.3</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="31">
@@ -761,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>boltor_prime_set</t>
+          <t>pangolin_prime_set</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>59</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="32">
@@ -774,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>braton_prime_set</t>
+          <t>corinth_prime_set</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -787,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>burston_prime_set</t>
+          <t>boar_prime_set</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.5</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -800,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cernos_prime_set</t>
+          <t>boltor_prime_set</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.6</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="35">
@@ -813,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>latron_prime_set</t>
+          <t>braton_prime_set</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="36">
@@ -826,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>paris_prime_set</t>
+          <t>burston_prime_set</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="37">
@@ -839,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rubico_prime_set</t>
+          <t>cernos_prime_set</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64.09999999999999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
@@ -852,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>soma_prime_set</t>
+          <t>latron_prime_set</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32.9</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="39">
@@ -865,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>stradavar_prime_set</t>
+          <t>paris_prime_set</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13.4</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="40">
@@ -878,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sybaris_prime_set</t>
+          <t>rubico_prime_set</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>29.9</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="41">
@@ -891,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tiberon_prime_set</t>
+          <t>soma_prime_set</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>43.4</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="42">
@@ -904,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tigris_prime_set</t>
+          <t>stradavar_prime_set</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>43.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="43">
@@ -917,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vectis_prime_set</t>
+          <t>sybaris_prime_set</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>111.6</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="44">
@@ -930,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>zhuge_prime_set</t>
+          <t>tiberon_prime_set</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.3</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="45">
@@ -943,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>akbolto_prime_set</t>
+          <t>tigris_prime_set</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>54.8</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="46">
@@ -956,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>akbronco_prime_set</t>
+          <t>vectis_prime_set</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.4</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="47">
@@ -969,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>akjagara_prime_set</t>
+          <t>zhuge_prime_set</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33.5</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="48">
@@ -982,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>aklex_prime_set</t>
+          <t>akbolto_prime_set</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="49">
@@ -995,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>aksomati_prime_set</t>
+          <t>akbronco_prime_set</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>75.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="50">
@@ -1008,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>akstiletto_prime_set</t>
+          <t>akjagara_prime_set</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>88.59999999999999</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="51">
@@ -1021,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>akvasto_prime_set</t>
+          <t>aklex_prime_set</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>87.90000000000001</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="52">
@@ -1034,11 +1102,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ballistica_prime_set</t>
+          <t>aksomati_prime_set</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>37.5</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="53">
@@ -1047,11 +1115,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bronco_prime_set</t>
+          <t>akstiletto_prime_set</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11.9</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1060,11 +1128,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>euphona_prime_set</t>
+          <t>akvasto_prime_set</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>70.7</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="55">
@@ -1073,11 +1141,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hikou_prime_set</t>
+          <t>ballistica_prime_set</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>65.2</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="56">
@@ -1086,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>lex_prime_set</t>
+          <t>bronco_prime_set</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="57">
@@ -1099,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pyrana_prime_set</t>
+          <t>euphona_prime_set</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42.6</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1112,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sicarus_prime_set</t>
+          <t>hikou_prime_set</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>58.1</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="59">
@@ -1125,11 +1193,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>spira_prime_set</t>
+          <t>lex_prime_set</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>118.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1138,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vasto_prime_set</t>
+          <t>pyrana_prime_set</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16.1</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="61">
@@ -1151,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ankyros_prime_set</t>
+          <t>sicarus_prime_set</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>96.40000000000001</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="62">
@@ -1164,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dakra_prime_set</t>
+          <t>spira_prime_set</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>39.9</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="63">
@@ -1177,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>destreza_prime_set</t>
+          <t>vasto_prime_set</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>32</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="64">
@@ -1190,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dual_kamas_prime_set</t>
+          <t>ankyros_prime_set</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>59.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
@@ -1203,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fang_prime_set</t>
+          <t>dakra_prime_set</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.800000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
@@ -1216,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>fragor_prime_set</t>
+          <t>destreza_prime_set</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>34.1</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="67">
@@ -1229,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>galatine_prime_set</t>
+          <t>dual_kamas_prime_set</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>33.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68">
@@ -1242,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>glaive_prime_set</t>
+          <t>fang_prime_set</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>81.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="69">
@@ -1255,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>gram_prime_set</t>
+          <t>fragor_prime_set</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32.7</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="70">
@@ -1268,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>kogake_prime_set</t>
+          <t>galatine_prime_set</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>61.1</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="71">
@@ -1281,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>kronen_prime_set</t>
+          <t>glaive_prime_set</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>170.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72">
@@ -1294,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>nami_skyla_prime_set</t>
+          <t>gram_prime_set</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>107.4</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="73">
@@ -1307,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nikana_prime_set</t>
+          <t>kogake_prime_set</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>93.2</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="74">
@@ -1320,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ninkondi_prime_set</t>
+          <t>kronen_prime_set</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22.9</v>
+        <v>181.4</v>
       </c>
     </row>
     <row r="75">
@@ -1333,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>orthos_prime_set</t>
+          <t>nami_skyla_prime_set</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10.9</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="76">
@@ -1346,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>reaper_prime_set</t>
+          <t>nikana_prime_set</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>86.2</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1359,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>redeemer_prime_set</t>
+          <t>ninkondi_prime_set</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="78">
@@ -1372,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>scindo_prime_set</t>
+          <t>orthos_prime_set</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>46</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="79">
@@ -1385,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>silva_and_aegis_prime_set</t>
+          <t>reaper_prime_set</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>41.3</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1398,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tekko_prime_set</t>
+          <t>redeemer_prime_set</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>44.9</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="81">
@@ -1411,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tipedo_prime_set</t>
+          <t>scindo_prime_set</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34.5</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="82">
@@ -1424,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>venka_prime_set</t>
+          <t>silva_and_aegis_prime_set</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>161.7</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="83">
@@ -1437,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tipedo_prime_set</t>
+          <t>tekko_prime_set</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34.5</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="84">
@@ -1450,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>shedu_set</t>
+          <t>tipedo_prime_set</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>73.90000000000001</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="85">
@@ -1463,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>braton_vandal_set</t>
+          <t>venka_prime_set</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>220.3</v>
+        <v>162.7</v>
       </c>
     </row>
     <row r="86">
@@ -1476,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dera_vandal_set</t>
+          <t>tipedo_prime_set</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="87">
@@ -1489,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>karak_wraith_set</t>
+          <t>shedu_set</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46.3</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1502,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>gorgon_wraith_set</t>
+          <t>braton_vandal_set</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8.6</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="89">
@@ -1515,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>latron_wraith_set</t>
+          <t>dera_vandal_set</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>40.4</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="90">
@@ -1528,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>strun_wraith_set</t>
+          <t>karak_wraith_set</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>41.9</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="91">
@@ -1541,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>snipetron_vandal_set</t>
+          <t>gorgon_wraith_set</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>33.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -1554,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>lato_vandal_set</t>
+          <t>latron_wraith_set</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>130.6</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="93">
@@ -1567,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>twin_vipers_wraith_set</t>
+          <t>strun_wraith_set</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="94">
@@ -1580,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>furax_wraith_set</t>
+          <t>snipetron_vandal_set</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>19</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="95">
@@ -1593,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pathocyst_set</t>
+          <t>lato_vandal_set</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="96">
@@ -1606,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>imperator_vandal_set</t>
+          <t>twin_vipers_wraith_set</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>61.5</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="97">
@@ -1619,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>panthera_prime_set</t>
+          <t>furax_wraith_set</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>48.3</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="98">
@@ -1632,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>karyst_prime_set</t>
+          <t>pathocyst_set</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>37.3</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="99">
@@ -1645,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rakta_cernos</t>
+          <t>imperator_vandal_set</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>24.1</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="100">
@@ -1658,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>vulkar_wraith</t>
+          <t>panthera_prime_set</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>58.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="101">
@@ -1671,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sancti_tigris</t>
+          <t>karyst_prime_set</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>26.9</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="102">
@@ -1684,11 +1752,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vaykor_hek</t>
+          <t>rakta_cernos</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>20.3</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="103">
@@ -1697,11 +1765,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>synoid_simulor</t>
+          <t>vengeful_shockwave_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104">
@@ -1710,11 +1778,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>secura_penta</t>
+          <t>vengeful_flame_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>32.7</v>
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -1723,11 +1791,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>quanta_vandal</t>
+          <t>vengeful_chill_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>56.8</v>
+        <v>127.3</v>
       </c>
     </row>
     <row r="106">
@@ -1736,11 +1804,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>prisma_grinlok</t>
+          <t>vengeful_charge_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>76.40000000000001</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="107">
@@ -1749,11 +1817,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>supra_vandal</t>
+          <t>vengeful_toxin_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108">
@@ -1762,11 +1830,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>prisma_tetra</t>
+          <t>vengeful_pull_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1775,11 +1843,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>prisma_grakata</t>
+          <t>vengeful_trickster_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>75</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="110">
@@ -1788,11 +1856,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>viper_wraith</t>
+          <t>vulkar_wraith</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>51.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="111">
@@ -1801,11 +1869,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>vaykor_marelok</t>
+          <t>sancti_tigris</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>23.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="112">
@@ -1814,11 +1882,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>synoid_gammacor</t>
+          <t>vaykor_hek</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>28.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
@@ -1827,11 +1895,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rakta_ballistica</t>
+          <t>synoid_simulor</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>22.4</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="114">
@@ -1840,11 +1908,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mara_detron</t>
+          <t>secura_penta</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>92.90000000000001</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="115">
@@ -1853,11 +1921,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>prisma_angstrum</t>
+          <t>quanta_vandal</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>86.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1866,11 +1934,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>secura_dual_cestra</t>
+          <t>prisma_grinlok</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>30.2</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="117">
@@ -1879,11 +1947,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>prisma_twin_gremlins</t>
+          <t>supra_vandal</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>84.09999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118">
@@ -1892,11 +1960,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>telos_akbolto</t>
+          <t>prisma_tetra</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>27</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="119">
@@ -1905,11 +1973,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>sancti_castanas</t>
+          <t>prisma_grakata</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>30.9</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="120">
@@ -1918,11 +1986,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>prisma_skana</t>
+          <t>viper_wraith</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>74</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="121">
@@ -1931,11 +1999,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>prisma_dual_cleavers</t>
+          <t>vaykor_marelok</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>76.40000000000001</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="122">
@@ -1944,11 +2012,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>machete_wraith</t>
+          <t>synoid_gammacor</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>40.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="123">
@@ -1957,11 +2025,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>prova_vandal</t>
+          <t>rakta_ballistica</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>70.09999999999999</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="124">
@@ -1970,11 +2038,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rakta_dark_dagger</t>
+          <t>mara_detron</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27.5</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="125">
@@ -1983,11 +2051,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>prisma_obex</t>
+          <t>prisma_angstrum</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>89.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -1996,11 +2064,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vaykor_sydon</t>
+          <t>secura_dual_cestra</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>23.6</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="127">
@@ -2009,11 +2077,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>synoid_heliocor</t>
+          <t>prisma_twin_gremlins</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>29.2</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -2022,11 +2090,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sancti_magistar</t>
+          <t>telos_akbolto</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>29.4</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="129">
@@ -2035,11 +2103,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>telos_boltor</t>
+          <t>sancti_castanas</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="130">
@@ -2048,11 +2116,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>secura_lecta</t>
+          <t>prisma_skana</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>29.6</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="131">
@@ -2061,11 +2129,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>aerodynamic</t>
+          <t>prisma_dual_cleavers</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>21.9</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="132">
@@ -2074,11 +2142,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>brief_respite</t>
+          <t>machete_wraith</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>12.6</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="133">
@@ -2087,11 +2155,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>combat_discipline</t>
+          <t>prova_vandal</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134">
@@ -2100,11 +2168,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>corrosive_projection</t>
+          <t>rakta_dark_dagger</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>16.5</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="135">
@@ -2113,11 +2181,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>dead_eye</t>
+          <t>prisma_obex</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>18.4</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -2126,11 +2194,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>empowered_blades</t>
+          <t>vaykor_sydon</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>22.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="137">
@@ -2139,11 +2207,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>enemy_radar</t>
+          <t>synoid_heliocor</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="138">
@@ -2152,11 +2220,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>energy_siphon</t>
+          <t>sancti_magistar</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>23.9</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="139">
@@ -2165,11 +2233,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>growing_power</t>
+          <t>telos_boltor</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>35.3</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="140">
@@ -2178,11 +2246,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>infested_impedance</t>
+          <t>secura_lecta</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="141">
@@ -2191,11 +2259,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>loot_detector</t>
+          <t>aerodynamic</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>17.4</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="142">
@@ -2204,11 +2272,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>mecha_empowered</t>
+          <t>brief_respite</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="143">
@@ -2217,11 +2285,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>melee_guidance</t>
+          <t>combat_discipline</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="144">
@@ -2230,11 +2298,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>physique</t>
+          <t>corrosive_projection</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="145">
@@ -2243,11 +2311,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>pistol_amp</t>
+          <t>dead_eye</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6.6</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="146">
@@ -2256,11 +2324,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>pistol_scavenger</t>
+          <t>empowered_blades</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>8.9</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="147">
@@ -2269,11 +2337,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>power_donation</t>
+          <t>enemy_radar</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>16.7</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="148">
@@ -2282,11 +2350,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>rejuvenation</t>
+          <t>energy_siphon</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>20.2</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="149">
@@ -2295,11 +2363,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>rifle_amp</t>
+          <t>growing_power</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>13.8</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="150">
@@ -2308,11 +2376,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>rifle_scavenger</t>
+          <t>infested_impedance</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2321,11 +2389,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>shepherd</t>
+          <t>loot_detector</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6.5</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="152">
@@ -2334,11 +2402,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>shield_disruption</t>
+          <t>mecha_empowered</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="153">
@@ -2347,11 +2415,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>shotgun_amp</t>
+          <t>melee_guidance</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2428,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>shotgun_scavenger</t>
+          <t>physique</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2373,11 +2441,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>sniper_scavenger</t>
+          <t>pistol_amp</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="156">
@@ -2386,11 +2454,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>speed_holster</t>
+          <t>pistol_scavenger</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>17.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="157">
@@ -2399,11 +2467,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sprint_boost</t>
+          <t>power_donation</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="158">
@@ -2412,11 +2480,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>stand_united</t>
+          <t>rejuvenation</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6.1</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="159">
@@ -2425,11 +2493,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>steel_charge</t>
+          <t>rifle_amp</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>25.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="160">
@@ -2438,11 +2506,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>swift_momentum</t>
+          <t>rifle_scavenger</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2451,11 +2519,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>toxin_resistance</t>
+          <t>shepherd</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="162">
@@ -2464,11 +2532,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>shield_disruption</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>20</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="163">
@@ -2477,11 +2545,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>aero_vantage</t>
+          <t>shotgun_amp</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="164">
@@ -2490,11 +2558,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>agility_drift</t>
+          <t>shotgun_scavenger</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2503,11 +2571,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>armored_agility</t>
+          <t>sniper_scavenger</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2516,11 +2584,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>augur_accord</t>
+          <t>speed_holster</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3.9</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="167">
@@ -2529,11 +2597,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>augur_message</t>
+          <t>sprint_boost</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>4.4</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="168">
@@ -2542,11 +2610,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>augur_reach</t>
+          <t>stand_united</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>15.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="169">
@@ -2555,11 +2623,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>augur_secrets</t>
+          <t>steel_charge</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>30.8</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="170">
@@ -2568,11 +2636,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>aviator</t>
+          <t>swift_momentum</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="171">
@@ -2581,11 +2649,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>blind_rage</t>
+          <t>toxin_resistance</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2594,11 +2662,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>coaction_drift</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
@@ -2607,11 +2675,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>constitution</t>
+          <t>necramech_blitz</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>13.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="174">
@@ -2620,11 +2688,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>continuity</t>
+          <t>necramech_continuity</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -2633,11 +2701,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>cunning_drift</t>
+          <t>necramech_fury</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="176">
@@ -2646,11 +2714,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>endurance_drift</t>
+          <t>necramech_intensify</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -2659,11 +2727,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>enemy_sense</t>
+          <t>necramech_pressure_point</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="178">
@@ -2672,11 +2740,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>energy_conversion</t>
+          <t>necramech_reach</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>53.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="179">
@@ -2685,11 +2753,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>equilibrium</t>
+          <t>necramech_redirection</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="180">
@@ -2698,11 +2766,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>firewalker</t>
+          <t>necramech_refuel</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2711,11 +2779,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>fleeting_expertise</t>
+          <t>necramech_seismic_wave</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>15.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182">
@@ -2724,11 +2792,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>necramech_slipstream</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="183">
@@ -2737,11 +2805,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>fortitude</t>
+          <t>necramech_steel_fiber</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="184">
@@ -2750,11 +2818,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>gladiator_aegis</t>
+          <t>necramech_streamline</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -2763,11 +2831,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>gladiator_finesse</t>
+          <t>necramech_thrusters</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186">
@@ -2776,11 +2844,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>gladiator_resolve</t>
+          <t>necramech_vitality</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -2789,11 +2857,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>handspring</t>
+          <t>necramech_stretch</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4.9</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="188">
@@ -2802,11 +2870,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>health_conversion</t>
+          <t>aero_vantage</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>56.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -2815,11 +2883,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>hunter_adrenaline</t>
+          <t>agility_drift</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="190">
@@ -2828,11 +2896,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ice_spring</t>
+          <t>armored_agility</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="191">
@@ -2841,11 +2909,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>augur_accord</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="192">
@@ -2854,11 +2922,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>lightning_dash</t>
+          <t>augur_message</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="193">
@@ -2867,11 +2935,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>master_thief</t>
+          <t>augur_reach</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="194">
@@ -2880,11 +2948,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>mecha_pulse</t>
+          <t>augur_secrets</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3.7</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="195">
@@ -2893,11 +2961,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>motus_signal</t>
+          <t>aviator</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="196">
@@ -2906,11 +2974,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>narrow_minded</t>
+          <t>blind_rage</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>14.7</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="197">
@@ -2919,11 +2987,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>natural_talent</t>
+          <t>coaction_drift</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -2932,11 +3000,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>overextended</t>
+          <t>constitution</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -2945,11 +3013,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>pain_threshold</t>
+          <t>continuity</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="200">
@@ -2958,11 +3026,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>power_drift</t>
+          <t>cunning_drift</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="201">
@@ -2971,11 +3039,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>primed_continuity</t>
+          <t>endurance_drift</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>70.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="202">
@@ -2984,11 +3052,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>primed_flow</t>
+          <t>enemy_sense</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>68.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="203">
@@ -2997,11 +3065,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>rage</t>
+          <t>energy_conversion</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="204">
@@ -3010,11 +3078,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>reflection</t>
+          <t>equilibrium</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="205">
@@ -3023,11 +3091,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>reflex_guard</t>
+          <t>firewalker</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3036,11 +3104,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>rolling_guard</t>
+          <t>fleeting_expertise</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="207">
@@ -3049,11 +3117,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>rush</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="208">
@@ -3062,11 +3130,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>speed_drift</t>
+          <t>fortitude</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>19.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="209">
@@ -3075,11 +3143,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>stealth_drift</t>
+          <t>gladiator_aegis</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="210">
@@ -3088,11 +3156,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>strain_consume</t>
+          <t>gladiator_finesse</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="211">
@@ -3101,11 +3169,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>streamline</t>
+          <t>gladiator_resolve</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="212">
@@ -3114,11 +3182,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>streamlined_form</t>
+          <t>handspring</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="213">
@@ -3127,11 +3195,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>health_conversion</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2.1</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="214">
@@ -3140,11 +3208,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>sure_footed</t>
+          <t>hunter_adrenaline</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="215">
@@ -3153,11 +3221,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>synth_reflex</t>
+          <t>ice_spring</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3166,11 +3234,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>tek_collateral</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="217">
@@ -3179,11 +3247,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>toxic_flight</t>
+          <t>lightning_dash</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="218">
@@ -3192,11 +3260,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>transient_fortitude</t>
+          <t>master_thief</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -3205,11 +3273,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>vigilante_pursuit</t>
+          <t>mecha_pulse</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -3218,11 +3286,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>vigilante_vigor</t>
+          <t>motus_signal</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3231,11 +3299,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>vigor</t>
+          <t>narrow_minded</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>7.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="222">
@@ -3244,11 +3312,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>vigorous_swap</t>
+          <t>natural_talent</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>17.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -3257,11 +3325,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>arcane_consequence</t>
+          <t>overextended</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="224">
@@ -3270,11 +3338,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>arcane_ice</t>
+          <t>pain_threshold</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -3283,11 +3351,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>arcane_momentum</t>
+          <t>power_drift</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="226">
@@ -3296,11 +3364,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>arcane_nullifier</t>
+          <t>primed_continuity</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>5</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="227">
@@ -3309,11 +3377,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>arcane_tempo</t>
+          <t>primed_flow</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -3322,11 +3390,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>arcane_warmth</t>
+          <t>rage</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3403,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>arcane_deflection</t>
+          <t>reflection</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3348,11 +3416,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>arcane_healing</t>
+          <t>reflex_guard</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -3361,11 +3429,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>arcane_resistance</t>
+          <t>rolling_guard</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232">
@@ -3374,11 +3442,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>arcane_victory</t>
+          <t>rush</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -3387,11 +3455,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>arcane_acceleration</t>
+          <t>speed_drift</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5.9</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="234">
@@ -3400,11 +3468,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>arcane_agility</t>
+          <t>stealth_drift</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -3413,11 +3481,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>arcane_awakening</t>
+          <t>strain_consume</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
@@ -3426,11 +3494,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>arcane_eruption</t>
+          <t>streamline</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="237">
@@ -3439,11 +3507,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>arcane_guardian</t>
+          <t>streamlined_form</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>20.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="238">
@@ -3452,11 +3520,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>arcane_phantasm</t>
+          <t>stretch</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -3465,11 +3533,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>arcane_strike</t>
+          <t>sure_footed</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="240">
@@ -3478,11 +3546,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>arcane_aegis</t>
+          <t>synth_reflex</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>16.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="241">
@@ -3491,11 +3559,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>arcane_precision</t>
+          <t>tek_collateral</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3504,11 +3572,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>arcane_pulse</t>
+          <t>toxic_flight</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -3517,11 +3585,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>arcane_ultimatum</t>
+          <t>transient_fortitude</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7.3</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="244">
@@ -3530,11 +3598,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>arcane_trickery</t>
+          <t>vigilante_pursuit</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="245">
@@ -3543,11 +3611,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>arcane_velocity</t>
+          <t>vigilante_vigor</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3556,11 +3624,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>arcane_arachne</t>
+          <t>vigor</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="247">
@@ -3569,11 +3637,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>arcane_avenger</t>
+          <t>vigorous_swap</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>8.6</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="248">
@@ -3582,11 +3650,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>arcane_fury</t>
+          <t>arcane_consequence</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -3595,11 +3663,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>arcane_rage</t>
+          <t>arcane_ice</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -3608,11 +3676,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>arcane_barrier</t>
+          <t>arcane_momentum</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>15</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="251">
@@ -3621,11 +3689,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>arcane_energize</t>
+          <t>arcane_nullifier</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>59.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="252">
@@ -3634,11 +3702,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>arcane_grace</t>
+          <t>arcane_tempo</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>48.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3647,11 +3715,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>arcane_blade_charger</t>
+          <t>arcane_warmth</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -3660,11 +3728,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>arcane_bodyguard</t>
+          <t>arcane_deflection</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="255">
@@ -3673,11 +3741,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>arcane_pistoleer</t>
+          <t>arcane_healing</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>10</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="256">
@@ -3686,11 +3754,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>arcane_primary_charger</t>
+          <t>arcane_resistance</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="257">
@@ -3699,11 +3767,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>arcane_tanker</t>
+          <t>arcane_victory</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="258">
@@ -3712,11 +3780,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>magus_husk</t>
+          <t>arcane_acceleration</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="259">
@@ -3725,11 +3793,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>magus_vigor</t>
+          <t>arcane_agility</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="260">
@@ -3738,11 +3806,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>magus_cadence</t>
+          <t>arcane_awakening</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="261">
@@ -3751,11 +3819,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>magus_cloud</t>
+          <t>arcane_eruption</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="262">
@@ -3764,11 +3832,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>magus_replenish</t>
+          <t>arcane_guardian</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="263">
@@ -3777,11 +3845,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>magus_elevate</t>
+          <t>arcane_phantasm</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="264">
@@ -3790,11 +3858,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>magus_nourish</t>
+          <t>arcane_strike</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="265">
@@ -3803,11 +3871,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>magus_overload</t>
+          <t>arcane_aegis</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="266">
@@ -3816,11 +3884,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>magus_glitch</t>
+          <t>arcane_precision</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="267">
@@ -3829,11 +3897,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>magus_revert</t>
+          <t>arcane_pulse</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="268">
@@ -3842,11 +3910,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>magus_lockdown</t>
+          <t>arcane_ultimatum</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>8.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -3855,11 +3923,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>magus_destruct</t>
+          <t>arcane_trickery</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="270">
@@ -3868,11 +3936,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>magus_anomaly</t>
+          <t>arcane_velocity</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="271">
@@ -3881,11 +3949,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>magus_melt</t>
+          <t>arcane_arachne</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="272">
@@ -3894,11 +3962,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>magus_accelerant</t>
+          <t>arcane_avenger</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
@@ -3907,11 +3975,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>magus_repair</t>
+          <t>arcane_fury</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274">
@@ -3920,11 +3988,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>virtuos_null</t>
+          <t>arcane_rage</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="275">
@@ -3933,11 +4001,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>virtuos_tempo</t>
+          <t>arcane_barrier</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="276">
@@ -3946,11 +4014,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>virtuos_fury</t>
+          <t>arcane_energize</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="277">
@@ -3959,11 +4027,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>virtuos_strike</t>
+          <t>arcane_grace</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>5.5</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="278">
@@ -3972,11 +4040,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>virtuos_ghost</t>
+          <t>arcane_blade_charger</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="279">
@@ -3985,11 +4053,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>virtuos_shadow</t>
+          <t>arcane_bodyguard</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="280">
@@ -3998,11 +4066,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>virtuos_forge</t>
+          <t>arcane_pistoleer</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="281">
@@ -4011,11 +4079,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>virtuos_trojan</t>
+          <t>arcane_primary_charger</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
@@ -4024,11 +4092,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>virtuos_spike</t>
+          <t>arcane_tanker</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="283">
@@ -4037,7 +4105,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>virtuos_surge</t>
+          <t>magus_husk</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4050,11 +4118,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>pax_bolt</t>
+          <t>magus_vigor</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="285">
@@ -4063,11 +4131,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>pax_charge</t>
+          <t>magus_cadence</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -4076,11 +4144,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>pax_seeker</t>
+          <t>magus_cloud</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="287">
@@ -4089,11 +4157,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>pax_soar</t>
+          <t>magus_replenish</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="288">
@@ -4102,11 +4170,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>exodia_triumph</t>
+          <t>magus_elevate</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="289">
@@ -4115,7 +4183,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>exodia_valor</t>
+          <t>magus_nourish</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4128,7 +4196,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>exodia_brave</t>
+          <t>magus_overload</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4141,7 +4209,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>exodia_force</t>
+          <t>magus_glitch</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4154,11 +4222,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>exodia_hunt</t>
+          <t>magus_revert</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -4167,11 +4235,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>exodia_might</t>
+          <t>magus_lockdown</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="294">
@@ -4180,11 +4248,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>exodia_contagion</t>
+          <t>magus_destruct</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -4193,11 +4261,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>exodia_epidemic</t>
+          <t>magus_anomaly</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="296">
@@ -4206,11 +4274,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>aero_periphery</t>
+          <t>magus_melt</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>26.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="297">
@@ -4219,11 +4287,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>hunter_munitions</t>
+          <t>magus_accelerant</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -4232,11 +4300,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>hunter_track</t>
+          <t>magus_repair</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="299">
@@ -4245,11 +4313,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>vigilante_armaments</t>
+          <t>virtuos_null</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -4258,11 +4326,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>vigilante_fervor</t>
+          <t>virtuos_tempo</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4271,11 +4339,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>vigilante_offense</t>
+          <t>virtuos_fury</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -4284,11 +4352,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>vigilante_supplies</t>
+          <t>virtuos_strike</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>25.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="303">
@@ -4297,11 +4365,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>adhesive_blast</t>
+          <t>virtuos_ghost</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -4310,11 +4378,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>agile_aim</t>
+          <t>virtuos_shadow</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9.199999999999999</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="305">
@@ -4323,7 +4391,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ammo_drum</t>
+          <t>virtuos_forge</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -4336,11 +4404,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>argon_scope</t>
+          <t>virtuos_trojan</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -4349,11 +4417,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>bladed_rounds</t>
+          <t>virtuos_surge</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -4362,7 +4430,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>catalyzer_link</t>
+          <t>pax_bolt</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -4375,11 +4443,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>cautious_shot</t>
+          <t>pax_seeker</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>20.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="310">
@@ -4388,7 +4456,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>continuous_misery</t>
+          <t>pax_soar</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -4401,7 +4469,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>crash_course</t>
+          <t>exodia_triumph</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -4414,11 +4482,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>critical_delay</t>
+          <t>exodia_valor</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -4427,11 +4495,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>cryo_rounds</t>
+          <t>exodia_brave</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="314">
@@ -4440,11 +4508,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>fanged_fusillade</t>
+          <t>exodia_force</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="315">
@@ -4453,11 +4521,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>firestorm</t>
+          <t>exodia_hunt</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="316">
@@ -4466,11 +4534,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>hammer_shot</t>
+          <t>exodia_might</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -4479,11 +4547,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>heavy_caliber</t>
+          <t>exodia_contagion</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>13.6</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="318">
@@ -4492,11 +4560,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>hellfire</t>
+          <t>exodia_epidemic</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -4505,11 +4573,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>high_voltage</t>
+          <t>aero_periphery</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>48.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -4518,11 +4586,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>hunter_munitions</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="321">
@@ -4531,11 +4599,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>infected_clip</t>
+          <t>hunter_track</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -4544,11 +4612,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>malignant_force</t>
+          <t>vigilante_armaments</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="323">
@@ -4557,11 +4625,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>metal_auger</t>
+          <t>vigilante_fervor</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="324">
@@ -4570,11 +4638,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>piercing_caliber</t>
+          <t>vigilante_offense</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>19.2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="325">
@@ -4583,11 +4651,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>point_strike</t>
+          <t>vigilante_supplies</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="326">
@@ -4596,11 +4664,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>primed_cryo_rounds</t>
+          <t>adhesive_blast</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>139.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -4609,11 +4677,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>primed_fast_hands</t>
+          <t>agile_aim</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>56.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="328">
@@ -4622,7 +4690,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>proton_jet</t>
+          <t>ammo_drum</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -4635,11 +4703,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>rifle_aptitude</t>
+          <t>argon_scope</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330">
@@ -4648,11 +4716,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>rime_rounds</t>
+          <t>bladed_rounds</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>18.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="331">
@@ -4661,7 +4729,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>catalyzer_link</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -4674,11 +4742,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>cautious_shot</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3.4</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="333">
@@ -4687,7 +4755,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>continuous_misery</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -4700,7 +4768,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>crash_course</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -4713,11 +4781,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>critical_delay</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="336">
@@ -4726,11 +4794,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>cryo_rounds</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="337">
@@ -4739,11 +4807,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>fanged_fusillade</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="338">
@@ -4752,11 +4820,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>firestorm</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="339">
@@ -4765,11 +4833,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>hammer_shot</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>8.300000000000001</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="340">
@@ -4778,11 +4846,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>heavy_caliber</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="341">
@@ -4791,11 +4859,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>hellfire</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>8.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="342">
@@ -4804,11 +4872,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>high_voltage</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="343">
@@ -4817,11 +4885,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -4830,11 +4898,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>infected_clip</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -4843,11 +4911,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>malignant_force</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="346">
@@ -4856,11 +4924,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>metal_auger</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4869,7 +4937,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>piercing_caliber</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -4882,7 +4950,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>point_strike</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -4895,11 +4963,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>primed_cryo_rounds</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="350">
@@ -4908,11 +4976,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>primed_fast_hands</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="351">
@@ -4921,11 +4989,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>proton_jet</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -4934,7 +5002,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>rifle_aptitude</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -4947,11 +5015,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>rime_rounds</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>9.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="354">
@@ -4960,11 +5028,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="355">
@@ -4973,11 +5041,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="356">
@@ -4986,7 +5054,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -4999,11 +5067,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -5012,11 +5080,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -5025,7 +5093,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5038,11 +5106,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -5051,11 +5119,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="362">
@@ -5064,11 +5132,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -5077,11 +5145,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2.5</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="364">
@@ -5090,11 +5158,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="365">
@@ -5103,7 +5171,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5116,11 +5184,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="367">
@@ -5129,11 +5197,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -5142,11 +5210,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>deft_tempo</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -5155,11 +5223,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="370">
@@ -5168,7 +5236,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5181,11 +5249,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>hydraulic_gauge</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -5194,11 +5262,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>loose_hatch</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -5207,7 +5275,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>maximum_capacity</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -5220,11 +5288,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="375">
@@ -5233,11 +5301,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -5246,11 +5314,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>58.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="377">
@@ -5259,11 +5327,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="378">
@@ -5272,11 +5340,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>21.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="379">
@@ -5285,11 +5353,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>49.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5298,11 +5366,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>59.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="381">
@@ -5311,11 +5379,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>96</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="382">
@@ -5324,11 +5392,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -5337,7 +5405,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -5350,11 +5418,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="385">
@@ -5363,7 +5431,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -5376,11 +5444,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="387">
@@ -5389,11 +5457,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>shell_compression</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388">
@@ -5402,11 +5470,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>33.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="389">
@@ -5415,11 +5483,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -5428,11 +5496,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="391">
@@ -5441,11 +5509,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="392">
@@ -5454,11 +5522,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -5467,11 +5535,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -5480,11 +5548,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="395">
@@ -5493,11 +5561,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="396">
@@ -5506,11 +5574,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>8.800000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="397">
@@ -5519,11 +5587,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -5532,11 +5600,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -5545,11 +5613,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -5558,7 +5626,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -5571,11 +5639,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="402">
@@ -5584,11 +5652,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403">
@@ -5597,11 +5665,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="404">
@@ -5610,7 +5678,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -5623,11 +5691,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>378.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="406">
@@ -5636,11 +5704,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -5649,11 +5717,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="408">
@@ -5662,11 +5730,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="409">
@@ -5675,11 +5743,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="410">
@@ -5688,11 +5756,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>82.5</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="411">
@@ -5701,11 +5769,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="412">
@@ -5714,11 +5782,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -5727,11 +5795,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="414">
@@ -5740,11 +5808,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="415">
@@ -5753,11 +5821,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="416">
@@ -5766,11 +5834,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -5779,7 +5847,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>concussion_rounds</t>
+          <t>soft_hands</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -5792,11 +5860,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="419">
@@ -5805,11 +5873,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="420">
@@ -5818,11 +5886,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="421">
@@ -5831,11 +5899,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>11.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="422">
@@ -5844,11 +5912,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -5857,11 +5925,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="424">
@@ -5870,11 +5938,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>21.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="425">
@@ -5883,11 +5951,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>emergent_aftermath</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -5896,11 +5964,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>harkonar_scope</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427">
@@ -5909,11 +5977,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="428">
@@ -5922,11 +5990,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -5935,11 +6003,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -5948,7 +6016,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -5961,11 +6029,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="432">
@@ -5974,11 +6042,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1.6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="433">
@@ -5987,11 +6055,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>51.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="434">
@@ -6000,11 +6068,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>13.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="435">
@@ -6013,11 +6081,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="436">
@@ -6026,11 +6094,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="437">
@@ -6039,11 +6107,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>8.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="438">
@@ -6052,11 +6120,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -6065,7 +6133,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>concussion_rounds</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -6078,11 +6146,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="441">
@@ -6091,11 +6159,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="442">
@@ -6104,11 +6172,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6117,11 +6185,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>53</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="444">
@@ -6130,11 +6198,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -6143,11 +6211,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>58.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="446">
@@ -6156,11 +6224,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -6169,11 +6237,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="448">
@@ -6182,11 +6250,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>75.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -6195,11 +6263,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>49.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -6208,11 +6276,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -6221,11 +6289,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>153.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="452">
@@ -6234,11 +6302,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -6247,11 +6315,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>9.300000000000001</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="454">
@@ -6260,11 +6328,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="455">
@@ -6273,11 +6341,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="456">
@@ -6286,11 +6354,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="457">
@@ -6299,11 +6367,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="458">
@@ -6312,11 +6380,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="459">
@@ -6325,11 +6393,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="460">
@@ -6338,11 +6406,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="461">
@@ -6351,11 +6419,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="462">
@@ -6364,11 +6432,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="463">
@@ -6377,11 +6445,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -6390,11 +6458,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="465">
@@ -6403,11 +6471,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>12.9</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="466">
@@ -6416,11 +6484,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -6429,11 +6497,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -6442,11 +6510,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>12.3</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="469">
@@ -6455,11 +6523,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>11.4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="470">
@@ -6468,11 +6536,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3.3</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="471">
@@ -6481,11 +6549,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -6494,11 +6562,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>8.699999999999999</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6575,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3.8</v>
+        <v>164.3</v>
       </c>
     </row>
     <row r="474">
@@ -6520,7 +6588,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -6533,11 +6601,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -6546,11 +6614,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="477">
@@ -6559,7 +6627,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -6572,11 +6640,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -6585,7 +6653,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -6598,7 +6666,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -6611,11 +6679,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>7.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="482">
@@ -6624,7 +6692,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,11 +6705,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -6650,11 +6718,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="485">
@@ -6663,11 +6731,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>22.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="486">
@@ -6676,11 +6744,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -6689,11 +6757,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>7.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="488">
@@ -6702,11 +6770,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="489">
@@ -6715,11 +6783,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="490">
@@ -6728,11 +6796,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491">
@@ -6741,11 +6809,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6822,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="493">
@@ -6767,11 +6835,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="494">
@@ -6780,11 +6848,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="495">
@@ -6793,11 +6861,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="496">
@@ -6806,7 +6874,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -6819,11 +6887,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="498">
@@ -6832,11 +6900,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -6845,7 +6913,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -6858,11 +6926,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>119.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -6871,11 +6939,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>28.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -6884,11 +6952,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>76.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -6897,11 +6965,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>69.40000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="504">
@@ -6910,7 +6978,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -6923,11 +6991,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="506">
@@ -6936,11 +7004,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>129</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="507">
@@ -6949,11 +7017,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="508">
@@ -6962,11 +7030,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +7043,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510">
@@ -6988,7 +7056,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -7001,11 +7069,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="512">
@@ -7014,11 +7082,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -7027,11 +7095,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -7040,11 +7108,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="515">
@@ -7053,7 +7121,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -7066,11 +7134,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>mortal_conduct</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -7079,11 +7147,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>15.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="518">
@@ -7092,7 +7160,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -7105,11 +7173,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="520">
@@ -7118,11 +7186,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -7131,11 +7199,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="522">
@@ -7144,11 +7212,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>8.4</v>
+        <v>146.8</v>
       </c>
     </row>
     <row r="523">
@@ -7157,11 +7225,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>5.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="524">
@@ -7170,11 +7238,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>5.6</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7251,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>48.2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7264,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>26.4</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7277,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="528">
@@ -7222,11 +7290,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -7235,11 +7303,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>5.5</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7316,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -7261,11 +7329,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="532">
@@ -7274,11 +7342,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -7287,11 +7355,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>50.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -7300,11 +7368,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="535">
@@ -7313,11 +7381,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -7326,7 +7394,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -7339,11 +7407,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -7352,11 +7420,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="539">
@@ -7365,11 +7433,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7446,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7459,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -7404,11 +7472,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="543">
@@ -7417,11 +7485,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7498,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7511,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="546">
@@ -7456,11 +7524,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="547">
@@ -7469,11 +7537,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>13.9</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7550,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>4.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7563,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="550">
@@ -7508,11 +7576,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551">
@@ -7521,11 +7589,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="552">
@@ -7534,11 +7602,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7615,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7628,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7641,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>10.9</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7654,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7667,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7680,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7693,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="560">
@@ -7638,11 +7706,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -7651,7 +7719,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -7664,11 +7732,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7745,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -7690,11 +7758,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="565">
@@ -7703,11 +7771,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>4.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="566">
@@ -7716,11 +7784,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="567">
@@ -7729,11 +7797,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="568">
@@ -7742,11 +7810,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="569">
@@ -7755,11 +7823,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>8.9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="570">
@@ -7768,11 +7836,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7849,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="572">
@@ -7794,11 +7862,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -7807,11 +7875,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7888,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7901,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="576">
@@ -7846,11 +7914,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -7859,11 +7927,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>vermillion_storm</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="578">
@@ -7872,11 +7940,297 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
+          <t>homing_fang</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>iron_phoenix</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>pointed_wind</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>reaping_spiral</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>rending_crane</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>seismic_palm</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>shattering_storm</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>shimmering_blight</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>sinking_talon</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>slicing_feathers</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>sovereign_outcast</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>spinning_needle</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>stalking_fan</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>stinging_thorn</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>sundering_weave</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>swirling_tiger</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>swooping_falcon</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>tempo_royale</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>tranquil_cleave</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>twirling_spire</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>vengeful_revenant</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>vermillion_storm</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
           <t>vulpine_mask</t>
         </is>
       </c>
-      <c r="C578" t="n">
-        <v>2.5</v>
+      <c r="C600" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -66,74 +66,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C600"/>
+  <dimension ref="A1:C608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2675,11 +2607,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>necramech_blitz</t>
+          <t>saxum_carapace</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4.4</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="174">
@@ -2688,11 +2620,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>necramech_continuity</t>
+          <t>carnis_carapace</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>18</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="175">
@@ -2701,11 +2633,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>necramech_fury</t>
+          <t>jugulus_carapace</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4.2</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="176">
@@ -2714,11 +2646,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>necramech_intensify</t>
+          <t>necramech_blitz</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>8.300000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="177">
@@ -2727,11 +2659,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>necramech_pressure_point</t>
+          <t>necramech_continuity</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>8.1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -2740,11 +2672,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>necramech_reach</t>
+          <t>necramech_fury</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="179">
@@ -2753,11 +2685,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>necramech_redirection</t>
+          <t>necramech_intensify</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -2766,11 +2698,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>necramech_refuel</t>
+          <t>necramech_pressure_point</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="181">
@@ -2779,11 +2711,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>necramech_seismic_wave</t>
+          <t>necramech_reach</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>125</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="182">
@@ -2792,11 +2724,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>necramech_slipstream</t>
+          <t>necramech_redirection</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="183">
@@ -2805,11 +2737,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>necramech_steel_fiber</t>
+          <t>necramech_refuel</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -2818,11 +2750,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>necramech_streamline</t>
+          <t>necramech_seismic_wave</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="185">
@@ -2831,11 +2763,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>necramech_thrusters</t>
+          <t>necramech_slipstream</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>352</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="186">
@@ -2844,11 +2776,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>necramech_vitality</t>
+          <t>necramech_steel_fiber</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="187">
@@ -2857,11 +2789,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>necramech_stretch</t>
+          <t>necramech_streamline</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -2870,11 +2802,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>aero_vantage</t>
+          <t>necramech_thrusters</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189">
@@ -2883,11 +2815,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>agility_drift</t>
+          <t>necramech_vitality</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -2896,11 +2828,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>armored_agility</t>
+          <t>necramech_stretch</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3.9</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="191">
@@ -2909,11 +2841,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>augur_accord</t>
+          <t>aero_vantage</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -2922,11 +2854,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>augur_message</t>
+          <t>agility_drift</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="193">
@@ -2935,11 +2867,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>augur_reach</t>
+          <t>armored_agility</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>15.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="194">
@@ -2948,11 +2880,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>augur_secrets</t>
+          <t>augur_accord</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>29.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="195">
@@ -2961,11 +2893,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>aviator</t>
+          <t>augur_message</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="196">
@@ -2974,11 +2906,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>blind_rage</t>
+          <t>augur_reach</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="197">
@@ -2987,11 +2919,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>coaction_drift</t>
+          <t>augur_secrets</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>8</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="198">
@@ -3000,11 +2932,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>constitution</t>
+          <t>aviator</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>14</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="199">
@@ -3013,11 +2945,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>continuity</t>
+          <t>blind_rage</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>5.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="200">
@@ -3026,11 +2958,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>cunning_drift</t>
+          <t>coaction_drift</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -3039,11 +2971,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>endurance_drift</t>
+          <t>constitution</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -3052,11 +2984,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>enemy_sense</t>
+          <t>continuity</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="203">
@@ -3065,11 +2997,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>energy_conversion</t>
+          <t>cunning_drift</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>50.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="204">
@@ -3078,11 +3010,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>equilibrium</t>
+          <t>endurance_drift</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="205">
@@ -3091,11 +3023,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>firewalker</t>
+          <t>enemy_sense</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="206">
@@ -3104,11 +3036,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>fleeting_expertise</t>
+          <t>energy_conversion</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>14.7</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="207">
@@ -3117,11 +3049,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>equilibrium</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="208">
@@ -3130,11 +3062,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>fortitude</t>
+          <t>firewalker</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3143,11 +3075,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>gladiator_aegis</t>
+          <t>fleeting_expertise</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3.9</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="210">
@@ -3156,11 +3088,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>gladiator_finesse</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>7.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="211">
@@ -3169,11 +3101,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>gladiator_resolve</t>
+          <t>fortitude</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="212">
@@ -3182,11 +3114,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>handspring</t>
+          <t>gladiator_aegis</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="213">
@@ -3195,11 +3127,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>health_conversion</t>
+          <t>gladiator_finesse</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>56.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="214">
@@ -3208,11 +3140,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>hunter_adrenaline</t>
+          <t>gladiator_resolve</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="215">
@@ -3221,11 +3153,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ice_spring</t>
+          <t>handspring</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="216">
@@ -3234,11 +3166,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>health_conversion</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2.5</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="217">
@@ -3247,11 +3179,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>lightning_dash</t>
+          <t>hunter_adrenaline</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="218">
@@ -3260,7 +3192,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>master_thief</t>
+          <t>ice_spring</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3273,11 +3205,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>mecha_pulse</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="220">
@@ -3286,11 +3218,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>motus_signal</t>
+          <t>lightning_dash</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="221">
@@ -3299,11 +3231,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>narrow_minded</t>
+          <t>master_thief</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3312,11 +3244,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>natural_talent</t>
+          <t>mecha_pulse</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -3325,11 +3257,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>overextended</t>
+          <t>motus_signal</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -3338,11 +3270,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>pain_threshold</t>
+          <t>narrow_minded</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="225">
@@ -3351,11 +3283,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>power_drift</t>
+          <t>natural_talent</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
@@ -3364,11 +3296,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>primed_continuity</t>
+          <t>overextended</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>77.90000000000001</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="227">
@@ -3377,11 +3309,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>primed_flow</t>
+          <t>pain_threshold</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>75.90000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3390,11 +3322,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>rage</t>
+          <t>power_drift</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="229">
@@ -3403,11 +3335,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>reflection</t>
+          <t>primed_continuity</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="230">
@@ -3416,11 +3348,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>reflex_guard</t>
+          <t>primed_flow</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="231">
@@ -3429,11 +3361,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>rolling_guard</t>
+          <t>reflection</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -3442,7 +3374,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>rush</t>
+          <t>reflex_guard</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3455,11 +3387,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>speed_drift</t>
+          <t>rolling_guard</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>19.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234">
@@ -3468,11 +3400,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>stealth_drift</t>
+          <t>rush</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3481,11 +3413,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>strain_consume</t>
+          <t>speed_drift</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="236">
@@ -3494,11 +3426,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>streamline</t>
+          <t>stealth_drift</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -3507,11 +3439,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>streamlined_form</t>
+          <t>strain_consume</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
@@ -3520,11 +3452,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>streamline</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="239">
@@ -3533,11 +3465,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>sure_footed</t>
+          <t>streamlined_form</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="240">
@@ -3546,11 +3478,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>synth_reflex</t>
+          <t>stretch</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -3559,11 +3491,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>tek_collateral</t>
+          <t>sure_footed</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="242">
@@ -3572,11 +3504,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>toxic_flight</t>
+          <t>synth_reflex</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="243">
@@ -3585,11 +3517,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>transient_fortitude</t>
+          <t>tek_collateral</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3598,11 +3530,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>vigilante_pursuit</t>
+          <t>toxic_flight</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -3611,11 +3543,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>vigilante_vigor</t>
+          <t>transient_fortitude</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="246">
@@ -3624,11 +3556,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>vigor</t>
+          <t>vigilante_pursuit</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="247">
@@ -3637,11 +3569,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>vigorous_swap</t>
+          <t>vigilante_vigor</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -3650,11 +3582,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>arcane_consequence</t>
+          <t>vigor</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="249">
@@ -3663,11 +3595,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>arcane_ice</t>
+          <t>vigorous_swap</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="250">
@@ -3676,11 +3608,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>arcane_momentum</t>
+          <t>arcane_consequence</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -3689,11 +3621,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>arcane_nullifier</t>
+          <t>arcane_ice</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3702,11 +3634,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>arcane_tempo</t>
+          <t>arcane_momentum</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="253">
@@ -3715,11 +3647,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>arcane_warmth</t>
+          <t>arcane_nullifier</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="254">
@@ -3728,11 +3660,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>arcane_deflection</t>
+          <t>arcane_tempo</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -3741,11 +3673,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>arcane_healing</t>
+          <t>arcane_warmth</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -3754,11 +3686,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>arcane_resistance</t>
+          <t>arcane_deflection</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="257">
@@ -3767,11 +3699,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>arcane_victory</t>
+          <t>arcane_healing</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="258">
@@ -3780,11 +3712,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>arcane_acceleration</t>
+          <t>arcane_resistance</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="259">
@@ -3793,11 +3725,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>arcane_agility</t>
+          <t>arcane_victory</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="260">
@@ -3806,11 +3738,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>arcane_awakening</t>
+          <t>arcane_acceleration</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="261">
@@ -3819,11 +3751,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>arcane_eruption</t>
+          <t>arcane_agility</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="262">
@@ -3832,11 +3764,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>arcane_guardian</t>
+          <t>arcane_awakening</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>18.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="263">
@@ -3845,11 +3777,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>arcane_phantasm</t>
+          <t>arcane_eruption</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="264">
@@ -3858,11 +3790,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>arcane_strike</t>
+          <t>arcane_guardian</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>6.1</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="265">
@@ -3871,11 +3803,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>arcane_aegis</t>
+          <t>arcane_phantasm</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>15.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="266">
@@ -3884,11 +3816,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>arcane_precision</t>
+          <t>arcane_strike</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>12.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="267">
@@ -3897,11 +3829,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>arcane_pulse</t>
+          <t>arcane_aegis</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6.8</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="268">
@@ -3910,11 +3842,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>arcane_ultimatum</t>
+          <t>arcane_precision</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="269">
@@ -3923,11 +3855,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>arcane_trickery</t>
+          <t>arcane_pulse</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="270">
@@ -3936,11 +3868,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>arcane_velocity</t>
+          <t>arcane_ultimatum</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -3949,11 +3881,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>arcane_arachne</t>
+          <t>arcane_trickery</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="272">
@@ -3962,11 +3894,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>arcane_avenger</t>
+          <t>arcane_velocity</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="273">
@@ -3975,11 +3907,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>arcane_fury</t>
+          <t>arcane_arachne</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="274">
@@ -3988,11 +3920,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>arcane_rage</t>
+          <t>arcane_avenger</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
@@ -4001,11 +3933,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>arcane_barrier</t>
+          <t>arcane_fury</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>13.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276">
@@ -4014,11 +3946,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>arcane_energize</t>
+          <t>arcane_rage</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>63</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="277">
@@ -4027,11 +3959,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>arcane_grace</t>
+          <t>arcane_barrier</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>47.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="278">
@@ -4040,11 +3972,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>arcane_blade_charger</t>
+          <t>arcane_energize</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="279">
@@ -4053,11 +3985,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>arcane_bodyguard</t>
+          <t>arcane_grace</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2.7</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="280">
@@ -4066,11 +3998,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>arcane_pistoleer</t>
+          <t>arcane_blade_charger</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="281">
@@ -4079,11 +4011,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>arcane_primary_charger</t>
+          <t>arcane_bodyguard</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="282">
@@ -4092,11 +4024,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>arcane_tanker</t>
+          <t>arcane_pistoleer</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>5.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="283">
@@ -4105,11 +4037,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>magus_husk</t>
+          <t>arcane_primary_charger</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
@@ -4118,11 +4050,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>magus_vigor</t>
+          <t>arcane_tanker</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="285">
@@ -4131,7 +4063,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>magus_cadence</t>
+          <t>magus_husk</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4144,11 +4076,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>magus_cloud</t>
+          <t>magus_vigor</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="287">
@@ -4157,11 +4089,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>magus_replenish</t>
+          <t>magus_cadence</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -4170,11 +4102,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>magus_elevate</t>
+          <t>magus_cloud</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="289">
@@ -4183,11 +4115,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>magus_nourish</t>
+          <t>magus_replenish</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="290">
@@ -4196,11 +4128,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>magus_overload</t>
+          <t>magus_elevate</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="291">
@@ -4209,7 +4141,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>magus_glitch</t>
+          <t>magus_nourish</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4222,7 +4154,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>magus_revert</t>
+          <t>magus_overload</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4235,11 +4167,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>magus_lockdown</t>
+          <t>magus_glitch</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4248,7 +4180,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>magus_destruct</t>
+          <t>magus_revert</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4261,11 +4193,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>magus_anomaly</t>
+          <t>magus_lockdown</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="296">
@@ -4274,11 +4206,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>magus_melt</t>
+          <t>magus_destruct</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -4287,11 +4219,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>magus_accelerant</t>
+          <t>magus_anomaly</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="298">
@@ -4300,11 +4232,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>magus_repair</t>
+          <t>magus_melt</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="299">
@@ -4313,7 +4245,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>virtuos_null</t>
+          <t>magus_accelerant</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4326,11 +4258,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>virtuos_tempo</t>
+          <t>magus_repair</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="301">
@@ -4339,7 +4271,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>virtuos_fury</t>
+          <t>virtuos_null</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4352,11 +4284,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>virtuos_strike</t>
+          <t>virtuos_tempo</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -4365,7 +4297,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>virtuos_ghost</t>
+          <t>virtuos_fury</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4378,11 +4310,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>virtuos_shadow</t>
+          <t>virtuos_strike</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="305">
@@ -4391,7 +4323,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>virtuos_forge</t>
+          <t>virtuos_ghost</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -4404,11 +4336,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>virtuos_trojan</t>
+          <t>virtuos_shadow</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="307">
@@ -4417,7 +4349,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>virtuos_surge</t>
+          <t>virtuos_forge</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -4430,7 +4362,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>pax_bolt</t>
+          <t>virtuos_trojan</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -4443,11 +4375,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>pax_seeker</t>
+          <t>virtuos_surge</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4456,7 +4388,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>pax_soar</t>
+          <t>pax_bolt</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -4469,11 +4401,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>exodia_triumph</t>
+          <t>pax_seeker</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="312">
@@ -4482,7 +4414,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>exodia_valor</t>
+          <t>pax_soar</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -4495,11 +4427,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>exodia_brave</t>
+          <t>exodia_triumph</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -4508,11 +4440,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>exodia_force</t>
+          <t>exodia_valor</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -4521,11 +4453,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>exodia_hunt</t>
+          <t>exodia_brave</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="316">
@@ -4534,11 +4466,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>exodia_might</t>
+          <t>exodia_force</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="317">
@@ -4547,11 +4479,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>exodia_contagion</t>
+          <t>exodia_hunt</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>43.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="318">
@@ -4560,7 +4492,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>exodia_epidemic</t>
+          <t>exodia_might</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -4573,11 +4505,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>aero_periphery</t>
+          <t>exodia_contagion</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="320">
@@ -4586,11 +4518,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>hunter_munitions</t>
+          <t>exodia_epidemic</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -4599,7 +4531,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>hunter_track</t>
+          <t>aero_periphery</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -4612,11 +4544,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>vigilante_armaments</t>
+          <t>hunter_munitions</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="323">
@@ -4625,11 +4557,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>vigilante_fervor</t>
+          <t>hunter_track</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -4638,11 +4570,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>vigilante_offense</t>
+          <t>vigilante_armaments</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>10.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="325">
@@ -4651,11 +4583,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>vigilante_supplies</t>
+          <t>vigilante_fervor</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>22.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="326">
@@ -4664,11 +4596,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>adhesive_blast</t>
+          <t>vigilante_offense</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="327">
@@ -4677,11 +4609,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>agile_aim</t>
+          <t>vigilante_supplies</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>9.4</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="328">
@@ -4690,11 +4622,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ammo_drum</t>
+          <t>adhesive_blast</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -4703,11 +4635,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>argon_scope</t>
+          <t>agile_aim</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="330">
@@ -4716,11 +4648,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>bladed_rounds</t>
+          <t>ammo_drum</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4729,11 +4661,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>catalyzer_link</t>
+          <t>argon_scope</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332">
@@ -4742,11 +4674,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>cautious_shot</t>
+          <t>bladed_rounds</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>20.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="333">
@@ -4755,7 +4687,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>continuous_misery</t>
+          <t>catalyzer_link</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -4768,11 +4700,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>crash_course</t>
+          <t>cautious_shot</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="335">
@@ -4781,11 +4713,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>critical_delay</t>
+          <t>continuous_misery</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -4794,11 +4726,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>cryo_rounds</t>
+          <t>crash_course</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -4807,11 +4739,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>fanged_fusillade</t>
+          <t>critical_delay</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="338">
@@ -4820,11 +4752,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>firestorm</t>
+          <t>cryo_rounds</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="339">
@@ -4833,11 +4765,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>hammer_shot</t>
+          <t>fanged_fusillade</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>41.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="340">
@@ -4846,11 +4778,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>heavy_caliber</t>
+          <t>firestorm</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>13.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="341">
@@ -4859,11 +4791,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>hellfire</t>
+          <t>hammer_shot</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3.3</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="342">
@@ -4872,11 +4804,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>high_voltage</t>
+          <t>heavy_caliber</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>53.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="343">
@@ -4885,11 +4817,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>hellfire</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="344">
@@ -4898,11 +4830,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>infected_clip</t>
+          <t>high_voltage</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="345">
@@ -4911,11 +4843,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>malignant_force</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -4924,7 +4856,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>metal_auger</t>
+          <t>infected_clip</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -4937,11 +4869,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>piercing_caliber</t>
+          <t>malignant_force</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="348">
@@ -4950,7 +4882,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>point_strike</t>
+          <t>metal_auger</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -4963,11 +4895,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>primed_cryo_rounds</t>
+          <t>piercing_caliber</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>159.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -4976,11 +4908,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>primed_fast_hands</t>
+          <t>point_strike</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -4989,11 +4921,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>proton_jet</t>
+          <t>primed_cryo_rounds</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="352">
@@ -5002,11 +4934,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>rifle_aptitude</t>
+          <t>primed_fast_hands</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="353">
@@ -5015,11 +4947,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>rime_rounds</t>
+          <t>proton_jet</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -5028,11 +4960,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>rifle_aptitude</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -5041,11 +4973,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>rime_rounds</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3.9</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="356">
@@ -5054,11 +4986,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="357">
@@ -5067,11 +4999,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="358">
@@ -5080,11 +5012,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5093,7 +5025,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5106,11 +5038,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -5119,11 +5051,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -5132,11 +5064,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -5145,11 +5077,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>14.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="364">
@@ -5158,11 +5090,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="365">
@@ -5171,11 +5103,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="366">
@@ -5184,11 +5116,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="367">
@@ -5197,7 +5129,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5210,11 +5142,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="369">
@@ -5223,11 +5155,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -5236,7 +5168,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>deft_tempo</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5249,11 +5181,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="372">
@@ -5262,7 +5194,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -5275,7 +5207,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>hydraulic_gauge</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -5288,11 +5220,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>loose_hatch</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -5301,7 +5233,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>maximum_capacity</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -5314,11 +5246,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="377">
@@ -5327,11 +5259,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5340,11 +5272,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="379">
@@ -5353,11 +5285,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="380">
@@ -5366,11 +5298,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>34.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="381">
@@ -5379,11 +5311,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -5392,11 +5324,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="383">
@@ -5405,11 +5337,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="384">
@@ -5418,11 +5350,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -5431,7 +5363,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -5444,11 +5376,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="387">
@@ -5457,11 +5389,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -5470,11 +5402,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="389">
@@ -5483,11 +5415,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390">
@@ -5496,11 +5428,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="391">
@@ -5509,11 +5441,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -5522,11 +5454,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="393">
@@ -5535,11 +5467,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="394">
@@ -5548,11 +5480,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -5561,11 +5493,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -5574,11 +5506,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="397">
@@ -5587,11 +5519,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="398">
@@ -5600,11 +5532,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="399">
@@ -5613,7 +5545,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -5626,7 +5558,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -5639,11 +5571,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -5652,11 +5584,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -5665,11 +5597,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>65.7</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="404">
@@ -5678,11 +5610,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405">
@@ -5691,11 +5623,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2.6</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="406">
@@ -5704,7 +5636,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -5717,11 +5649,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="408">
@@ -5730,11 +5662,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -5743,11 +5675,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="410">
@@ -5756,11 +5688,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>36.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="411">
@@ -5769,11 +5701,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="412">
@@ -5782,11 +5714,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="413">
@@ -5795,11 +5727,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="414">
@@ -5808,11 +5740,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -5821,11 +5753,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="416">
@@ -5834,11 +5766,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="417">
@@ -5847,11 +5779,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="418">
@@ -5860,11 +5792,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -5873,11 +5805,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>soft_hands</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -5886,11 +5818,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="421">
@@ -5899,11 +5831,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="422">
@@ -5912,11 +5844,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="423">
@@ -5925,11 +5857,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="424">
@@ -5938,11 +5870,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -5951,11 +5883,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="426">
@@ -5964,11 +5896,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="427">
@@ -5977,11 +5909,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>emergent_aftermath</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -5990,11 +5922,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>harkonar_scope</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429">
@@ -6003,11 +5935,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="430">
@@ -6016,7 +5948,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6029,11 +5961,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -6042,11 +5974,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -6055,11 +5987,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="434">
@@ -6068,11 +6000,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="435">
@@ -6081,7 +6013,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6094,11 +6026,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="437">
@@ -6107,11 +6039,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>10.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="438">
@@ -6120,11 +6052,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="439">
@@ -6133,11 +6065,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>concussion_rounds</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="440">
@@ -6146,11 +6078,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -6159,11 +6091,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>concussion_rounds</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -6172,11 +6104,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="443">
@@ -6185,11 +6117,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>12.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="444">
@@ -6198,7 +6130,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -6211,11 +6143,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>7.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="446">
@@ -6224,11 +6156,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>saxum_spittle</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="447">
@@ -6237,11 +6169,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>carnis_stinger</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="448">
@@ -6250,11 +6182,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>jugulus_spines</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="449">
@@ -6263,7 +6195,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -6276,11 +6208,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="451">
@@ -6289,11 +6221,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -6302,11 +6234,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="453">
@@ -6315,11 +6247,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -6328,11 +6260,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -6341,11 +6273,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>51.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -6354,11 +6286,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>13.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="457">
@@ -6367,11 +6299,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -6380,11 +6312,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="459">
@@ -6393,11 +6325,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="460">
@@ -6406,11 +6338,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3.8</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="461">
@@ -6419,11 +6351,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="462">
@@ -6432,11 +6364,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="463">
@@ -6445,11 +6377,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="464">
@@ -6458,11 +6390,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>69.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="465">
@@ -6471,11 +6403,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>51.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="466">
@@ -6484,11 +6416,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="467">
@@ -6497,11 +6429,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="468">
@@ -6510,11 +6442,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -6523,11 +6455,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>88</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="470">
@@ -6536,11 +6468,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>74.8</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="471">
@@ -6549,7 +6481,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -6562,11 +6494,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -6575,11 +6507,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>164.3</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="474">
@@ -6588,11 +6520,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="475">
@@ -6601,11 +6533,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="476">
@@ -6614,11 +6546,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -6627,11 +6559,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="478">
@@ -6640,11 +6572,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>164.3</v>
       </c>
     </row>
     <row r="479">
@@ -6653,7 +6585,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -6666,7 +6598,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -6679,11 +6611,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="482">
@@ -6692,7 +6624,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6705,7 +6637,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -6718,11 +6650,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -6731,11 +6663,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -6744,11 +6676,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="487">
@@ -6757,11 +6689,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -6770,11 +6702,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -6783,11 +6715,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="490">
@@ -6796,11 +6728,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="491">
@@ -6809,11 +6741,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -6822,11 +6754,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3.8</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="493">
@@ -6835,11 +6767,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3.9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="494">
@@ -6848,11 +6780,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="495">
@@ -6861,11 +6793,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="496">
@@ -6874,11 +6806,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="497">
@@ -6887,11 +6819,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="498">
@@ -6900,11 +6832,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="499">
@@ -6913,11 +6845,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="500">
@@ -6926,11 +6858,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="501">
@@ -6939,7 +6871,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -6952,11 +6884,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="503">
@@ -6965,11 +6897,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -6978,7 +6910,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -6991,11 +6923,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>18.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -7004,11 +6936,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -7017,11 +6949,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -7030,11 +6962,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="509">
@@ -7043,11 +6975,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -7056,11 +6988,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="511">
@@ -7069,11 +7001,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="512">
@@ -7082,11 +7014,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="513">
@@ -7095,11 +7027,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -7108,11 +7040,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515">
@@ -7121,7 +7053,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -7134,11 +7066,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="517">
@@ -7147,11 +7079,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -7160,11 +7092,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -7173,11 +7105,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="520">
@@ -7186,7 +7118,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -7199,11 +7131,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>mortal_conduct</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -7212,11 +7144,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>146.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="523">
@@ -7225,11 +7157,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>35.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -7238,11 +7170,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>80.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="525">
@@ -7251,11 +7183,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -7264,11 +7196,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>95.8</v>
+        <v>590</v>
       </c>
     </row>
     <row r="527">
@@ -7277,11 +7209,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>75</v>
+        <v>146.8</v>
       </c>
     </row>
     <row r="528">
@@ -7290,11 +7222,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="529">
@@ -7303,11 +7235,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>104.6</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="530">
@@ -7316,11 +7248,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="531">
@@ -7329,11 +7261,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>9.199999999999999</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="532">
@@ -7342,11 +7274,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="533">
@@ -7355,7 +7287,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -7368,11 +7300,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2.2</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="535">
@@ -7381,7 +7313,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -7394,11 +7326,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="537">
@@ -7407,7 +7339,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -7420,11 +7352,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -7433,11 +7365,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>13.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="540">
@@ -7446,7 +7378,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -7459,7 +7391,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -7472,11 +7404,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -7485,11 +7417,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="544">
@@ -7498,11 +7430,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>8.699999999999999</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="545">
@@ -7511,11 +7443,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -7524,11 +7456,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -7537,11 +7469,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>50.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="548">
@@ -7550,11 +7482,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>27.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -7563,11 +7495,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>4.7</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="550">
@@ -7576,11 +7508,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="551">
@@ -7589,11 +7521,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="552">
@@ -7602,11 +7534,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3.9</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="553">
@@ -7615,11 +7547,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2.7</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="554">
@@ -7628,11 +7560,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="555">
@@ -7641,11 +7573,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>saxum_thorax</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>51.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -7654,11 +7586,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>carnis_mandible</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -7667,11 +7599,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>jugulus_barbs</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>4.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="558">
@@ -7680,11 +7612,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559">
@@ -7693,11 +7625,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="560">
@@ -7706,11 +7638,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="561">
@@ -7719,11 +7651,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="562">
@@ -7732,11 +7664,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="563">
@@ -7745,11 +7677,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="564">
@@ -7758,11 +7690,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -7771,11 +7703,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>16.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="566">
@@ -7784,11 +7716,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -7797,11 +7729,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="568">
@@ -7810,11 +7742,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -7823,11 +7755,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -7836,11 +7768,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="571">
@@ -7849,11 +7781,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -7862,11 +7794,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="573">
@@ -7875,11 +7807,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="574">
@@ -7888,11 +7820,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>8.699999999999999</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="575">
@@ -7901,7 +7833,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -7914,11 +7846,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="577">
@@ -7927,11 +7859,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="578">
@@ -7940,11 +7872,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="579">
@@ -7953,11 +7885,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580">
@@ -7966,11 +7898,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -7979,11 +7911,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -7992,11 +7924,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="583">
@@ -8005,11 +7937,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="584">
@@ -8018,11 +7950,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -8031,11 +7963,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="586">
@@ -8044,11 +7976,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="587">
@@ -8057,11 +7989,11 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -8070,11 +8002,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="589">
@@ -8083,11 +8015,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="590">
@@ -8096,7 +8028,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -8109,11 +8041,11 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -8122,11 +8054,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="593">
@@ -8135,11 +8067,11 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="594">
@@ -8148,11 +8080,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -8161,11 +8093,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>32.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="596">
@@ -8174,11 +8106,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="597">
@@ -8187,11 +8119,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -8200,11 +8132,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>17.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="599">
@@ -8213,11 +8145,11 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>vermillion_storm</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="600">
@@ -8226,10 +8158,114 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
+          <t>sundering_weave</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>swirling_tiger</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>swooping_falcon</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>tempo_royale</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>tranquil_cleave</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>twirling_spire</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>vengeful_revenant</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>vermillion_storm</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
           <t>vulpine_mask</t>
         </is>
       </c>
-      <c r="C600" t="n">
+      <c r="C608" t="n">
         <v>1.6</v>
       </c>
     </row>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C608"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>395.6</v>
+        <v>422.6</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.8</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38.3</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>179.2</v>
+        <v>188.1</v>
       </c>
     </row>
     <row r="6">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36.8</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>97.3</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>91.40000000000001</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.09999999999999</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113.6</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>98.7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>93.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>68.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>169.3</v>
+        <v>174.2</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>89.8</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>142.9</v>
+        <v>147.3</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>138.7</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>68.7</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33.9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>167.8</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>89.59999999999999</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>72.7</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>141.9</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>160.2</v>
+        <v>164.7</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.7</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>64.5</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>47.8</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="31">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="32">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>46</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>77.40000000000001</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="34">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>61.7</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="36">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>54</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46.9</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>68.8</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="41">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="43">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31.4</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="44">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>45.8</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="46">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>112.1</v>
+        <v>116.8</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="48">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="50">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="51">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>62.9</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>73.7</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>94.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="54">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>92.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="55">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>36.7</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="56">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="57">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>73.90000000000001</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="58">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>67.5</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="59">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>48.5</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="61">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>44.3</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="62">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>125.6</v>
+        <v>129.3</v>
       </c>
     </row>
     <row r="63">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16.9</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="64">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35.3</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="67">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="68">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>36.2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>66</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="72">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>38.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>65.3</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="74">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>181.4</v>
+        <v>187.8</v>
       </c>
     </row>
     <row r="75">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>116.7</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="76">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>93.90000000000001</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="77">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24.3</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="78">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="79">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>67.59999999999999</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="80">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>26.4</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="81">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>51.8</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="82">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>38.3</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="83">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>44.8</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="84">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>162.7</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="86">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>76.40000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="88">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>210.5</v>
+        <v>204.5</v>
       </c>
     </row>
     <row r="89">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>29.6</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="90">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>50.1</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="93">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>41.3</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="94">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>39.1</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="95">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>125.4</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="96">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>39.2</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="97">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>17.1</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>45.7</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="99">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>63.8</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="100">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>48.8</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="101">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>36.9</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="102">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>24.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="103">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>99</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="104">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>84.09999999999999</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>127.3</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="106">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>188.5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>72</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="108">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>110.9</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="110">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>57.4</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="112">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>23</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="113">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>28.4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34.9</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="115">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="116">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>81.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="118">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>40.3</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>82.3</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="120">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="122">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>24.8</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="124">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>92.59999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="125">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>83.40000000000001</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="126">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="127">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>82.09999999999999</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="129">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="130">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>70.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>81.8</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>52.6</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="133">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>77</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="134">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>98.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="137">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="138">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="139">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>29.4</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="140">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="141">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="142">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>11.6</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="143">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="144">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>19.9</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="145">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>16.6</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="146">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="147">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>31.1</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="148">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>32.7</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="149">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>35.7</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="150">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>28.9</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="152">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="153">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="155">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="156">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>18.9</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="158">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>34.3</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="159">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="160">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="165">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="166">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>17.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>18.4</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="168">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>15.3</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="170">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="171">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="173">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>32.1</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="174">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="175">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>58.4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="178">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="179">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="180">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="181">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="183">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="184">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>125</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="185">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="186">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>22.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="187">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>352</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="189">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="190">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="191">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="192">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="193">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="194">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="195">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="196">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="197">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>29.8</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="198">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="199">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="200">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="202">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="204">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="205">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="206">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>50.5</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="207">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="210">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="211">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="212">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="213">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="215">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="216">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>56.8</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="217">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="218">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="220">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="221">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="222">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="223">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="224">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="225">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="226">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="229">
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>77.90000000000001</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="230">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>75.90000000000001</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="231">
@@ -3361,11 +3361,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>reflection</t>
+          <t>rolling_guard</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="232">
@@ -3374,11 +3374,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>reflex_guard</t>
+          <t>rush</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="233">
@@ -3387,11 +3387,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>rolling_guard</t>
+          <t>speed_drift</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>17</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>rush</t>
+          <t>stealth_drift</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3413,11 +3413,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>speed_drift</t>
+          <t>strain_consume</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>19.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -3426,11 +3426,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>stealth_drift</t>
+          <t>streamline</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="237">
@@ -3439,11 +3439,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>strain_consume</t>
+          <t>streamlined_form</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="238">
@@ -3452,11 +3452,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>streamline</t>
+          <t>stretch</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="239">
@@ -3465,11 +3465,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>streamlined_form</t>
+          <t>sure_footed</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="240">
@@ -3478,11 +3478,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>synth_reflex</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="241">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>sure_footed</t>
+          <t>tek_collateral</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="242">
@@ -3504,11 +3504,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>synth_reflex</t>
+          <t>toxic_flight</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -3517,11 +3517,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>tek_collateral</t>
+          <t>transient_fortitude</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="244">
@@ -3530,11 +3530,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>toxic_flight</t>
+          <t>vigilante_pursuit</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="245">
@@ -3543,11 +3543,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>transient_fortitude</t>
+          <t>vigilante_vigor</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3556,11 +3556,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>vigilante_pursuit</t>
+          <t>vigor</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="247">
@@ -3569,11 +3569,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>vigilante_vigor</t>
+          <t>vigorous_swap</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="248">
@@ -3582,11 +3582,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>vigor</t>
+          <t>arcane_consequence</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="249">
@@ -3595,11 +3595,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>vigorous_swap</t>
+          <t>arcane_ice</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>arcane_consequence</t>
+          <t>arcane_momentum</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="251">
@@ -3621,11 +3621,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>arcane_ice</t>
+          <t>arcane_nullifier</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="252">
@@ -3634,11 +3634,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>arcane_momentum</t>
+          <t>arcane_tempo</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="253">
@@ -3647,11 +3647,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>arcane_nullifier</t>
+          <t>arcane_warmth</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -3660,11 +3660,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>arcane_tempo</t>
+          <t>arcane_deflection</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="255">
@@ -3673,11 +3673,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>arcane_warmth</t>
+          <t>arcane_healing</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="256">
@@ -3686,11 +3686,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>arcane_deflection</t>
+          <t>arcane_resistance</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="257">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>arcane_healing</t>
+          <t>arcane_victory</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -3712,11 +3712,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>arcane_resistance</t>
+          <t>arcane_acceleration</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="259">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>arcane_victory</t>
+          <t>arcane_agility</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -3738,11 +3738,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>arcane_acceleration</t>
+          <t>arcane_awakening</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="261">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>arcane_agility</t>
+          <t>arcane_eruption</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -3764,11 +3764,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>arcane_awakening</t>
+          <t>arcane_guardian</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1.8</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="263">
@@ -3777,11 +3777,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>arcane_eruption</t>
+          <t>arcane_phantasm</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>arcane_guardian</t>
+          <t>arcane_strike</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>18.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="265">
@@ -3803,11 +3803,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>arcane_phantasm</t>
+          <t>arcane_aegis</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>2.3</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="266">
@@ -3816,11 +3816,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>arcane_strike</t>
+          <t>arcane_precision</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>6.1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="267">
@@ -3829,11 +3829,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>arcane_aegis</t>
+          <t>arcane_pulse</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>15.3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="268">
@@ -3842,11 +3842,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>arcane_precision</t>
+          <t>arcane_ultimatum</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="269">
@@ -3855,11 +3855,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>arcane_pulse</t>
+          <t>arcane_trickery</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="270">
@@ -3868,11 +3868,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>arcane_ultimatum</t>
+          <t>arcane_velocity</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="271">
@@ -3881,11 +3881,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>arcane_trickery</t>
+          <t>arcane_arachne</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -3894,11 +3894,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>arcane_velocity</t>
+          <t>arcane_avenger</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="273">
@@ -3907,11 +3907,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>arcane_arachne</t>
+          <t>arcane_fury</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="274">
@@ -3920,11 +3920,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>arcane_avenger</t>
+          <t>arcane_rage</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="275">
@@ -3933,11 +3933,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>arcane_fury</t>
+          <t>arcane_barrier</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="276">
@@ -3946,11 +3946,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>arcane_rage</t>
+          <t>arcane_energize</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>4.1</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="277">
@@ -3959,11 +3959,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>arcane_barrier</t>
+          <t>arcane_grace</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>13.1</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="278">
@@ -3972,11 +3972,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>arcane_energize</t>
+          <t>arcane_blade_charger</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -3985,11 +3985,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>arcane_grace</t>
+          <t>arcane_bodyguard</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -3998,11 +3998,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>arcane_blade_charger</t>
+          <t>arcane_pistoleer</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="281">
@@ -4011,11 +4011,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>arcane_bodyguard</t>
+          <t>arcane_primary_charger</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="282">
@@ -4024,11 +4024,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>arcane_pistoleer</t>
+          <t>arcane_tanker</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>10.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>arcane_primary_charger</t>
+          <t>magus_husk</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
@@ -4050,11 +4050,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>arcane_tanker</t>
+          <t>magus_vigor</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>magus_husk</t>
+          <t>magus_cadence</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4076,11 +4076,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>magus_vigor</t>
+          <t>magus_cloud</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>magus_cadence</t>
+          <t>magus_replenish</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4102,11 +4102,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>magus_cloud</t>
+          <t>magus_elevate</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="289">
@@ -4115,11 +4115,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>magus_replenish</t>
+          <t>magus_nourish</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>magus_elevate</t>
+          <t>magus_overload</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>magus_nourish</t>
+          <t>magus_glitch</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>magus_overload</t>
+          <t>magus_revert</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4167,11 +4167,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>magus_glitch</t>
+          <t>magus_lockdown</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="294">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>magus_revert</t>
+          <t>magus_destruct</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>magus_lockdown</t>
+          <t>magus_anomaly</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>magus_destruct</t>
+          <t>magus_melt</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4219,11 +4219,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>magus_anomaly</t>
+          <t>magus_accelerant</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -4232,11 +4232,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>magus_melt</t>
+          <t>magus_repair</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>magus_accelerant</t>
+          <t>virtuos_null</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="300">
@@ -4258,11 +4258,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>magus_repair</t>
+          <t>virtuos_tempo</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>virtuos_null</t>
+          <t>virtuos_fury</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>virtuos_tempo</t>
+          <t>virtuos_strike</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>virtuos_fury</t>
+          <t>virtuos_ghost</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4310,11 +4310,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>virtuos_strike</t>
+          <t>virtuos_shadow</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -4323,11 +4323,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>virtuos_ghost</t>
+          <t>virtuos_forge</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="306">
@@ -4336,11 +4336,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>virtuos_shadow</t>
+          <t>virtuos_trojan</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>virtuos_forge</t>
+          <t>virtuos_surge</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>virtuos_trojan</t>
+          <t>pax_bolt</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>virtuos_surge</t>
+          <t>pax_seeker</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="310">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>pax_bolt</t>
+          <t>pax_soar</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -4401,11 +4401,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>pax_seeker</t>
+          <t>exodia_triumph</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>5.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="312">
@@ -4414,11 +4414,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>pax_soar</t>
+          <t>exodia_valor</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="313">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>exodia_triumph</t>
+          <t>exodia_brave</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>exodia_valor</t>
+          <t>exodia_force</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -4453,11 +4453,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>exodia_brave</t>
+          <t>exodia_hunt</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316">
@@ -4466,11 +4466,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>exodia_force</t>
+          <t>exodia_might</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -4479,11 +4479,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>exodia_hunt</t>
+          <t>exodia_contagion</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>9.9</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="318">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>exodia_might</t>
+          <t>exodia_epidemic</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -4505,11 +4505,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>exodia_contagion</t>
+          <t>aero_periphery</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>43.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -4518,11 +4518,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>exodia_epidemic</t>
+          <t>hunter_munitions</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="321">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>aero_periphery</t>
+          <t>hunter_track</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -4544,11 +4544,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>hunter_munitions</t>
+          <t>vigilante_armaments</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="323">
@@ -4557,11 +4557,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>hunter_track</t>
+          <t>vigilante_fervor</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="324">
@@ -4570,11 +4570,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>vigilante_armaments</t>
+          <t>vigilante_offense</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>5.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="325">
@@ -4583,11 +4583,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>vigilante_fervor</t>
+          <t>vigilante_supplies</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326">
@@ -4596,11 +4596,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>vigilante_offense</t>
+          <t>adhesive_blast</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -4609,11 +4609,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>vigilante_supplies</t>
+          <t>agile_aim</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -4622,11 +4622,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>adhesive_blast</t>
+          <t>ammo_drum</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2</v>
+        <v>2000.8</v>
       </c>
     </row>
     <row r="329">
@@ -4635,11 +4635,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>agile_aim</t>
+          <t>argon_scope</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="330">
@@ -4648,11 +4648,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ammo_drum</t>
+          <t>bladed_rounds</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>argon_scope</t>
+          <t>catalyzer_link</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>bladed_rounds</t>
+          <t>cautious_shot</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>catalyzer_link</t>
+          <t>continuous_misery</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -4700,11 +4700,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>cautious_shot</t>
+          <t>crash_course</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>20.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="335">
@@ -4713,11 +4713,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>continuous_misery</t>
+          <t>critical_delay</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="336">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>crash_course</t>
+          <t>cryo_rounds</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>critical_delay</t>
+          <t>fanged_fusillade</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="338">
@@ -4752,11 +4752,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>cryo_rounds</t>
+          <t>firestorm</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>fanged_fusillade</t>
+          <t>hammer_shot</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>5.3</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="340">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>firestorm</t>
+          <t>heavy_caliber</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3.3</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="341">
@@ -4791,11 +4791,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>hammer_shot</t>
+          <t>hellfire</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>41.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="342">
@@ -4804,11 +4804,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>heavy_caliber</t>
+          <t>high_voltage</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>13.5</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="343">
@@ -4817,11 +4817,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>hellfire</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -4830,11 +4830,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>high_voltage</t>
+          <t>infected_clip</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>53.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="345">
@@ -4843,11 +4843,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>malignant_force</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="346">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>infected_clip</t>
+          <t>metal_auger</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -4869,11 +4869,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>malignant_force</t>
+          <t>piercing_caliber</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>6.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="348">
@@ -4882,11 +4882,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>metal_auger</t>
+          <t>point_strike</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="349">
@@ -4895,11 +4895,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>piercing_caliber</t>
+          <t>primed_cryo_rounds</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>144.6</v>
       </c>
     </row>
     <row r="350">
@@ -4908,11 +4908,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>point_strike</t>
+          <t>primed_fast_hands</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="351">
@@ -4921,11 +4921,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>primed_cryo_rounds</t>
+          <t>proton_jet</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>159.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>primed_fast_hands</t>
+          <t>rifle_aptitude</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -4947,11 +4947,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>proton_jet</t>
+          <t>rime_rounds</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="354">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>rifle_aptitude</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>rime_rounds</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>18.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="356">
@@ -4986,11 +4986,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="357">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -5012,11 +5012,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="359">
@@ -5025,11 +5025,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="360">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="361">
@@ -5051,11 +5051,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="362">
@@ -5064,11 +5064,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="363">
@@ -5077,11 +5077,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="364">
@@ -5090,11 +5090,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="365">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>14.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="366">
@@ -5116,11 +5116,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="367">
@@ -5129,11 +5129,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -5142,11 +5142,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>deft_tempo</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5181,11 +5181,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>hydraulic_gauge</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>loose_hatch</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>maximum_capacity</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -5220,11 +5220,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="375">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -5246,11 +5246,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="377">
@@ -5259,11 +5259,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -5272,11 +5272,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5298,11 +5298,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="381">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -5324,11 +5324,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -5337,11 +5337,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="384">
@@ -5350,11 +5350,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="385">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -5376,11 +5376,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="387">
@@ -5389,11 +5389,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="388">
@@ -5402,11 +5402,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -5415,11 +5415,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -5428,11 +5428,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="391">
@@ -5441,11 +5441,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="392">
@@ -5454,11 +5454,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -5467,11 +5467,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -5480,11 +5480,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="395">
@@ -5493,11 +5493,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -5506,11 +5506,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -5519,11 +5519,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -5532,11 +5532,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -5571,11 +5571,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="402">
@@ -5584,11 +5584,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="403">
@@ -5597,11 +5597,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>23.5</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="404">
@@ -5610,11 +5610,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>60</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="405">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>65.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="406">
@@ -5636,11 +5636,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="407">
@@ -5649,11 +5649,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="408">
@@ -5662,11 +5662,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="409">
@@ -5675,11 +5675,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -5688,11 +5688,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3.3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="411">
@@ -5701,11 +5701,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="412">
@@ -5714,11 +5714,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>36.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -5727,11 +5727,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -5740,11 +5740,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -5753,11 +5753,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="416">
@@ -5766,11 +5766,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -5779,11 +5779,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>soft_hands</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="418">
@@ -5792,11 +5792,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="419">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="420">
@@ -5818,11 +5818,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>8.699999999999999</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="421">
@@ -5831,11 +5831,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="422">
@@ -5844,11 +5844,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="423">
@@ -5857,11 +5857,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -5870,11 +5870,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="425">
@@ -5883,11 +5883,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>emergent_aftermath</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -5896,11 +5896,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>harkonar_scope</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -5909,11 +5909,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>402.1</v>
       </c>
     </row>
     <row r="428">
@@ -5922,11 +5922,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -5935,11 +5935,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -5961,11 +5961,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="432">
@@ -5974,11 +5974,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="433">
@@ -5987,11 +5987,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="434">
@@ -6000,11 +6000,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>84</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="435">
@@ -6013,11 +6013,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="436">
@@ -6026,11 +6026,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="437">
@@ -6039,11 +6039,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -6052,11 +6052,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="439">
@@ -6065,11 +6065,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>concussion_rounds</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -6091,11 +6091,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>concussion_rounds</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="442">
@@ -6104,11 +6104,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="443">
@@ -6117,11 +6117,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="444">
@@ -6130,11 +6130,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>saxum_spittle</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="445">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>carnis_stinger</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="446">
@@ -6156,11 +6156,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>saxum_spittle</t>
+          <t>jugulus_spines</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>48.4</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="447">
@@ -6169,11 +6169,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>carnis_stinger</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="448">
@@ -6182,11 +6182,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>jugulus_spines</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>46</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="449">
@@ -6195,11 +6195,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="450">
@@ -6208,11 +6208,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -6234,11 +6234,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -6260,11 +6260,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="455">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -6286,11 +6286,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="457">
@@ -6299,11 +6299,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="458">
@@ -6312,11 +6312,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3.3</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="459">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>2.5</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="460">
@@ -6338,11 +6338,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>51.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="461">
@@ -6351,11 +6351,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>13.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="462">
@@ -6364,11 +6364,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="463">
@@ -6377,11 +6377,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="464">
@@ -6390,11 +6390,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -6403,11 +6403,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="466">
@@ -6416,11 +6416,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="467">
@@ -6429,11 +6429,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -6455,11 +6455,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>69.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -6468,11 +6468,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>51.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -6481,11 +6481,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="472">
@@ -6494,11 +6494,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6507,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>77.09999999999999</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="474">
@@ -6520,11 +6520,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>88</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="475">
@@ -6533,11 +6533,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>74.8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="476">
@@ -6546,11 +6546,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="477">
@@ -6559,11 +6559,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -6572,11 +6572,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>164.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="479">
@@ -6585,11 +6585,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="480">
@@ -6598,11 +6598,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="481">
@@ -6611,11 +6611,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -6650,11 +6650,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="485">
@@ -6663,11 +6663,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="486">
@@ -6676,11 +6676,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="487">
@@ -6689,11 +6689,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -6702,11 +6702,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -6715,11 +6715,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -6728,11 +6728,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="491">
@@ -6741,11 +6741,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6754,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>16.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="493">
@@ -6767,11 +6767,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>10.6</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="494">
@@ -6780,11 +6780,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>9.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="495">
@@ -6793,11 +6793,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>13</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="496">
@@ -6806,11 +6806,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>11.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="497">
@@ -6819,11 +6819,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="498">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -6858,11 +6858,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="501">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -6884,11 +6884,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -6910,11 +6910,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="505">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -6936,11 +6936,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="507">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -6962,11 +6962,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>7.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +6975,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="510">
@@ -6988,11 +6988,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="511">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="512">
@@ -7014,11 +7014,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>18.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="513">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -7040,11 +7040,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="515">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -7079,11 +7079,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="518">
@@ -7092,11 +7092,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -7105,11 +7105,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>mortal_conduct</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -7144,11 +7144,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -7170,11 +7170,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>139.4</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7196,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>590</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7209,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>146.8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="528">
@@ -7222,11 +7222,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>35.5</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="529">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>80.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -7261,11 +7261,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>95.8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="532">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -7287,11 +7287,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="534">
@@ -7300,11 +7300,11 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>104.6</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="535">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -7326,11 +7326,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -7339,11 +7339,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="538">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7378,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7391,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="542">
@@ -7404,11 +7404,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="543">
@@ -7417,11 +7417,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7430,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>13.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7443,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="546">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7482,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="550">
@@ -7508,11 +7508,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>5.2</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="551">
@@ -7521,11 +7521,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>5.6</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="552">
@@ -7534,11 +7534,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>50.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7547,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>saxum_thorax</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>27.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>carnis_mandible</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7573,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>saxum_thorax</t>
+          <t>jugulus_barbs</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7586,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>carnis_mandible</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>jugulus_barbs</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7625,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="560">
@@ -7638,11 +7638,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="561">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="562">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7677,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>51.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="564">
@@ -7690,11 +7690,11 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="565">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="566">
@@ -7716,11 +7716,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="567">
@@ -7729,11 +7729,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="569">
@@ -7755,11 +7755,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="570">
@@ -7768,11 +7768,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7781,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="572">
@@ -7794,11 +7794,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="573">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>16.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7833,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>3.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="576">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="577">
@@ -7859,11 +7859,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>16</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="578">
@@ -7872,11 +7872,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -7898,11 +7898,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="581">
@@ -7911,11 +7911,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -7924,11 +7924,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="583">
@@ -7937,11 +7937,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="584">
@@ -7950,11 +7950,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -7963,11 +7963,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -7976,11 +7976,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="587">
@@ -7989,11 +7989,11 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="588">
@@ -8002,11 +8002,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>3.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="589">
@@ -8015,11 +8015,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -8028,11 +8028,11 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="591">
@@ -8041,11 +8041,11 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592">
@@ -8054,11 +8054,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="594">
@@ -8080,11 +8080,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="595">
@@ -8093,11 +8093,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -8106,11 +8106,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="597">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="598">
@@ -8132,11 +8132,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>sundering_weave</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -8145,11 +8145,11 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>swirling_tiger</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -8158,11 +8158,11 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>swooping_falcon</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="601">
@@ -8171,11 +8171,11 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>tempo_royale</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="602">
@@ -8184,11 +8184,11 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>tranquil_cleave</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="603">
@@ -8197,11 +8197,11 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>twirling_spire</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>32.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="604">
@@ -8210,11 +8210,11 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>vengeful_revenant</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>4.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="605">
@@ -8223,11 +8223,11 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>vermillion_storm</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="606">
@@ -8236,37 +8236,11 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>vulpine_mask</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>vermillion_storm</t>
-        </is>
-      </c>
-      <c r="C607" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>vulpine_mask</t>
-        </is>
-      </c>
-      <c r="C608" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>422.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>188.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>121.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>174.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>147.3</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="23">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>168.5</v>
+        <v>166.3</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>73.90000000000001</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>143.9</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>164.7</v>
+        <v>167.3</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>60.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>43.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>79.2</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="34">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>62.7</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>57.5</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40.6</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>69.5</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35.3</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="43">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34.3</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="44">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>47.7</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44.8</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="46">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>116.8</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24.8</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="48">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60.4</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34.5</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="51">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>64.90000000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>73.90000000000001</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>97.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="54">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>41.1</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="56">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11.7</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="57">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>72.2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>66.8</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="59">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="60">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>46.2</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="61">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>36.3</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="62">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>129.3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>97.8</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="66">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>37.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>66.7</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="68">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="69">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>48.4</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="72">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>37</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="73">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>63.6</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>187.8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>115.3</v>
+        <v>123.1</v>
       </c>
     </row>
     <row r="76">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>95.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22.6</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="78">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>11.8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="79">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>44.2</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="80">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23.5</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="81">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="82">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>43.7</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="83">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>42.4</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="84">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="85">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>168.7</v>
+        <v>167.6</v>
       </c>
     </row>
     <row r="86">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>34</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="87">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>74.5</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>204.5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="90">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>47.7</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="91">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>48.1</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="93">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>45.3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>33.6</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="95">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>133.6</v>
+        <v>143.8</v>
       </c>
     </row>
     <row r="96">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>44.9</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="97">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>42.3</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="99">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>65.8</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="100">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>46.1</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="101">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>34.4</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="102">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>25.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="103">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>102.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>93.2</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>146.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>186</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="107">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>79.7</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="108">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>92.90000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="109">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>113.6</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="110">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>71.90000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>31.2</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="112">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>24.1</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="113">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>31</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="114">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>35.7</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="115">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>54.5</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="116">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52.8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>39.8</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>89.7</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>31</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="121">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>25.4</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="122">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>28</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="123">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>97.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="125">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>94.3</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="126">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>33.1</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="127">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>86.8</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="129">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>28.9</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="130">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>77.59999999999999</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="132">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>56.2</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="133">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>73.5</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="134">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="137">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>29.5</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="138">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>31.5</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="139">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="140">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>32.7</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="141">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="142">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="143">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>23.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="146">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>33.3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>35.6</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="149">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>32.3</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="150">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="151">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>34.3</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="152">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="153">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="154">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="155">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="156">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="158">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>36.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="160">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="162">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>16</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="163">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="164">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>19.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="169">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>19.1</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="170">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="171">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="173">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>30.5</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="174">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="175">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>68</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="176">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="177">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="178">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="179">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="180">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="181">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="182">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>125.4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="186">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>24.9</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="187">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>250</v>
+        <v>277.1</v>
       </c>
     </row>
     <row r="188">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>397.9</v>
+        <v>336.8</v>
       </c>
     </row>
     <row r="189">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>19.4</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="191">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="192">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="193">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="194">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="195">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="196">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>15.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="197">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="198">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="202">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="203">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="204">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>54.1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="208">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="209">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>14.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="210">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="211">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="214">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="215">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>55.1</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="217">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="218">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="219">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="220">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="225">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="227">
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>78.3</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="230">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>76.5</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="231">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="232">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="234">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="236">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="237">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="238">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="239">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="240">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="241">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="243">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="245">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="247">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="248">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="252">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="254">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="259">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="261">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>19.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="266">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="268">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="269">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="270">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="274">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="276">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>44.4</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="278">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="279">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="281">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="282">
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="283">
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="289">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="296">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="299">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="312">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>11</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="316">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>49.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="318">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="319">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="324">
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="325">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="326">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2000.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="330">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="333">
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="335">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="336">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="338">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="339">
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>43.9</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="340">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="341">
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>55.3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="343">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>19.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>144.6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="350">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>74.09999999999999</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="351">
@@ -4951,7 +4951,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="354">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="356">
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="362">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="363">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="364">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="365">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="366">
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="370">
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="375">
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="380">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>36.4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="381">
@@ -5328,7 +5328,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="383">
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="385">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="387">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="389">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="391">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="392">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="395">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="398">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="399">
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="400">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="401">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>29.6</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="402">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>58.9</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="403">
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>58.1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="404">
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>99.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="406">
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="408">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="409">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>34</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="411">
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="414">
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="419">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="421">
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="422">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="425">
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="427">
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>402.1</v>
+        <v>447.5</v>
       </c>
     </row>
     <row r="428">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="431">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="432">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>101.3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="433">
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="434">
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="435">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="436">
@@ -6030,7 +6030,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="437">
@@ -6043,7 +6043,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="438">
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>55.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -6303,7 +6303,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>52.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>79.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>79.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>54.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>145.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -6654,7 +6654,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -6979,7 +6979,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -7018,7 +7018,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>139.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>69.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -7304,7 +7304,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -7434,7 +7434,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -7473,7 +7473,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>26.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -7590,7 +7590,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -7694,7 +7694,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -7785,7 +7785,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -7824,7 +7824,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -7941,7 +7941,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -7993,7 +7993,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -8084,7 +8084,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C606"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72.59999999999999</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="14">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.8</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>148.5</v>
+        <v>146.7</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>147.1</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="23">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>166.3</v>
+        <v>165.3</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>91.2</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74.7</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>142.4</v>
+        <v>142.9</v>
       </c>
     </row>
     <row r="27">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>167.3</v>
+        <v>167.8</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="31">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="32">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>85.7</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="34">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>62.6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="35">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37.8</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>74.09999999999999</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="41">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="43">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>37.1</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="44">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>118.8</v>
+        <v>119.2</v>
       </c>
     </row>
     <row r="47">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="48">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>62.5</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="50">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>38.6</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="51">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>73.40000000000001</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>99.2</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="54">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="56">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="57">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>71</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>69.8</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>49.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="61">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="62">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>140</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="63">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>44.4</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="66">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>44</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="67">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="70">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="71">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="72">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40.1</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="73">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>70.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>189</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="75">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>123.1</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="76">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="77">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="78">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="79">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>39.4</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="80">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="81">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>47.6</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="83">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="85">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>167.6</v>
+        <v>168.1</v>
       </c>
     </row>
     <row r="86">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="87">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>70.90000000000001</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>27.5</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="90">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>50.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="92">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>50.8</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="93">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>48</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="94">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>39.9</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="95">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>143.8</v>
+        <v>144.8</v>
       </c>
     </row>
     <row r="96">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>42.2</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="97">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="99">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>62.1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>58.1</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="101">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="103">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>84.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="106">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>191.7</v>
+        <v>192.8</v>
       </c>
     </row>
     <row r="107">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>87.8</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="108">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="109">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>115.8</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="110">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>76</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="111">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>31.9</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="112">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="113">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>34.4</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="114">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="115">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>60.4</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="116">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>90.59999999999999</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="117">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>58</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="118">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>44.1</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="119">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>78.90000000000001</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>38.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="122">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="123">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="124">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>109.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="125">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>112.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>36.5</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="127">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>97.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="130">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>49</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="131">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>89.3</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="132">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>62.9</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="133">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>93.3</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="134">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="135">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="136">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>32.3</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="138">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="139">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>33.3</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="140">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>37.7</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="141">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="142">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="144">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="145">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="146">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="147">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>35</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="148">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>10.2</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="151">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="152">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="155">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="158">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>18</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="159">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="160">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="162">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="163">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="164">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="167">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="168">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="169">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="170">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="171">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>32.3</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="174">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>73.7</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="176">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="177">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="178">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="179">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="181">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="182">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="183">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="184">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>124</v>
+        <v>133.8</v>
       </c>
     </row>
     <row r="185">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>28.9</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="187">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>277.1</v>
+        <v>268.6</v>
       </c>
     </row>
     <row r="188">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>336.8</v>
+        <v>328</v>
       </c>
     </row>
     <row r="189">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="191">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="192">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="193">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="195">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="197">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="198">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="199">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="200">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="201">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="202">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="203">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="205">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="206">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="210">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="212">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="214">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="215">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="216">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="217">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="218">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="220">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="223">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="225">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="226">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="227">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>81.3</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="231">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="232">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="234">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="241">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="242">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="245">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="248">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="249">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="252">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="253">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="255">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="256">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="257">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="258">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="259">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="262">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="265">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="266">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="267">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="268">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="269">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="270">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="271">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="272">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="274">
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="276">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>63.6</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="277">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="278">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="280">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="281">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="282">
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="283">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="285">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="286">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="296">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="299">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="305">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="309">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="312">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="314">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="315">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="316">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>23.5</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="318">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="319">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="321">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="323">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="326">
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="328">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="330">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="331">
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="333">
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="335">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="338">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>46.6</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="340">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341">
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>57</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="343">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="344">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="346">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>76.2</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="351">
@@ -4951,7 +4951,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="354">
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="355">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="356">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="359">
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="360">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="362">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="363">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="366">
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367">
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="368">
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="370">
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="375">
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="377">
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="378">
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="381">
@@ -5328,7 +5328,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="384">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="387">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="388">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="389">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="391">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="392">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>76.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>78.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>77.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>32.7</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="402">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>58.8</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="403">
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404">
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="405">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="408">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="409">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="410">
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="412">
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="414">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="419">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="421">
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="422">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="425">
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>447.5</v>
+        <v>442</v>
       </c>
     </row>
     <row r="428">
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="432">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>113</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="433">
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="434">
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="435">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="436">
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="439">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>concussion_rounds</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -6078,11 +6078,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="441">
@@ -6091,11 +6091,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="442">
@@ -6104,11 +6104,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="443">
@@ -6117,11 +6117,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>saxum_spittle</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="444">
@@ -6130,11 +6130,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>saxum_spittle</t>
+          <t>carnis_stinger</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="445">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>carnis_stinger</t>
+          <t>jugulus_spines</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="446">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>jugulus_spines</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -6169,11 +6169,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="448">
@@ -6182,11 +6182,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="449">
@@ -6195,11 +6195,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="450">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -6234,11 +6234,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="453">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -6273,11 +6273,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -6299,11 +6299,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="458">
@@ -6312,11 +6312,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="459">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="460">
@@ -6338,11 +6338,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="461">
@@ -6351,11 +6351,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="462">
@@ -6364,11 +6364,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="463">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -6390,11 +6390,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="465">
@@ -6403,11 +6403,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466">
@@ -6416,11 +6416,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="467">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -6468,11 +6468,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="471">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -6494,11 +6494,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6507,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="474">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -6533,11 +6533,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="476">
@@ -6546,11 +6546,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -6559,11 +6559,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="478">
@@ -6572,11 +6572,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="479">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,11 +6637,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="484">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -6689,11 +6689,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="488">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -6715,11 +6715,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="490">
@@ -6728,11 +6728,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="491">
@@ -6741,11 +6741,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6754,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="493">
@@ -6767,11 +6767,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="494">
@@ -6780,11 +6780,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="495">
@@ -6793,11 +6793,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="496">
@@ -6806,11 +6806,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="497">
@@ -6819,11 +6819,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="498">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="500">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -6897,11 +6897,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="504">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -6923,11 +6923,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="506">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -6949,11 +6949,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="508">
@@ -6962,11 +6962,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +6975,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="510">
@@ -6988,11 +6988,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="512">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -7027,11 +7027,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="514">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -7053,11 +7053,11 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="516">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="517">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>mortal_conduct</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -7157,11 +7157,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="524">
@@ -7170,11 +7170,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7196,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7209,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="528">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>147.6</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="531">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="533">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -7313,11 +7313,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="536">
@@ -7326,11 +7326,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="537">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7378,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7391,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="542">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -7417,11 +7417,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7430,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7443,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="546">
@@ -7456,11 +7456,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="547">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7482,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="550">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>saxum_thorax</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -7534,11 +7534,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>carnis_mandible</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7547,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>saxum_thorax</t>
+          <t>jugulus_barbs</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7560,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>carnis_mandible</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7573,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>jugulus_barbs</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7586,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7625,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="560">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="562">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7677,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="564">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -7716,11 +7716,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="567">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="569">
@@ -7755,11 +7755,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="570">
@@ -7768,11 +7768,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7781,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="572">
@@ -7794,11 +7794,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="573">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7833,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="576">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -7872,11 +7872,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="579">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="580">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -7911,11 +7911,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="582">
@@ -7924,11 +7924,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="583">
@@ -7937,11 +7937,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -7950,11 +7950,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585">
@@ -7963,11 +7963,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="586">
@@ -7976,11 +7976,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="587">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -8002,11 +8002,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589">
@@ -8015,11 +8015,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="590">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -8041,11 +8041,11 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="592">
@@ -8054,11 +8054,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="593">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -8080,11 +8080,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="595">
@@ -8093,11 +8093,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="596">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>sundering_weave</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>swirling_tiger</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -8132,11 +8132,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>swooping_falcon</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="599">
@@ -8145,11 +8145,11 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>tempo_royale</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="600">
@@ -8158,11 +8158,11 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>tranquil_cleave</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="601">
@@ -8171,11 +8171,11 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>twirling_spire</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="602">
@@ -8184,11 +8184,11 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>vengeful_revenant</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="603">
@@ -8197,11 +8197,11 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>vermillion_storm</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="604">
@@ -8210,37 +8210,11 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>vulpine_mask</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>vermillion_storm</t>
-        </is>
-      </c>
-      <c r="C605" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>vulpine_mask</t>
-        </is>
-      </c>
-      <c r="C606" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C604"/>
+  <dimension ref="A1:C607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>436.5</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="3">
@@ -397,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>titania_prime_set</t>
+          <t>nezha_prime_set</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.9</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="4">
@@ -410,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>equinox_prime_set</t>
+          <t>titania_prime_set</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37.4</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="5">
@@ -423,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rhino_prime_set</t>
+          <t>equinox_prime_set</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>189</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="6">
@@ -436,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mesa_prime_set</t>
+          <t>rhino_prime_set</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44.3</v>
+        <v>194.3</v>
       </c>
     </row>
     <row r="7">
@@ -449,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ember_prime_set</t>
+          <t>mesa_prime_set</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80.59999999999999</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="8">
@@ -462,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>limbo_prime_set</t>
+          <t>ember_prime_set</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.40000000000001</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="9">
@@ -475,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ivara_prime_set</t>
+          <t>limbo_prime_set</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38.9</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -488,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chroma_prime_set</t>
+          <t>ivara_prime_set</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -501,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nyx_prime_set</t>
+          <t>chroma_prime_set</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127.4</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -514,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>frost_prime_set</t>
+          <t>nyx_prime_set</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73.3</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="13">
@@ -527,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>trinity_prime_set</t>
+          <t>frost_prime_set</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39.6</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="14">
@@ -540,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hydroid_prime_set</t>
+          <t>trinity_prime_set</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>95</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="15">
@@ -553,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nova_prime_set</t>
+          <t>hydroid_prime_set</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.8</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="16">
@@ -566,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>saryn_prime_set</t>
+          <t>nova_prime_set</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>169.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="17">
@@ -579,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mirage_prime_set</t>
+          <t>saryn_prime_set</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>93.90000000000001</v>
+        <v>170.4</v>
       </c>
     </row>
     <row r="18">
@@ -592,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>valkyr_prime_set</t>
+          <t>mirage_prime_set</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="19">
@@ -605,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mag_prime_set</t>
+          <t>valkyr_prime_set</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>146.7</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="20">
@@ -618,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ash_prime_set</t>
+          <t>mag_prime_set</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>147.1</v>
+        <v>149.3</v>
       </c>
     </row>
     <row r="21">
@@ -631,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>zephyr_prime_set</t>
+          <t>ash_prime_set</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70.40000000000001</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="22">
@@ -644,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>wukong_prime_set</t>
+          <t>zephyr_prime_set</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34.5</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="23">
@@ -657,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vauban_prime_set</t>
+          <t>wukong_prime_set</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>165.3</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="24">
@@ -670,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>banshee_prime_set</t>
+          <t>vauban_prime_set</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>92.40000000000001</v>
+        <v>173.6</v>
       </c>
     </row>
     <row r="25">
@@ -683,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>oberon_prime_set</t>
+          <t>banshee_prime_set</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74.3</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="26">
@@ -696,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nekros_prime_set</t>
+          <t>oberon_prime_set</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>142.9</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -709,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>volt_prime_set</t>
+          <t>nekros_prime_set</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>167.8</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="28">
@@ -722,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlas_prime_set</t>
+          <t>volt_prime_set</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>35.7</v>
+        <v>170.4</v>
       </c>
     </row>
     <row r="29">
@@ -735,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>inaros_prime_set</t>
+          <t>atlas_prime_set</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>70.90000000000001</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -748,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>baza_prime_set</t>
+          <t>inaros_prime_set</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46.5</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="31">
@@ -761,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pangolin_prime_set</t>
+          <t>baza_prime_set</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.5</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="32">
@@ -774,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>corinth_prime_set</t>
+          <t>guandao_prime_set</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48.1</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="33">
@@ -787,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>boar_prime_set</t>
+          <t>zakti_prime_set</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>85.3</v>
+        <v>138.8</v>
       </c>
     </row>
     <row r="34">
@@ -800,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>boltor_prime_set</t>
+          <t>pangolin_prime_set</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>62.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="35">
@@ -813,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>braton_prime_set</t>
+          <t>corinth_prime_set</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.300000000000001</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="36">
@@ -826,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>burston_prime_set</t>
+          <t>boar_prime_set</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.7</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="37">
@@ -839,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cernos_prime_set</t>
+          <t>boltor_prime_set</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>55.8</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="38">
@@ -852,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>latron_prime_set</t>
+          <t>braton_prime_set</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="39">
@@ -865,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>paris_prime_set</t>
+          <t>burston_prime_set</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9.800000000000001</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="40">
@@ -878,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rubico_prime_set</t>
+          <t>cernos_prime_set</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>74.7</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -891,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>soma_prime_set</t>
+          <t>latron_prime_set</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40.2</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="42">
@@ -904,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>stradavar_prime_set</t>
+          <t>paris_prime_set</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="43">
@@ -917,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sybaris_prime_set</t>
+          <t>rubico_prime_set</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>37.9</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -930,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tiberon_prime_set</t>
+          <t>soma_prime_set</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>47.7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -943,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tigris_prime_set</t>
+          <t>stradavar_prime_set</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="46">
@@ -956,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vectis_prime_set</t>
+          <t>sybaris_prime_set</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>119.2</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="47">
@@ -969,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>zhuge_prime_set</t>
+          <t>tiberon_prime_set</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>27.2</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="48">
@@ -982,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>akbolto_prime_set</t>
+          <t>tigris_prime_set</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>62.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -995,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>akbronco_prime_set</t>
+          <t>vectis_prime_set</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17.6</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="50">
@@ -1008,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>akjagara_prime_set</t>
+          <t>zhuge_prime_set</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>39.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -1021,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>aklex_prime_set</t>
+          <t>akbolto_prime_set</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>69</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="52">
@@ -1034,11 +1102,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>aksomati_prime_set</t>
+          <t>akbronco_prime_set</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>73.59999999999999</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="53">
@@ -1047,11 +1115,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>akstiletto_prime_set</t>
+          <t>akjagara_prime_set</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>97.3</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="54">
@@ -1060,11 +1128,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>akvasto_prime_set</t>
+          <t>aklex_prime_set</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>99.09999999999999</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="55">
@@ -1073,11 +1141,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ballistica_prime_set</t>
+          <t>aksomati_prime_set</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>39.4</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="56">
@@ -1086,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bronco_prime_set</t>
+          <t>akstiletto_prime_set</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.9</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="57">
@@ -1099,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>euphona_prime_set</t>
+          <t>akvasto_prime_set</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>72.90000000000001</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="58">
@@ -1112,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>hikou_prime_set</t>
+          <t>ballistica_prime_set</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>70.40000000000001</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="59">
@@ -1125,11 +1193,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lex_prime_set</t>
+          <t>bronco_prime_set</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.300000000000001</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="60">
@@ -1138,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pyrana_prime_set</t>
+          <t>euphona_prime_set</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>48.8</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1151,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sicarus_prime_set</t>
+          <t>hikou_prime_set</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32.9</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="62">
@@ -1164,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>spira_prime_set</t>
+          <t>lex_prime_set</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>138.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="63">
@@ -1177,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vasto_prime_set</t>
+          <t>pyrana_prime_set</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="64">
@@ -1190,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ankyros_prime_set</t>
+          <t>sicarus_prime_set</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>97.3</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="65">
@@ -1203,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>dakra_prime_set</t>
+          <t>spira_prime_set</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>43.5</v>
+        <v>144.3</v>
       </c>
     </row>
     <row r="66">
@@ -1216,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>destreza_prime_set</t>
+          <t>vasto_prime_set</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>44.5</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="67">
@@ -1229,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>dual_kamas_prime_set</t>
+          <t>ankyros_prime_set</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>72.3</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="68">
@@ -1242,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>fang_prime_set</t>
+          <t>dakra_prime_set</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.6</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="69">
@@ -1255,7 +1323,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fragor_prime_set</t>
+          <t>destreza_prime_set</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1268,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>galatine_prime_set</t>
+          <t>dual_kamas_prime_set</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40.4</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="71">
@@ -1281,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>glaive_prime_set</t>
+          <t>fang_prime_set</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>47.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1294,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gram_prime_set</t>
+          <t>fragor_prime_set</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40.5</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="73">
@@ -1307,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>kogake_prime_set</t>
+          <t>galatine_prime_set</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>69.40000000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -1320,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>kronen_prime_set</t>
+          <t>glaive_prime_set</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>188.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
@@ -1333,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>nami_skyla_prime_set</t>
+          <t>gram_prime_set</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>123.7</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="76">
@@ -1346,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>nikana_prime_set</t>
+          <t>kogake_prime_set</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>99.8</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="77">
@@ -1359,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ninkondi_prime_set</t>
+          <t>kronen_prime_set</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24.6</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="78">
@@ -1372,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>orthos_prime_set</t>
+          <t>nami_skyla_prime_set</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>12.9</v>
+        <v>140.2</v>
       </c>
     </row>
     <row r="79">
@@ -1385,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>reaper_prime_set</t>
+          <t>nikana_prime_set</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>37.9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
@@ -1398,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>redeemer_prime_set</t>
+          <t>ninkondi_prime_set</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>27.7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -1411,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>scindo_prime_set</t>
+          <t>orthos_prime_set</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -1424,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>silva_and_aegis_prime_set</t>
+          <t>reaper_prime_set</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>46.5</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="83">
@@ -1437,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tekko_prime_set</t>
+          <t>redeemer_prime_set</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>47</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="84">
@@ -1450,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tipedo_prime_set</t>
+          <t>scindo_prime_set</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>38.2</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="85">
@@ -1463,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>venka_prime_set</t>
+          <t>silva_and_aegis_prime_set</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>168.1</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="86">
@@ -1476,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tipedo_prime_set</t>
+          <t>tekko_prime_set</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>38.2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
@@ -1489,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>shedu_set</t>
+          <t>tipedo_prime_set</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>70.40000000000001</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="88">
@@ -1502,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>braton_vandal_set</t>
+          <t>venka_prime_set</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>242</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="89">
@@ -1515,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dera_vandal_set</t>
+          <t>tipedo_prime_set</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>29.4</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="90">
@@ -1528,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>karak_wraith_set</t>
+          <t>shedu_set</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="91">
@@ -1541,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>gorgon_wraith_set</t>
+          <t>braton_vandal_set</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8.800000000000001</v>
+        <v>269.3</v>
       </c>
     </row>
     <row r="92">
@@ -1554,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>latron_wraith_set</t>
+          <t>dera_vandal_set</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>49.8</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="93">
@@ -1567,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>strun_wraith_set</t>
+          <t>karak_wraith_set</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>48.7</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="94">
@@ -1580,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>snipetron_vandal_set</t>
+          <t>gorgon_wraith_set</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>38.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="95">
@@ -1593,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>lato_vandal_set</t>
+          <t>latron_wraith_set</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>144.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -1606,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>twin_vipers_wraith_set</t>
+          <t>strun_wraith_set</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>42.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="97">
@@ -1619,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>furax_wraith_set</t>
+          <t>snipetron_vandal_set</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19.4</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="98">
@@ -1632,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pathocyst_set</t>
+          <t>lato_vandal_set</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>48.4</v>
+        <v>155.2</v>
       </c>
     </row>
     <row r="99">
@@ -1645,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>imperator_vandal_set</t>
+          <t>twin_vipers_wraith_set</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>62</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="100">
@@ -1658,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>panthera_prime_set</t>
+          <t>furax_wraith_set</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>58.7</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="101">
@@ -1671,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>karyst_prime_set</t>
+          <t>pathocyst_set</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>39.1</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="102">
@@ -1684,11 +1752,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rakta_cernos</t>
+          <t>imperator_vandal_set</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>24.3</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="103">
@@ -1697,11 +1765,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vengeful_shockwave_(kuva_lich_ephemera)</t>
+          <t>panthera_prime_set</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104">
@@ -1710,11 +1778,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vengeful_flame_(kuva_lich_ephemera)</t>
+          <t>karyst_prime_set</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -1723,11 +1791,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vengeful_chill_(kuva_lich_ephemera)</t>
+          <t>rakta_cernos</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>129.5</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="106">
@@ -1736,11 +1804,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vengeful_charge_(kuva_lich_ephemera)</t>
+          <t>vengeful_shockwave_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>192.8</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="107">
@@ -1749,11 +1817,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vengeful_toxin_(kuva_lich_ephemera)</t>
+          <t>vengeful_flame_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>92.3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
@@ -1762,11 +1830,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vengeful_pull_(kuva_lich_ephemera)</t>
+          <t>vengeful_chill_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>97.5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
@@ -1775,11 +1843,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vengeful_trickster_(kuva_lich_ephemera)</t>
+          <t>vengeful_charge_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>114.3</v>
+        <v>191.5</v>
       </c>
     </row>
     <row r="110">
@@ -1788,11 +1856,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vulkar_wraith</t>
+          <t>vengeful_toxin_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>79.5</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -1801,11 +1869,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sancti_tigris</t>
+          <t>vengeful_pull_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>30.3</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="112">
@@ -1814,11 +1882,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vaykor_hek</t>
+          <t>vengeful_trickster_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>26.2</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="113">
@@ -1827,11 +1895,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>synoid_simulor</t>
+          <t>vulkar_wraith</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>33.4</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="114">
@@ -1840,11 +1908,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>secura_penta</t>
+          <t>sancti_tigris</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>36.9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
@@ -1853,11 +1921,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>quanta_vandal</t>
+          <t>vaykor_hek</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>65.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="116">
@@ -1866,11 +1934,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>prisma_grinlok</t>
+          <t>synoid_simulor</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>89.7</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="117">
@@ -1879,11 +1947,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>supra_vandal</t>
+          <t>secura_penta</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>58.5</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="118">
@@ -1892,11 +1960,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>prisma_tetra</t>
+          <t>quanta_vandal</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>44.6</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -1905,11 +1973,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>prisma_grakata</t>
+          <t>prisma_grinlok</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>86.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120">
@@ -1918,11 +1986,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>viper_wraith</t>
+          <t>supra_vandal</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="121">
@@ -1931,11 +1999,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vaykor_marelok</t>
+          <t>prisma_tetra</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="122">
@@ -1944,11 +2012,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>synoid_gammacor</t>
+          <t>prisma_grakata</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>31.4</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="123">
@@ -1957,11 +2025,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>rakta_ballistica</t>
+          <t>viper_wraith</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27.1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
@@ -1970,11 +2038,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mara_detron</t>
+          <t>vaykor_marelok</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>100.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
@@ -1983,11 +2051,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>prisma_angstrum</t>
+          <t>synoid_gammacor</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -1996,11 +2064,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>secura_dual_cestra</t>
+          <t>rakta_ballistica</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32.7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="127">
@@ -2009,11 +2077,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>prisma_twin_gremlins</t>
+          <t>mara_detron</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>95.90000000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128">
@@ -2022,11 +2090,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>telos_akbolto</t>
+          <t>prisma_angstrum</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2035,11 +2103,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sancti_castanas</t>
+          <t>secura_dual_cestra</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>30.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="130">
@@ -2048,11 +2116,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>prisma_skana</t>
+          <t>prisma_twin_gremlins</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>51.4</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="131">
@@ -2061,11 +2129,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>prisma_dual_cleavers</t>
+          <t>telos_akbolto</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>88.3</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="132">
@@ -2074,11 +2142,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>machete_wraith</t>
+          <t>sancti_castanas</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>62.7</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="133">
@@ -2087,11 +2155,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>prova_vandal</t>
+          <t>prisma_skana</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>91.3</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="134">
@@ -2100,11 +2168,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>rakta_dark_dagger</t>
+          <t>prisma_dual_cleavers</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>29.6</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="135">
@@ -2113,11 +2181,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>prisma_obex</t>
+          <t>machete_wraith</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>103.8</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="136">
@@ -2126,11 +2194,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>vaykor_sydon</t>
+          <t>prova_vandal</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>27.2</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="137">
@@ -2139,11 +2207,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>synoid_heliocor</t>
+          <t>rakta_dark_dagger</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="138">
@@ -2152,11 +2220,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sancti_magistar</t>
+          <t>prisma_obex</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>33.9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
@@ -2165,11 +2233,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>telos_boltor</t>
+          <t>vaykor_sydon</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>31.9</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="140">
@@ -2178,11 +2246,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>secura_lecta</t>
+          <t>synoid_heliocor</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>38.3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
@@ -2191,11 +2259,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>aerodynamic</t>
+          <t>sancti_magistar</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18.5</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="142">
@@ -2204,11 +2272,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>brief_respite</t>
+          <t>telos_boltor</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>11.3</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="143">
@@ -2217,11 +2285,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>combat_discipline</t>
+          <t>secura_lecta</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.3</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="144">
@@ -2230,11 +2298,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>corrosive_projection</t>
+          <t>aerodynamic</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>28.1</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="145">
@@ -2243,11 +2311,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dead_eye</t>
+          <t>brief_respite</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>21.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="146">
@@ -2256,11 +2324,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>empowered_blades</t>
+          <t>combat_discipline</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>21.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="147">
@@ -2269,11 +2337,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>enemy_radar</t>
+          <t>corrosive_projection</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>33.5</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="148">
@@ -2282,11 +2350,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>energy_siphon</t>
+          <t>dead_eye</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>37.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="149">
@@ -2295,11 +2363,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>growing_power</t>
+          <t>empowered_blades</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2308,11 +2376,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>infested_impedance</t>
+          <t>enemy_radar</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>11.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="151">
@@ -2321,11 +2389,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>loot_detector</t>
+          <t>energy_siphon</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>19.3</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="152">
@@ -2334,11 +2402,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>mecha_empowered</t>
+          <t>growing_power</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3.8</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="153">
@@ -2347,11 +2415,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>melee_guidance</t>
+          <t>infested_impedance</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2360,11 +2428,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>physique</t>
+          <t>loot_detector</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>7.4</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="155">
@@ -2373,11 +2441,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>pistol_amp</t>
+          <t>mecha_empowered</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="156">
@@ -2386,7 +2454,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>pistol_scavenger</t>
+          <t>melee_guidance</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2399,11 +2467,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>power_donation</t>
+          <t>physique</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2412,11 +2480,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>rejuvenation</t>
+          <t>pistol_amp</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>18.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="159">
@@ -2425,11 +2493,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>rifle_amp</t>
+          <t>pistol_scavenger</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2438,11 +2506,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>rifle_scavenger</t>
+          <t>power_donation</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="161">
@@ -2451,11 +2519,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>shepherd</t>
+          <t>rejuvenation</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="162">
@@ -2464,11 +2532,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>shield_disruption</t>
+          <t>rifle_amp</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>14.8</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="163">
@@ -2477,11 +2545,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>shotgun_amp</t>
+          <t>rifle_scavenger</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="164">
@@ -2490,11 +2558,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>shotgun_scavenger</t>
+          <t>shepherd</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="165">
@@ -2503,11 +2571,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>sniper_scavenger</t>
+          <t>shield_disruption</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="166">
@@ -2516,11 +2584,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>speed_holster</t>
+          <t>shotgun_amp</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>20.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -2529,11 +2597,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>sprint_boost</t>
+          <t>shotgun_scavenger</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -2542,11 +2610,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>stand_united</t>
+          <t>sniper_scavenger</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2555,11 +2623,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>steel_charge</t>
+          <t>speed_holster</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="170">
@@ -2568,11 +2636,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>swift_momentum</t>
+          <t>sprint_boost</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11.2</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="171">
@@ -2581,11 +2649,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>toxin_resistance</t>
+          <t>stand_united</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="172">
@@ -2594,11 +2662,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>steel_charge</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="173">
@@ -2607,11 +2675,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>saxum_carapace</t>
+          <t>swift_momentum</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>30.2</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="174">
@@ -2620,11 +2688,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>carnis_carapace</t>
+          <t>toxin_resistance</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -2633,11 +2701,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>jugulus_carapace</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>71.7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176">
@@ -2646,11 +2714,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>necramech_blitz</t>
+          <t>saxum_carapace</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4.7</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="177">
@@ -2659,11 +2727,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>necramech_continuity</t>
+          <t>carnis_carapace</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>19.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="178">
@@ -2672,11 +2740,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>necramech_fury</t>
+          <t>jugulus_carapace</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4.1</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="179">
@@ -2685,11 +2753,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>necramech_intensify</t>
+          <t>necramech_blitz</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -2698,11 +2766,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>necramech_pressure_point</t>
+          <t>necramech_continuity</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>8.300000000000001</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="181">
@@ -2711,11 +2779,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>necramech_reach</t>
+          <t>necramech_fury</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -2724,7 +2792,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>necramech_redirection</t>
+          <t>necramech_intensify</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -2737,11 +2805,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>necramech_refuel</t>
+          <t>necramech_pressure_point</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -2750,11 +2818,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>necramech_seismic_wave</t>
+          <t>necramech_reach</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>133.8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="185">
@@ -2763,11 +2831,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>necramech_slipstream</t>
+          <t>necramech_redirection</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>13.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="186">
@@ -2776,11 +2844,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>necramech_steel_fiber</t>
+          <t>necramech_refuel</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -2789,11 +2857,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>necramech_streamline</t>
+          <t>necramech_seismic_wave</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>268.6</v>
+        <v>154.8</v>
       </c>
     </row>
     <row r="188">
@@ -2802,11 +2870,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>necramech_thrusters</t>
+          <t>necramech_slipstream</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>328</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="189">
@@ -2815,11 +2883,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>necramech_vitality</t>
+          <t>necramech_steel_fiber</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="190">
@@ -2828,11 +2896,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>necramech_stretch</t>
+          <t>necramech_streamline</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>19.8</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191">
@@ -2841,11 +2909,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>aero_vantage</t>
+          <t>necramech_thrusters</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4.3</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="192">
@@ -2854,11 +2922,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>agility_drift</t>
+          <t>necramech_vitality</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2867,11 +2935,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>armored_agility</t>
+          <t>necramech_stretch</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4.1</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="194">
@@ -2880,11 +2948,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>augur_accord</t>
+          <t>aero_vantage</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="195">
@@ -2893,11 +2961,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>augur_message</t>
+          <t>agility_drift</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="196">
@@ -2906,11 +2974,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>augur_reach</t>
+          <t>armored_agility</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>18.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="197">
@@ -2919,11 +2987,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>augur_secrets</t>
+          <t>augur_accord</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>27.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="198">
@@ -2932,11 +3000,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>aviator</t>
+          <t>augur_message</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="199">
@@ -2945,11 +3013,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>blind_rage</t>
+          <t>augur_reach</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>13.9</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="200">
@@ -2958,11 +3026,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>coaction_drift</t>
+          <t>augur_secrets</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8.1</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="201">
@@ -2971,11 +3039,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>constitution</t>
+          <t>aviator</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>16.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="202">
@@ -2984,11 +3052,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>continuity</t>
+          <t>blind_rage</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +3065,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>cunning_drift</t>
+          <t>coaction_drift</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3010,11 +3078,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>endurance_drift</t>
+          <t>constitution</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2.7</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="205">
@@ -3023,11 +3091,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>enemy_sense</t>
+          <t>continuity</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="206">
@@ -3036,11 +3104,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>energy_conversion</t>
+          <t>cunning_drift</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>46</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="207">
@@ -3049,11 +3117,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>equilibrium</t>
+          <t>endurance_drift</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="208">
@@ -3062,11 +3130,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>firewalker</t>
+          <t>enemy_sense</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="209">
@@ -3075,11 +3143,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>fleeting_expertise</t>
+          <t>energy_conversion</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>16.7</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="210">
@@ -3088,11 +3156,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>equilibrium</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="211">
@@ -3101,11 +3169,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>fortitude</t>
+          <t>firewalker</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3114,11 +3182,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>gladiator_aegis</t>
+          <t>fleeting_expertise</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="213">
@@ -3127,11 +3195,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>gladiator_finesse</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>7.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="214">
@@ -3140,11 +3208,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>gladiator_resolve</t>
+          <t>fortitude</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3153,11 +3221,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>handspring</t>
+          <t>gladiator_aegis</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="216">
@@ -3166,11 +3234,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>health_conversion</t>
+          <t>gladiator_finesse</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>48.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="217">
@@ -3179,11 +3247,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>hunter_adrenaline</t>
+          <t>gladiator_resolve</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="218">
@@ -3192,11 +3260,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ice_spring</t>
+          <t>handspring</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="219">
@@ -3205,11 +3273,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>health_conversion</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2.3</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="220">
@@ -3218,11 +3286,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>lightning_dash</t>
+          <t>hunter_adrenaline</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="221">
@@ -3231,7 +3299,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>master_thief</t>
+          <t>ice_spring</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3244,11 +3312,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>mecha_pulse</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="223">
@@ -3257,11 +3325,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>motus_signal</t>
+          <t>lightning_dash</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="224">
@@ -3270,11 +3338,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>narrow_minded</t>
+          <t>master_thief</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -3283,11 +3351,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>natural_talent</t>
+          <t>mecha_pulse</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="226">
@@ -3296,11 +3364,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>overextended</t>
+          <t>motus_signal</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -3309,11 +3377,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>pain_threshold</t>
+          <t>narrow_minded</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="228">
@@ -3322,11 +3390,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>power_drift</t>
+          <t>natural_talent</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="229">
@@ -3335,11 +3403,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>primed_continuity</t>
+          <t>overextended</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>81.8</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="230">
@@ -3348,11 +3416,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>primed_flow</t>
+          <t>pain_threshold</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>80.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -3361,11 +3429,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>rolling_guard</t>
+          <t>power_drift</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>14.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="232">
@@ -3374,11 +3442,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>rush</t>
+          <t>primed_continuity</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="233">
@@ -3387,11 +3455,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>speed_drift</t>
+          <t>primed_flow</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>18.8</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -3400,11 +3468,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>stealth_drift</t>
+          <t>rolling_guard</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="235">
@@ -3413,11 +3481,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>strain_consume</t>
+          <t>rush</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -3426,11 +3494,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>streamline</t>
+          <t>speed_drift</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2.3</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="237">
@@ -3439,11 +3507,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>streamlined_form</t>
+          <t>stealth_drift</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -3452,11 +3520,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>strain_consume</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="239">
@@ -3465,11 +3533,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>sure_footed</t>
+          <t>streamline</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="240">
@@ -3478,11 +3546,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>synth_reflex</t>
+          <t>streamlined_form</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="241">
@@ -3491,11 +3559,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>tek_collateral</t>
+          <t>stretch</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="242">
@@ -3504,11 +3572,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>toxic_flight</t>
+          <t>sure_footed</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="243">
@@ -3517,11 +3585,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>transient_fortitude</t>
+          <t>synth_reflex</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -3530,11 +3598,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>vigilante_pursuit</t>
+          <t>tek_collateral</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -3543,11 +3611,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>vigilante_vigor</t>
+          <t>toxic_flight</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="246">
@@ -3556,11 +3624,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>vigor</t>
+          <t>transient_fortitude</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="247">
@@ -3569,11 +3637,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>vigorous_swap</t>
+          <t>vigilante_pursuit</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>17.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="248">
@@ -3582,11 +3650,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>arcane_consequence</t>
+          <t>vigilante_vigor</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -3595,11 +3663,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>arcane_ice</t>
+          <t>vigor</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="250">
@@ -3608,11 +3676,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>arcane_momentum</t>
+          <t>vigorous_swap</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="251">
@@ -3621,11 +3689,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>arcane_nullifier</t>
+          <t>arcane_consequence</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3634,11 +3702,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>arcane_tempo</t>
+          <t>arcane_ice</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3647,11 +3715,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>arcane_warmth</t>
+          <t>arcane_momentum</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="254">
@@ -3660,11 +3728,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>arcane_deflection</t>
+          <t>arcane_nullifier</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="255">
@@ -3673,11 +3741,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>arcane_healing</t>
+          <t>arcane_tempo</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="256">
@@ -3686,11 +3754,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>arcane_resistance</t>
+          <t>arcane_warmth</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -3699,11 +3767,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>arcane_victory</t>
+          <t>arcane_deflection</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -3712,11 +3780,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>arcane_acceleration</t>
+          <t>arcane_healing</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="259">
@@ -3725,11 +3793,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>arcane_agility</t>
+          <t>arcane_resistance</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="260">
@@ -3738,11 +3806,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>arcane_awakening</t>
+          <t>arcane_victory</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="261">
@@ -3751,11 +3819,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>arcane_eruption</t>
+          <t>arcane_acceleration</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="262">
@@ -3764,11 +3832,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>arcane_guardian</t>
+          <t>arcane_agility</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -3777,11 +3845,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>arcane_phantasm</t>
+          <t>arcane_awakening</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="264">
@@ -3790,11 +3858,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>arcane_strike</t>
+          <t>arcane_eruption</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="265">
@@ -3803,11 +3871,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>arcane_aegis</t>
+          <t>arcane_guardian</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>15.1</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="266">
@@ -3816,11 +3884,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>arcane_precision</t>
+          <t>arcane_phantasm</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -3829,11 +3897,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>arcane_pulse</t>
+          <t>arcane_strike</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="268">
@@ -3842,11 +3910,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>arcane_ultimatum</t>
+          <t>arcane_aegis</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="269">
@@ -3855,11 +3923,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>arcane_trickery</t>
+          <t>arcane_precision</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="270">
@@ -3868,11 +3936,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>arcane_velocity</t>
+          <t>arcane_pulse</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="271">
@@ -3881,11 +3949,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>arcane_arachne</t>
+          <t>arcane_ultimatum</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="272">
@@ -3894,11 +3962,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>arcane_avenger</t>
+          <t>arcane_trickery</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="273">
@@ -3907,11 +3975,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>arcane_fury</t>
+          <t>arcane_velocity</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>22.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="274">
@@ -3920,11 +3988,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>arcane_rage</t>
+          <t>arcane_arachne</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -3933,11 +4001,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>arcane_barrier</t>
+          <t>arcane_avenger</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>14.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="276">
@@ -3946,11 +4014,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>arcane_energize</t>
+          <t>arcane_fury</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>64.09999999999999</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="277">
@@ -3959,11 +4027,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>arcane_grace</t>
+          <t>arcane_rage</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>45.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="278">
@@ -3972,11 +4040,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>arcane_blade_charger</t>
+          <t>arcane_barrier</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="279">
@@ -3985,11 +4053,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>arcane_bodyguard</t>
+          <t>arcane_energize</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2.3</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="280">
@@ -3998,11 +4066,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>arcane_pistoleer</t>
+          <t>arcane_grace</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10.4</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="281">
@@ -4011,11 +4079,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>arcane_primary_charger</t>
+          <t>arcane_blade_charger</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="282">
@@ -4024,11 +4092,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>arcane_tanker</t>
+          <t>arcane_bodyguard</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4037,11 +4105,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>magus_husk</t>
+          <t>arcane_pistoleer</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="284">
@@ -4050,7 +4118,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>magus_vigor</t>
+          <t>arcane_primary_charger</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4063,11 +4131,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>magus_cadence</t>
+          <t>arcane_tanker</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="286">
@@ -4076,7 +4144,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>magus_cloud</t>
+          <t>magus_husk</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4089,11 +4157,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>magus_replenish</t>
+          <t>magus_vigor</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -4102,11 +4170,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>magus_elevate</t>
+          <t>magus_cadence</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -4115,11 +4183,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>magus_nourish</t>
+          <t>magus_cloud</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
@@ -4128,7 +4196,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>magus_overload</t>
+          <t>magus_replenish</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4141,11 +4209,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>magus_glitch</t>
+          <t>magus_elevate</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="292">
@@ -4154,11 +4222,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>magus_revert</t>
+          <t>magus_nourish</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="293">
@@ -4167,11 +4235,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>magus_lockdown</t>
+          <t>magus_overload</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4180,11 +4248,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>magus_destruct</t>
+          <t>magus_glitch</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="295">
@@ -4193,11 +4261,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>magus_anomaly</t>
+          <t>magus_revert</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4206,11 +4274,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>magus_melt</t>
+          <t>magus_lockdown</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="297">
@@ -4219,7 +4287,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>magus_accelerant</t>
+          <t>magus_destruct</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4232,11 +4300,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>magus_repair</t>
+          <t>magus_anomaly</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -4245,7 +4313,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>virtuos_null</t>
+          <t>magus_melt</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4258,7 +4326,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>virtuos_tempo</t>
+          <t>magus_accelerant</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4271,7 +4339,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>virtuos_fury</t>
+          <t>magus_repair</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4284,7 +4352,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>virtuos_strike</t>
+          <t>virtuos_null</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4297,7 +4365,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>virtuos_ghost</t>
+          <t>virtuos_tempo</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4310,11 +4378,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>virtuos_shadow</t>
+          <t>virtuos_fury</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="305">
@@ -4323,11 +4391,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>virtuos_forge</t>
+          <t>virtuos_strike</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="306">
@@ -4336,7 +4404,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>virtuos_trojan</t>
+          <t>virtuos_ghost</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -4349,11 +4417,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>virtuos_surge</t>
+          <t>virtuos_shadow</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="308">
@@ -4362,11 +4430,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>pax_bolt</t>
+          <t>virtuos_forge</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -4375,7 +4443,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>pax_seeker</t>
+          <t>virtuos_trojan</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -4388,7 +4456,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>pax_soar</t>
+          <t>virtuos_surge</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -4401,11 +4469,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>exodia_triumph</t>
+          <t>pax_bolt</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>11.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="312">
@@ -4414,11 +4482,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>exodia_valor</t>
+          <t>pax_seeker</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -4427,11 +4495,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>exodia_brave</t>
+          <t>pax_soar</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -4440,11 +4508,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>exodia_force</t>
+          <t>exodia_triumph</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="315">
@@ -4453,11 +4521,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>exodia_hunt</t>
+          <t>exodia_valor</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -4466,7 +4534,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>exodia_might</t>
+          <t>exodia_brave</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -4479,11 +4547,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>exodia_contagion</t>
+          <t>exodia_force</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>19.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="318">
@@ -4492,11 +4560,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>exodia_epidemic</t>
+          <t>exodia_hunt</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="319">
@@ -4505,7 +4573,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>aero_periphery</t>
+          <t>exodia_might</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -4518,11 +4586,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>hunter_munitions</t>
+          <t>exodia_contagion</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="321">
@@ -4531,11 +4599,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>hunter_track</t>
+          <t>exodia_epidemic</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="322">
@@ -4544,11 +4612,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>vigilante_armaments</t>
+          <t>aero_periphery</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -4557,11 +4625,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>vigilante_fervor</t>
+          <t>hunter_munitions</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="324">
@@ -4570,11 +4638,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>vigilante_offense</t>
+          <t>hunter_track</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -4583,11 +4651,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>vigilante_supplies</t>
+          <t>vigilante_armaments</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>20.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="326">
@@ -4596,11 +4664,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>adhesive_blast</t>
+          <t>vigilante_fervor</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="327">
@@ -4609,11 +4677,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>agile_aim</t>
+          <t>vigilante_offense</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="328">
@@ -4622,11 +4690,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ammo_drum</t>
+          <t>vigilante_supplies</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="329">
@@ -4635,11 +4703,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>argon_scope</t>
+          <t>adhesive_blast</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -4648,11 +4716,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>bladed_rounds</t>
+          <t>agile_aim</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4661,11 +4729,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>catalyzer_link</t>
+          <t>ammo_drum</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="332">
@@ -4674,11 +4742,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>cautious_shot</t>
+          <t>argon_scope</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>19.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="333">
@@ -4687,11 +4755,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>continuous_misery</t>
+          <t>bladed_rounds</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -4700,11 +4768,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>crash_course</t>
+          <t>catalyzer_link</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -4713,11 +4781,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>critical_delay</t>
+          <t>cautious_shot</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -4726,11 +4794,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>cryo_rounds</t>
+          <t>continuous_misery</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337">
@@ -4739,11 +4807,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>fanged_fusillade</t>
+          <t>crash_course</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -4752,11 +4820,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>firestorm</t>
+          <t>critical_delay</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="339">
@@ -4765,11 +4833,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>hammer_shot</t>
+          <t>cryo_rounds</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -4778,11 +4846,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>heavy_caliber</t>
+          <t>fanged_fusillade</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="341">
@@ -4791,11 +4859,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>hellfire</t>
+          <t>firestorm</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="342">
@@ -4804,11 +4872,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>high_voltage</t>
+          <t>hammer_shot</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>56.6</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="343">
@@ -4817,11 +4885,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>heavy_caliber</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3.8</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="344">
@@ -4830,11 +4898,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>infected_clip</t>
+          <t>hellfire</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="345">
@@ -4843,11 +4911,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>malignant_force</t>
+          <t>high_voltage</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4.8</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="346">
@@ -4856,7 +4924,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>metal_auger</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -4869,11 +4937,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>piercing_caliber</t>
+          <t>infected_clip</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -4882,11 +4950,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>point_strike</t>
+          <t>malignant_force</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="349">
@@ -4895,11 +4963,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>primed_cryo_rounds</t>
+          <t>metal_auger</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>39</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="350">
@@ -4908,11 +4976,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>primed_fast_hands</t>
+          <t>piercing_caliber</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>80.09999999999999</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="351">
@@ -4921,7 +4989,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>proton_jet</t>
+          <t>point_strike</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -4934,11 +5002,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>rifle_aptitude</t>
+          <t>primed_cryo_rounds</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="353">
@@ -4947,11 +5015,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>rime_rounds</t>
+          <t>primed_fast_hands</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>19.3</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="354">
@@ -4960,11 +5028,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>proton_jet</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="355">
@@ -4973,11 +5041,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>rifle_aptitude</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -4986,11 +5054,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>rime_rounds</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="357">
@@ -4999,7 +5067,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5012,11 +5080,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="359">
@@ -5025,11 +5093,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -5038,7 +5106,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5051,11 +5119,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -5064,11 +5132,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="363">
@@ -5077,7 +5145,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5090,11 +5158,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="365">
@@ -5103,11 +5171,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -5116,11 +5184,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="367">
@@ -5129,11 +5197,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="368">
@@ -5142,11 +5210,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -5155,11 +5223,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="370">
@@ -5168,11 +5236,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="371">
@@ -5181,7 +5249,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>deft_tempo</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -5194,11 +5262,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="373">
@@ -5207,7 +5275,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -5220,11 +5288,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>hydraulic_gauge</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -5233,7 +5301,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>loose_hatch</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -5246,11 +5314,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>maximum_capacity</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -5259,11 +5327,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="378">
@@ -5272,11 +5340,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="379">
@@ -5285,11 +5353,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="380">
@@ -5298,11 +5366,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>41.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="381">
@@ -5311,11 +5379,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="382">
@@ -5324,11 +5392,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383">
@@ -5337,11 +5405,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.3</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="384">
@@ -5350,11 +5418,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -5363,7 +5431,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -5376,11 +5444,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="387">
@@ -5389,11 +5457,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -5402,11 +5470,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -5415,11 +5483,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="390">
@@ -5428,11 +5496,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="391">
@@ -5441,11 +5509,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -5454,7 +5522,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -5467,11 +5535,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="394">
@@ -5480,11 +5548,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="395">
@@ -5493,11 +5561,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="396">
@@ -5506,7 +5574,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -5519,11 +5587,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="398">
@@ -5532,11 +5600,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="399">
@@ -5545,7 +5613,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -5558,7 +5626,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -5571,11 +5639,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -5584,11 +5652,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>57.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -5597,11 +5665,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -5610,11 +5678,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>104.2</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="405">
@@ -5623,11 +5691,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="406">
@@ -5636,11 +5704,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="407">
@@ -5649,11 +5717,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -5662,11 +5730,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="409">
@@ -5675,11 +5743,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -5688,11 +5756,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>34.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -5701,11 +5769,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -5714,7 +5782,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -5727,11 +5795,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="414">
@@ -5740,7 +5808,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -5753,7 +5821,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -5766,7 +5834,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -5779,7 +5847,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -5792,11 +5860,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -5805,11 +5873,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -5818,11 +5886,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>soft_hands</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -5831,11 +5899,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="422">
@@ -5844,11 +5912,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>11.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="423">
@@ -5857,11 +5925,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="424">
@@ -5870,11 +5938,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="425">
@@ -5883,7 +5951,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -5896,7 +5964,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -5909,11 +5977,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>442</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="428">
@@ -5922,7 +5990,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>emergent_aftermath</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -5935,11 +6003,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>harkonar_scope</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -5948,11 +6016,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>453.8</v>
       </c>
     </row>
     <row r="431">
@@ -5961,11 +6029,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -5974,11 +6042,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>116.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -5987,11 +6055,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -6000,11 +6068,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="435">
@@ -6013,11 +6081,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>5.8</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="436">
@@ -6026,11 +6094,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437">
@@ -6039,11 +6107,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>9.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -6052,11 +6120,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="439">
@@ -6065,11 +6133,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="440">
@@ -6078,11 +6146,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="441">
@@ -6091,11 +6159,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="442">
@@ -6104,11 +6172,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6117,11 +6185,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>saxum_spittle</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>45.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="444">
@@ -6130,11 +6198,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>carnis_stinger</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="445">
@@ -6143,11 +6211,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>jugulus_spines</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>48.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="446">
@@ -6156,11 +6224,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>saxum_spittle</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="447">
@@ -6169,11 +6237,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>carnis_stinger</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="448">
@@ -6182,11 +6250,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>jugulus_spines</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>23.2</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="449">
@@ -6195,11 +6263,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="450">
@@ -6208,11 +6276,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="451">
@@ -6221,11 +6289,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="452">
@@ -6234,11 +6302,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -6247,7 +6315,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -6260,7 +6328,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -6273,11 +6341,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="456">
@@ -6286,11 +6354,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -6299,11 +6367,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>hydraulic_barrel</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>55.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -6312,11 +6380,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>15.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="459">
@@ -6325,11 +6393,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="460">
@@ -6338,11 +6406,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>9.1</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="461">
@@ -6351,11 +6419,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>8.300000000000001</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="462">
@@ -6364,11 +6432,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="463">
@@ -6377,11 +6445,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="464">
@@ -6390,11 +6458,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="465">
@@ -6403,11 +6471,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="466">
@@ -6416,11 +6484,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>59.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="467">
@@ -6429,11 +6497,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="468">
@@ -6442,11 +6510,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="469">
@@ -6455,7 +6523,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -6468,11 +6536,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -6481,11 +6549,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="472">
@@ -6494,11 +6562,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>75.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -6507,11 +6575,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>63.4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="474">
@@ -6520,11 +6588,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="475">
@@ -6533,11 +6601,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>40</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="476">
@@ -6546,11 +6614,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -6559,11 +6627,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -6572,11 +6640,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>8.6</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="479">
@@ -6585,7 +6653,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -6598,11 +6666,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="481">
@@ -6611,11 +6679,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="482">
@@ -6624,7 +6692,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6637,11 +6705,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -6650,7 +6718,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -6663,7 +6731,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -6676,7 +6744,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -6689,11 +6757,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -6702,11 +6770,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="489">
@@ -6715,11 +6783,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -6728,11 +6796,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="491">
@@ -6741,11 +6809,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -6754,11 +6822,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="493">
@@ -6767,11 +6835,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="494">
@@ -6780,11 +6848,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3.4</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="495">
@@ -6793,11 +6861,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>6.4</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="496">
@@ -6806,11 +6874,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="497">
@@ -6819,11 +6887,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="498">
@@ -6832,11 +6900,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="499">
@@ -6845,11 +6913,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>5.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="500">
@@ -6858,11 +6926,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="501">
@@ -6871,7 +6939,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -6884,11 +6952,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="503">
@@ -6897,11 +6965,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -6910,7 +6978,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -6923,11 +6991,11 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -6936,7 +7004,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -6949,11 +7017,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -6962,11 +7030,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="509">
@@ -6975,11 +7043,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -6988,11 +7056,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>3</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="511">
@@ -7001,11 +7069,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>8.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="512">
@@ -7014,11 +7082,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="513">
@@ -7027,11 +7095,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -7040,11 +7108,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="515">
@@ -7053,11 +7121,11 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -7066,11 +7134,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="517">
@@ -7079,11 +7147,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="518">
@@ -7092,11 +7160,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -7105,11 +7173,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="520">
@@ -7118,7 +7186,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -7131,7 +7199,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -7144,7 +7212,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -7157,11 +7225,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>38.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -7170,11 +7238,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>41.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -7183,11 +7251,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>87.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -7196,11 +7264,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>72</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="527">
@@ -7209,11 +7277,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>108.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -7222,11 +7290,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="529">
@@ -7235,11 +7303,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>147.6</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="530">
@@ -7248,11 +7316,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>116.4</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="531">
@@ -7261,11 +7329,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="532">
@@ -7274,11 +7342,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>9.6</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="533">
@@ -7287,11 +7355,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="534">
@@ -7300,7 +7368,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -7313,11 +7381,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="536">
@@ -7326,11 +7394,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -7339,7 +7407,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -7352,11 +7420,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="539">
@@ -7365,11 +7433,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="540">
@@ -7378,11 +7446,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>13.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="541">
@@ -7391,11 +7459,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -7404,11 +7472,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="543">
@@ -7417,11 +7485,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>9.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="544">
@@ -7430,11 +7498,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>sundering_strike</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -7443,11 +7511,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>tek_gravity</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -7456,11 +7524,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>true_punishment</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="547">
@@ -7469,11 +7537,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>true_steel</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="548">
@@ -7482,11 +7550,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>vicious_frost</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>51.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="549">
@@ -7495,11 +7563,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>virulent_scourge</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>25.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="550">
@@ -7508,11 +7576,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>volcanic_edge</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="551">
@@ -7521,11 +7589,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>saxum_thorax</t>
+          <t>voltaic_strike</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="552">
@@ -7534,11 +7602,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>carnis_mandible</t>
+          <t>weeping_wounds</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>2.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="553">
@@ -7547,11 +7615,11 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>jugulus_barbs</t>
+          <t>whirlwind</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -7560,11 +7628,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>saxum_thorax</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="555">
@@ -7573,11 +7641,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>carnis_mandible</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="556">
@@ -7586,11 +7654,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>jugulus_barbs</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="557">
@@ -7599,11 +7667,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>astral_twilight</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="558">
@@ -7612,11 +7680,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>atlantis_vulcan</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="559">
@@ -7625,11 +7693,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>bleeding_willow</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>54.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="560">
@@ -7638,11 +7706,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>blind_justice</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="561">
@@ -7651,11 +7719,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>brutal_tide</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562">
@@ -7664,11 +7732,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>bullet_dance</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2.3</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="563">
@@ -7677,11 +7745,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>burning_wasp</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -7690,7 +7758,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>carving_mantis</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -7703,7 +7771,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>clashing_forest</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -7716,11 +7784,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>cleaving_whirlwind</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="567">
@@ -7729,7 +7797,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>coiling_viper</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -7742,11 +7810,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>crashing_havoc</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -7755,11 +7823,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>crimson_dervish</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>16.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="570">
@@ -7768,11 +7836,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>crossing_snakes</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -7781,11 +7849,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>crushing_ruin</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="572">
@@ -7794,11 +7862,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>cyclone_kraken</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="573">
@@ -7807,11 +7875,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>decisive_judgement</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>15.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="574">
@@ -7820,11 +7888,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>defiled_snapdragon</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="575">
@@ -7833,11 +7901,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>eleventh_storm</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -7846,11 +7914,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>final_harbinger</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="577">
@@ -7859,11 +7927,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>flailing_branch</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="578">
@@ -7872,11 +7940,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>four_riders</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="579">
@@ -7885,11 +7953,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>fracturing_wind</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -7898,7 +7966,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>gemini_cross</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -7911,11 +7979,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>gleaming_talon</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="582">
@@ -7924,11 +7992,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>gnashing_payara</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -7937,11 +8005,11 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>grim_fury</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -7950,11 +8018,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>high_noon</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="585">
@@ -7963,11 +8031,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>homing_fang</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="586">
@@ -7976,11 +8044,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>iron_phoenix</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -7989,11 +8057,11 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>pointed_wind</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="588">
@@ -8002,11 +8070,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>reaping_spiral</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="589">
@@ -8015,11 +8083,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>rending_crane</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="590">
@@ -8028,11 +8096,11 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>seismic_palm</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591">
@@ -8041,11 +8109,11 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>shattering_storm</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -8054,11 +8122,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>shimmering_blight</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593">
@@ -8067,7 +8135,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>sinking_talon</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -8080,11 +8148,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>slicing_feathers</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>9.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="595">
@@ -8093,11 +8161,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>sovereign_outcast</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="596">
@@ -8106,7 +8174,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>spinning_needle</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -8119,11 +8187,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>stalking_fan</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="598">
@@ -8132,11 +8200,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>stinging_thorn</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="599">
@@ -8145,11 +8213,11 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>sundering_weave</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>32.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -8158,11 +8226,11 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>swirling_tiger</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -8171,11 +8239,11 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>swooping_falcon</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="602">
@@ -8184,11 +8252,11 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>tempo_royale</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>16.4</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="603">
@@ -8197,11 +8265,11 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>vermillion_storm</t>
+          <t>tranquil_cleave</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>9.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="604">
@@ -8210,11 +8278,50 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
+          <t>twirling_spire</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>vengeful_revenant</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>vermillion_storm</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
           <t>vulpine_mask</t>
         </is>
       </c>
-      <c r="C604" t="n">
-        <v>2.4</v>
+      <c r="C607" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/html/test.xlsx
+++ b/html/test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C607"/>
+  <dimension ref="A1:C669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450.8</v>
+        <v>438.1</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nezha_prime_set</t>
+          <t>dethcube_prime_set</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>139.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>titania_prime_set</t>
+          <t>wyrm_prime_set</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35.2</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="5">
@@ -491,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>equinox_prime_set</t>
+          <t>helios_prime_set</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35.4</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="6">
@@ -504,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rhino_prime_set</t>
+          <t>carrier_prime_set</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>194.3</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="7">
@@ -517,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mesa_prime_set</t>
+          <t>nezha_prime_set</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.3</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="8">
@@ -530,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ember_prime_set</t>
+          <t>titania_prime_set</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -543,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>limbo_prime_set</t>
+          <t>equinox_prime_set</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92.09999999999999</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="10">
@@ -556,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ivara_prime_set</t>
+          <t>rhino_prime_set</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>195.7</v>
       </c>
     </row>
     <row r="11">
@@ -569,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>chroma_prime_set</t>
+          <t>mesa_prime_set</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>65.90000000000001</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="12">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nyx_prime_set</t>
+          <t>ember_prime_set</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>137.5</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -595,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>frost_prime_set</t>
+          <t>limbo_prime_set</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>63.1</v>
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -608,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>trinity_prime_set</t>
+          <t>ivara_prime_set</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>47.6</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="15">
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hydroid_prime_set</t>
+          <t>chroma_prime_set</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>94.8</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="16">
@@ -634,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nova_prime_set</t>
+          <t>nyx_prime_set</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66.7</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="17">
@@ -647,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>saryn_prime_set</t>
+          <t>frost_prime_set</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>170.4</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="18">
@@ -660,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mirage_prime_set</t>
+          <t>trinity_prime_set</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>98.2</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="19">
@@ -673,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>valkyr_prime_set</t>
+          <t>hydroid_prime_set</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>102.2</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -686,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mag_prime_set</t>
+          <t>nova_prime_set</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>149.3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -699,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ash_prime_set</t>
+          <t>saryn_prime_set</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>149.5</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="22">
@@ -712,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>zephyr_prime_set</t>
+          <t>mirage_prime_set</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>72.7</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="23">
@@ -725,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>wukong_prime_set</t>
+          <t>valkyr_prime_set</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -738,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vauban_prime_set</t>
+          <t>mag_prime_set</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>173.6</v>
+        <v>151.9</v>
       </c>
     </row>
     <row r="25">
@@ -751,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>banshee_prime_set</t>
+          <t>ash_prime_set</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>93.7</v>
+        <v>140.6</v>
       </c>
     </row>
     <row r="26">
@@ -764,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>oberon_prime_set</t>
+          <t>zephyr_prime_set</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>76.09999999999999</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="27">
@@ -777,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nekros_prime_set</t>
+          <t>wukong_prime_set</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>140.5</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="28">
@@ -790,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>volt_prime_set</t>
+          <t>vauban_prime_set</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>170.4</v>
+        <v>169.6</v>
       </c>
     </row>
     <row r="29">
@@ -803,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlas_prime_set</t>
+          <t>banshee_prime_set</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -816,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>inaros_prime_set</t>
+          <t>oberon_prime_set</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>62.9</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -829,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>baza_prime_set</t>
+          <t>nekros_prime_set</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.7</v>
+        <v>139.7</v>
       </c>
     </row>
     <row r="32">
@@ -842,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>guandao_prime_set</t>
+          <t>volt_prime_set</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>128.8</v>
+        <v>172.1</v>
       </c>
     </row>
     <row r="33">
@@ -855,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>zakti_prime_set</t>
+          <t>atlas_prime_set</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>138.8</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pangolin_prime_set</t>
+          <t>inaros_prime_set</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>21.5</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="35">
@@ -881,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>corinth_prime_set</t>
+          <t>baza_prime_set</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>42.7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>boar_prime_set</t>
+          <t>guandao_prime_set</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>94.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>boltor_prime_set</t>
+          <t>stropha_set</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>66.8</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>braton_prime_set</t>
+          <t>stahlta_set</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7.6</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="39">
@@ -933,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>burston_prime_set</t>
+          <t>zakti_prime_set</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="40">
@@ -946,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cernos_prime_set</t>
+          <t>pangolin_prime_set</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>67.40000000000001</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="41">
@@ -959,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>latron_prime_set</t>
+          <t>corinth_prime_set</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31.1</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="42">
@@ -972,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>paris_prime_set</t>
+          <t>boar_prime_set</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10.5</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -985,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rubico_prime_set</t>
+          <t>boltor_prime_set</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>68.90000000000001</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -998,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>soma_prime_set</t>
+          <t>braton_prime_set</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>44</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>stradavar_prime_set</t>
+          <t>burston_prime_set</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="46">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sybaris_prime_set</t>
+          <t>cernos_prime_set</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>39.2</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tiberon_prime_set</t>
+          <t>latron_prime_set</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>53.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="48">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tigris_prime_set</t>
+          <t>paris_prime_set</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>49</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vectis_prime_set</t>
+          <t>rubico_prime_set</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>121.8</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>zhuge_prime_set</t>
+          <t>soma_prime_set</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="51">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>akbolto_prime_set</t>
+          <t>stradavar_prime_set</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>72.3</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="52">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>akbronco_prime_set</t>
+          <t>sybaris_prime_set</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16.7</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="53">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>akjagara_prime_set</t>
+          <t>tiberon_prime_set</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>42.9</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="54">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>aklex_prime_set</t>
+          <t>tigris_prime_set</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>73.3</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="55">
@@ -1141,11 +1141,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>aksomati_prime_set</t>
+          <t>vectis_prime_set</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>62.9</v>
+        <v>128.3</v>
       </c>
     </row>
     <row r="56">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>akstiletto_prime_set</t>
+          <t>zhuge_prime_set</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>101.7</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="57">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>akvasto_prime_set</t>
+          <t>akbolto_prime_set</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>106.9</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="58">
@@ -1180,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ballistica_prime_set</t>
+          <t>akbronco_prime_set</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>42.9</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="59">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bronco_prime_set</t>
+          <t>akjagara_prime_set</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13.6</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="60">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>euphona_prime_set</t>
+          <t>aklex_prime_set</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>80.59999999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hikou_prime_set</t>
+          <t>aksomati_prime_set</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>71.3</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="62">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lex_prime_set</t>
+          <t>akstiletto_prime_set</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.9</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="63">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pyrana_prime_set</t>
+          <t>akvasto_prime_set</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>47.7</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sicarus_prime_set</t>
+          <t>ballistica_prime_set</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23.8</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="65">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>spira_prime_set</t>
+          <t>bronco_prime_set</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>144.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="66">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>vasto_prime_set</t>
+          <t>euphona_prime_set</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>23.9</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ankyros_prime_set</t>
+          <t>hikou_prime_set</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>110.2</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="68">
@@ -1310,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dakra_prime_set</t>
+          <t>lex_prime_set</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>49.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="69">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>destreza_prime_set</t>
+          <t>pyrana_prime_set</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>36.4</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="70">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dual_kamas_prime_set</t>
+          <t>sicarus_prime_set</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>82.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="71">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fang_prime_set</t>
+          <t>spira_prime_set</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.699999999999999</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fragor_prime_set</t>
+          <t>vasto_prime_set</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>38.2</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>galatine_prime_set</t>
+          <t>ankyros_prime_set</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>glaive_prime_set</t>
+          <t>dakra_prime_set</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="75">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gram_prime_set</t>
+          <t>destreza_prime_set</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>41.5</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="76">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>kogake_prime_set</t>
+          <t>dual_kamas_prime_set</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>74.3</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="77">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>kronen_prime_set</t>
+          <t>fang_prime_set</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>188.3</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>nami_skyla_prime_set</t>
+          <t>fragor_prime_set</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>140.2</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>nikana_prime_set</t>
+          <t>galatine_prime_set</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>101</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="80">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ninkondi_prime_set</t>
+          <t>glaive_prime_set</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>orthos_prime_set</t>
+          <t>gram_prime_set</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>reaper_prime_set</t>
+          <t>kogake_prime_set</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>29.2</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="83">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>redeemer_prime_set</t>
+          <t>kronen_prime_set</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>28.6</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="84">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>scindo_prime_set</t>
+          <t>nami_skyla_prime_set</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>65.3</v>
+        <v>135.9</v>
       </c>
     </row>
     <row r="85">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>silva_and_aegis_prime_set</t>
+          <t>nikana_prime_set</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>46.5</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="86">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tekko_prime_set</t>
+          <t>ninkondi_prime_set</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tipedo_prime_set</t>
+          <t>orthos_prime_set</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34.9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>venka_prime_set</t>
+          <t>reaper_prime_set</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>172.9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tipedo_prime_set</t>
+          <t>redeemer_prime_set</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>shedu_set</t>
+          <t>scindo_prime_set</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>74.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>braton_vandal_set</t>
+          <t>silva_and_aegis_prime_set</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>269.3</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="92">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dera_vandal_set</t>
+          <t>tekko_prime_set</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>38.4</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>karak_wraith_set</t>
+          <t>tipedo_prime_set</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>58.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="94">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>gorgon_wraith_set</t>
+          <t>venka_prime_set</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>8.6</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="95">
@@ -1661,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>latron_wraith_set</t>
+          <t>tipedo_prime_set</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>55</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>strun_wraith_set</t>
+          <t>shedu_set</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>54.6</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>snipetron_vandal_set</t>
+          <t>braton_vandal_set</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>50.3</v>
+        <v>188.9</v>
       </c>
     </row>
     <row r="98">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>lato_vandal_set</t>
+          <t>dera_vandal_set</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>155.2</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="99">
@@ -1713,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>twin_vipers_wraith_set</t>
+          <t>karak_wraith_set</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>49.7</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="100">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>furax_wraith_set</t>
+          <t>gorgon_wraith_set</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>20.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="101">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>pathocyst_set</t>
+          <t>latron_wraith_set</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>48.4</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="102">
@@ -1752,11 +1752,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>imperator_vandal_set</t>
+          <t>strun_wraith_set</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>65.2</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="103">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>panthera_prime_set</t>
+          <t>snipetron_vandal_set</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>63</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="104">
@@ -1778,11 +1778,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>karyst_prime_set</t>
+          <t>lato_vandal_set</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>38</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="105">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rakta_cernos</t>
+          <t>twin_vipers_wraith_set</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>28.1</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="106">
@@ -1804,11 +1804,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vengeful_shockwave_(kuva_lich_ephemera)</t>
+          <t>furax_wraith_set</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>122.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="107">
@@ -1817,11 +1817,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vengeful_flame_(kuva_lich_ephemera)</t>
+          <t>pathocyst_set</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>88</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="108">
@@ -1830,11 +1830,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vengeful_chill_(kuva_lich_ephemera)</t>
+          <t>imperator_vandal_set</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>151</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="109">
@@ -1843,11 +1843,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vengeful_charge_(kuva_lich_ephemera)</t>
+          <t>panthera_prime_set</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>191.5</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="110">
@@ -1856,11 +1856,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vengeful_toxin_(kuva_lich_ephemera)</t>
+          <t>karyst_prime_set</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>75.40000000000001</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="111">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>vengeful_pull_(kuva_lich_ephemera)</t>
+          <t>rakta_cernos</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>107.5</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="112">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vengeful_trickster_(kuva_lich_ephemera)</t>
+          <t>prisma_shade</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>116.5</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -1895,11 +1895,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vulkar_wraith</t>
+          <t>prisma_gorgon</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>77.5</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>sancti_tigris</t>
+          <t>vengeful_shockwave_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1921,11 +1921,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vaykor_hek</t>
+          <t>vengeful_flame_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>26.2</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="116">
@@ -1934,11 +1934,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>synoid_simulor</t>
+          <t>vengeful_chill_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1947,11 +1947,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>secura_penta</t>
+          <t>vengeful_charge_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>37.2</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
@@ -1960,11 +1960,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>quanta_vandal</t>
+          <t>vengeful_toxin_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>69.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>prisma_grinlok</t>
+          <t>vengeful_pull_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1986,11 +1986,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>supra_vandal</t>
+          <t>vengeful_trickster_(kuva_lich_ephemera)</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>52.7</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="121">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>prisma_tetra</t>
+          <t>vulkar_wraith</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>48.8</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="122">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>prisma_grakata</t>
+          <t>sancti_tigris</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>90.8</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="123">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>viper_wraith</t>
+          <t>vaykor_hek</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>vaykor_marelok</t>
+          <t>synoid_simulor</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>24</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="125">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>synoid_gammacor</t>
+          <t>secura_penta</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>32</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="126">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>rakta_ballistica</t>
+          <t>quanta_vandal</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>29.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>mara_detron</t>
+          <t>prisma_grinlok</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>113</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="128">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>prisma_angstrum</t>
+          <t>supra_vandal</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="129">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>secura_dual_cestra</t>
+          <t>prisma_tetra</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>35.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>prisma_twin_gremlins</t>
+          <t>prisma_grakata</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>95.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>telos_akbolto</t>
+          <t>viper_wraith</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>40.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="132">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>sancti_castanas</t>
+          <t>vaykor_marelok</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>33.8</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="133">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>prisma_skana</t>
+          <t>synoid_gammacor</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>61.4</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="134">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>prisma_dual_cleavers</t>
+          <t>rakta_ballistica</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>86.8</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="135">
@@ -2181,11 +2181,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>machete_wraith</t>
+          <t>mara_detron</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>67.8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>prova_vandal</t>
+          <t>prisma_angstrum</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rakta_dark_dagger</t>
+          <t>secura_dual_cestra</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="138">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>prisma_obex</t>
+          <t>prisma_twin_gremlins</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>93</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="139">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>vaykor_sydon</t>
+          <t>telos_akbolto</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>28.5</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="140">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>synoid_heliocor</t>
+          <t>sancti_castanas</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="141">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>sancti_magistar</t>
+          <t>prisma_skana</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>35.3</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="142">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>telos_boltor</t>
+          <t>prisma_dual_cleavers</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>34.1</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="143">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>secura_lecta</t>
+          <t>machete_wraith</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>37.9</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="144">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>aerodynamic</t>
+          <t>prova_vandal</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>17.7</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="145">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>brief_respite</t>
+          <t>rakta_dark_dagger</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>12.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>combat_discipline</t>
+          <t>prisma_obex</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3.1</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="147">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>corrosive_projection</t>
+          <t>vaykor_sydon</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>19.4</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="148">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dead_eye</t>
+          <t>synoid_heliocor</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>15.6</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="149">
@@ -2363,11 +2363,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>empowered_blades</t>
+          <t>sancti_magistar</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="150">
@@ -2376,11 +2376,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>enemy_radar</t>
+          <t>telos_boltor</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>24.8</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="151">
@@ -2389,11 +2389,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>energy_siphon</t>
+          <t>secura_lecta</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>21.9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>growing_power</t>
+          <t>aerodynamic</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>33.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="153">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>infested_impedance</t>
+          <t>brief_respite</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>loot_detector</t>
+          <t>combat_discipline</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>27.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="155">
@@ -2441,11 +2441,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>mecha_empowered</t>
+          <t>corrosive_projection</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4.1</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="156">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>melee_guidance</t>
+          <t>dead_eye</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="157">
@@ -2467,11 +2467,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>physique</t>
+          <t>empowered_blades</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="158">
@@ -2480,11 +2480,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>pistol_amp</t>
+          <t>enemy_radar</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5.8</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="159">
@@ -2493,11 +2493,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>pistol_scavenger</t>
+          <t>energy_siphon</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="160">
@@ -2506,11 +2506,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>power_donation</t>
+          <t>growing_power</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>16.6</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="161">
@@ -2519,11 +2519,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>rejuvenation</t>
+          <t>infested_impedance</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>27.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2532,11 +2532,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>rifle_amp</t>
+          <t>loot_detector</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>17.2</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="163">
@@ -2545,11 +2545,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>rifle_scavenger</t>
+          <t>mecha_empowered</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -2558,11 +2558,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>shepherd</t>
+          <t>melee_guidance</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2571,11 +2571,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>shield_disruption</t>
+          <t>physique</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>18.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="166">
@@ -2584,11 +2584,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>shotgun_amp</t>
+          <t>pistol_amp</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="167">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>shotgun_scavenger</t>
+          <t>pistol_scavenger</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2610,11 +2610,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sniper_scavenger</t>
+          <t>power_donation</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="169">
@@ -2623,11 +2623,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>speed_holster</t>
+          <t>rejuvenation</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>25.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="170">
@@ -2636,11 +2636,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sprint_boost</t>
+          <t>rifle_amp</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="171">
@@ -2649,11 +2649,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>stand_united</t>
+          <t>rifle_scavenger</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>steel_charge</t>
+          <t>shepherd</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>29.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2675,11 +2675,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>swift_momentum</t>
+          <t>shield_disruption</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>10.9</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="174">
@@ -2688,11 +2688,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>toxin_resistance</t>
+          <t>shotgun_amp</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="175">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>shotgun_scavenger</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>saxum_carapace</t>
+          <t>sniper_scavenger</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>24.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -2727,11 +2727,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>carnis_carapace</t>
+          <t>speed_holster</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="178">
@@ -2740,11 +2740,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>jugulus_carapace</t>
+          <t>sprint_boost</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>78.40000000000001</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="179">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>necramech_blitz</t>
+          <t>stand_united</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="180">
@@ -2766,11 +2766,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>necramech_continuity</t>
+          <t>steel_charge</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>18.9</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="181">
@@ -2779,11 +2779,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>necramech_fury</t>
+          <t>swift_momentum</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -2792,11 +2792,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>necramech_intensify</t>
+          <t>toxin_resistance</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>necramech_pressure_point</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="184">
@@ -2818,11 +2818,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>necramech_reach</t>
+          <t>medi_ray</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>9.1</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="185">
@@ -2831,11 +2831,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>necramech_redirection</t>
+          <t>sanctuary</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -2844,11 +2844,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>necramech_refuel</t>
+          <t>primed_rubedo_lined_barrel</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="187">
@@ -2857,11 +2857,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>necramech_seismic_wave</t>
+          <t>animal_instinct</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>154.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="188">
@@ -2870,11 +2870,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>necramech_slipstream</t>
+          <t>link_armor</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>13.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189">
@@ -2883,11 +2883,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>necramech_steel_fiber</t>
+          <t>link_health</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>27.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -2896,11 +2896,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>necramech_streamline</t>
+          <t>link_shields</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>289</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="191">
@@ -2909,11 +2909,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>necramech_thrusters</t>
+          <t>primed_animal_instinct</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>354.5</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="192">
@@ -2922,11 +2922,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>necramech_vitality</t>
+          <t>primed_pack_leader</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>necramech_stretch</t>
+          <t>odomedic</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>20.6</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="194">
@@ -2948,11 +2948,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>aero_vantage</t>
+          <t>primed_regen</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4.4</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="195">
@@ -2961,11 +2961,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>agility_drift</t>
+          <t>sacrifice</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4.1</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="196">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>armored_agility</t>
+          <t>synth_deconstruct</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="197">
@@ -2987,11 +2987,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>augur_accord</t>
+          <t>synth_fiber</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4.3</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="198">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>augur_message</t>
+          <t>bite</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="199">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>augur_reach</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>17.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -3026,11 +3026,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>augur_secrets</t>
+          <t>flame_gland</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>26.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>aviator</t>
+          <t>frost_jaw</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>blind_rage</t>
+          <t>hunter_command</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>15.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="203">
@@ -3065,11 +3065,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>coaction_drift</t>
+          <t>hunter_recovery</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="204">
@@ -3078,11 +3078,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>constitution</t>
+          <t>hunter_synergy</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>17.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="205">
@@ -3091,11 +3091,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>continuity</t>
+          <t>maul</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="206">
@@ -3104,11 +3104,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>cunning_drift</t>
+          <t>shock_collar</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>9.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="207">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>endurance_drift</t>
+          <t>venom_teeth</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3.3</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="208">
@@ -3130,11 +3130,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>enemy_sense</t>
+          <t>mecha_overdrive</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="209">
@@ -3143,11 +3143,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>energy_conversion</t>
+          <t>mecha_recharge</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>48.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="210">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>equilibrium</t>
+          <t>tek_assault</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>11.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="211">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>firewalker</t>
+          <t>tek_enhance</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="212">
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>fleeting_expertise</t>
+          <t>auxiliary_power</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>17.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="213">
@@ -3195,11 +3195,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>cold_snap</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="214">
@@ -3208,11 +3208,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>fortitude</t>
+          <t>efficient_transferral</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="215">
@@ -3221,11 +3221,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>gladiator_aegis</t>
+          <t>energy_amplifier</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4.1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
@@ -3234,11 +3234,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>gladiator_finesse</t>
+          <t>hyperion_thrusters</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -3247,11 +3247,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>gladiator_resolve</t>
+          <t>kinetic_diversion</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>handspring</t>
+          <t>morphic_transformer</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="219">
@@ -3273,11 +3273,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>health_conversion</t>
+          <t>primed_morphic_transformer</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>51.6</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="220">
@@ -3286,11 +3286,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>hunter_adrenaline</t>
+          <t>system_reroute</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ice_spring</t>
+          <t>ammo_chain</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="222">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>archgun_ace</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="223">
@@ -3325,11 +3325,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>lightning_dash</t>
+          <t>automatic_trigger</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="224">
@@ -3338,11 +3338,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>master_thief</t>
+          <t>charged_bullets</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="225">
@@ -3351,11 +3351,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>mecha_pulse</t>
+          <t>combustion_rounds</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="226">
@@ -3364,11 +3364,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>motus_signal</t>
+          <t>contamination_casing</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="227">
@@ -3377,11 +3377,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>narrow_minded</t>
+          <t>critical_focus</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>15.7</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="228">
@@ -3390,11 +3390,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>natural_talent</t>
+          <t>deadly_efficiency</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -3403,11 +3403,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>overextended</t>
+          <t>dual_rounds</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>15.3</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="230">
@@ -3416,11 +3416,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>pain_threshold</t>
+          <t>electrified_barrel</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="231">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>power_drift</t>
+          <t>hollowed_bullets</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>primed_continuity</t>
+          <t>hypothermic_shell</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>83.40000000000001</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="233">
@@ -3455,11 +3455,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>primed_flow</t>
+          <t>magma_chamber</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>83.90000000000001</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="234">
@@ -3468,11 +3468,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>rolling_guard</t>
+          <t>marked_target</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>15.2</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="235">
@@ -3481,11 +3481,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>rush</t>
+          <t>quick_reload</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3494,11 +3494,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>speed_drift</t>
+          <t>venomous_clip</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>19.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="237">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>stealth_drift</t>
+          <t>zodiac_shred</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -3520,11 +3520,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>strain_consume</t>
+          <t>astral_slash</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -3533,11 +3533,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>streamline</t>
+          <t>blazing_steel</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -3546,11 +3546,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>streamlined_form</t>
+          <t>cryo_coating</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3.9</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="241">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>infectious_injection</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="242">
@@ -3572,11 +3572,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>sure_footed</t>
+          <t>ion_infusion</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>5.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="243">
@@ -3585,11 +3585,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>synth_reflex</t>
+          <t>poisonous_sting</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="244">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>tek_collateral</t>
+          <t>searing_steel</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>toxic_flight</t>
+          <t>saxum_carapace</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1.8</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="246">
@@ -3624,11 +3624,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>transient_fortitude</t>
+          <t>carnis_carapace</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>17.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="247">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>vigilante_pursuit</t>
+          <t>jugulus_carapace</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>vigilante_vigor</t>
+          <t>necramech_blitz</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -3663,11 +3663,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>vigor</t>
+          <t>necramech_continuity</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="250">
@@ -3676,11 +3676,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>vigorous_swap</t>
+          <t>necramech_fury</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>17.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="251">
@@ -3689,11 +3689,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>arcane_consequence</t>
+          <t>necramech_intensify</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="252">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>arcane_ice</t>
+          <t>necramech_pressure_point</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="253">
@@ -3715,11 +3715,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>arcane_momentum</t>
+          <t>necramech_reach</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="254">
@@ -3728,11 +3728,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>arcane_nullifier</t>
+          <t>necramech_redirection</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="255">
@@ -3741,11 +3741,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>arcane_tempo</t>
+          <t>necramech_refuel</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>arcane_warmth</t>
+          <t>necramech_seismic_wave</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="257">
@@ -3767,11 +3767,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>arcane_deflection</t>
+          <t>necramech_slipstream</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -3780,11 +3780,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>arcane_healing</t>
+          <t>necramech_steel_fiber</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="259">
@@ -3793,11 +3793,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>arcane_resistance</t>
+          <t>necramech_streamline</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4.9</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="260">
@@ -3806,11 +3806,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>arcane_victory</t>
+          <t>necramech_thrusters</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4.3</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="261">
@@ -3819,11 +3819,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>arcane_acceleration</t>
+          <t>necramech_vitality</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4.7</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="262">
@@ -3832,11 +3832,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>arcane_agility</t>
+          <t>necramech_stretch</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="263">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>arcane_awakening</t>
+          <t>aero_vantage</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="264">
@@ -3858,11 +3858,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>arcane_eruption</t>
+          <t>agility_drift</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="265">
@@ -3871,11 +3871,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>arcane_guardian</t>
+          <t>armored_agility</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>18.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="266">
@@ -3884,11 +3884,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>arcane_phantasm</t>
+          <t>augur_accord</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="267">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>arcane_strike</t>
+          <t>augur_message</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="268">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>arcane_aegis</t>
+          <t>augur_reach</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>13.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="269">
@@ -3923,11 +3923,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>arcane_precision</t>
+          <t>augur_secrets</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>11.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270">
@@ -3936,11 +3936,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>arcane_pulse</t>
+          <t>aviator</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>arcane_ultimatum</t>
+          <t>blind_rage</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="272">
@@ -3962,11 +3962,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>arcane_trickery</t>
+          <t>coaction_drift</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>arcane_velocity</t>
+          <t>constitution</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>5.9</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="274">
@@ -3988,11 +3988,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>arcane_arachne</t>
+          <t>continuity</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="275">
@@ -4001,11 +4001,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>arcane_avenger</t>
+          <t>cunning_drift</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="276">
@@ -4014,11 +4014,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>arcane_fury</t>
+          <t>endurance_drift</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>22.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="277">
@@ -4027,11 +4027,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>arcane_rage</t>
+          <t>enemy_sense</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="278">
@@ -4040,11 +4040,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>arcane_barrier</t>
+          <t>energy_conversion</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>12.5</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="279">
@@ -4053,11 +4053,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>arcane_energize</t>
+          <t>equilibrium</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>67.59999999999999</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="280">
@@ -4066,11 +4066,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>arcane_grace</t>
+          <t>firewalker</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>43.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4079,11 +4079,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>arcane_blade_charger</t>
+          <t>fleeting_expertise</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="282">
@@ -4092,11 +4092,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>arcane_bodyguard</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="283">
@@ -4105,11 +4105,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>arcane_pistoleer</t>
+          <t>fortitude</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4118,11 +4118,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>arcane_primary_charger</t>
+          <t>gladiator_aegis</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285">
@@ -4131,11 +4131,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>arcane_tanker</t>
+          <t>gladiator_finesse</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>5.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="286">
@@ -4144,11 +4144,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>magus_husk</t>
+          <t>gladiator_resolve</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="287">
@@ -4157,11 +4157,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>magus_vigor</t>
+          <t>handspring</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="288">
@@ -4170,11 +4170,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>magus_cadence</t>
+          <t>health_conversion</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="289">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>magus_cloud</t>
+          <t>hunter_adrenaline</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="290">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>magus_replenish</t>
+          <t>ice_spring</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>magus_elevate</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="292">
@@ -4222,11 +4222,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>magus_nourish</t>
+          <t>lightning_dash</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="293">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>magus_overload</t>
+          <t>master_thief</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4248,11 +4248,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>magus_glitch</t>
+          <t>mecha_pulse</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>11.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="295">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>magus_revert</t>
+          <t>motus_signal</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4274,11 +4274,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>magus_lockdown</t>
+          <t>narrow_minded</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>8.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="297">
@@ -4287,11 +4287,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>magus_destruct</t>
+          <t>natural_talent</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="298">
@@ -4300,11 +4300,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>magus_anomaly</t>
+          <t>overextended</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="299">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>magus_melt</t>
+          <t>pain_threshold</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4326,11 +4326,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>magus_accelerant</t>
+          <t>power_drift</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="301">
@@ -4339,11 +4339,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>magus_repair</t>
+          <t>primed_continuity</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="302">
@@ -4352,11 +4352,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>virtuos_null</t>
+          <t>primed_flow</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="303">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>virtuos_tempo</t>
+          <t>rolling_guard</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="304">
@@ -4378,11 +4378,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>virtuos_fury</t>
+          <t>rush</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="305">
@@ -4391,11 +4391,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>virtuos_strike</t>
+          <t>speed_drift</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4.6</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="306">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>virtuos_ghost</t>
+          <t>stealth_drift</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -4417,11 +4417,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>virtuos_shadow</t>
+          <t>strain_consume</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -4430,11 +4430,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>virtuos_forge</t>
+          <t>streamline</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="309">
@@ -4443,11 +4443,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>virtuos_trojan</t>
+          <t>streamlined_form</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="310">
@@ -4456,11 +4456,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>virtuos_surge</t>
+          <t>stretch</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="311">
@@ -4469,11 +4469,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>pax_bolt</t>
+          <t>sure_footed</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="312">
@@ -4482,11 +4482,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>pax_seeker</t>
+          <t>synth_reflex</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="313">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>pax_soar</t>
+          <t>tek_collateral</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>exodia_triumph</t>
+          <t>toxic_flight</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -4521,11 +4521,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>exodia_valor</t>
+          <t>transient_fortitude</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="316">
@@ -4534,11 +4534,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>exodia_brave</t>
+          <t>vigilante_pursuit</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="317">
@@ -4547,11 +4547,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>exodia_force</t>
+          <t>vigilante_vigor</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -4560,11 +4560,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>exodia_hunt</t>
+          <t>vigor</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>10.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="319">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>exodia_might</t>
+          <t>vigorous_swap</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>exodia_contagion</t>
+          <t>arcane_consequence</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="321">
@@ -4599,11 +4599,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>exodia_epidemic</t>
+          <t>arcane_ice</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>aero_periphery</t>
+          <t>arcane_momentum</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -4625,11 +4625,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>hunter_munitions</t>
+          <t>arcane_nullifier</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="324">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>hunter_track</t>
+          <t>arcane_tempo</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -4651,11 +4651,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>vigilante_armaments</t>
+          <t>arcane_warmth</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -4664,11 +4664,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>vigilante_fervor</t>
+          <t>arcane_deflection</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -4677,11 +4677,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>vigilante_offense</t>
+          <t>arcane_healing</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="328">
@@ -4690,11 +4690,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>vigilante_supplies</t>
+          <t>arcane_resistance</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>18.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="329">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>adhesive_blast</t>
+          <t>arcane_victory</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="330">
@@ -4716,11 +4716,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>agile_aim</t>
+          <t>arcane_acceleration</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="331">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ammo_drum</t>
+          <t>arcane_agility</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>argon_scope</t>
+          <t>arcane_awakening</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="333">
@@ -4755,11 +4755,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>bladed_rounds</t>
+          <t>arcane_eruption</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -4768,11 +4768,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>catalyzer_link</t>
+          <t>arcane_guardian</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="335">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>cautious_shot</t>
+          <t>arcane_phantasm</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>continuous_misery</t>
+          <t>arcane_strike</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="337">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>crash_course</t>
+          <t>arcane_aegis</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="338">
@@ -4820,11 +4820,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>critical_delay</t>
+          <t>arcane_precision</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3.5</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="339">
@@ -4833,11 +4833,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>cryo_rounds</t>
+          <t>arcane_pulse</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="340">
@@ -4846,11 +4846,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>fanged_fusillade</t>
+          <t>arcane_ultimatum</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="341">
@@ -4859,11 +4859,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>firestorm</t>
+          <t>arcane_trickery</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="342">
@@ -4872,11 +4872,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>hammer_shot</t>
+          <t>arcane_velocity</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>47.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="343">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>heavy_caliber</t>
+          <t>arcane_arachne</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -4898,11 +4898,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>hellfire</t>
+          <t>arcane_avenger</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="345">
@@ -4911,11 +4911,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>high_voltage</t>
+          <t>arcane_fury</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>53.4</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="346">
@@ -4924,11 +4924,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>arcane_rage</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="347">
@@ -4937,11 +4937,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>infected_clip</t>
+          <t>arcane_barrier</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348">
@@ -4950,11 +4950,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>malignant_force</t>
+          <t>arcane_energize</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5.6</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="349">
@@ -4963,11 +4963,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>metal_auger</t>
+          <t>arcane_grace</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1.6</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="350">
@@ -4976,11 +4976,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>piercing_caliber</t>
+          <t>arcane_blade_charger</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>15.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="351">
@@ -4989,11 +4989,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>point_strike</t>
+          <t>arcane_bodyguard</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="352">
@@ -5002,11 +5002,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>primed_cryo_rounds</t>
+          <t>arcane_pistoleer</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>41.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="353">
@@ -5015,11 +5015,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>primed_fast_hands</t>
+          <t>arcane_primary_charger</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>85.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -5028,11 +5028,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>proton_jet</t>
+          <t>arcane_tanker</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="355">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>rifle_aptitude</t>
+          <t>magus_husk</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5054,11 +5054,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>rime_rounds</t>
+          <t>magus_vigor</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>19.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>serration</t>
+          <t>magus_cadence</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5080,11 +5080,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>magus_cloud</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>sinister_reach</t>
+          <t>magus_replenish</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>speed_trigger</t>
+          <t>magus_elevate</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="361">
@@ -5119,11 +5119,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>split_chamber</t>
+          <t>magus_nourish</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="362">
@@ -5132,11 +5132,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>stabilizer</t>
+          <t>magus_overload</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>stormbringer</t>
+          <t>magus_glitch</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5158,11 +5158,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>terminal_velocity</t>
+          <t>magus_revert</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5171,11 +5171,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>thermite_rounds</t>
+          <t>magus_lockdown</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366">
@@ -5184,11 +5184,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>twitch</t>
+          <t>magus_destruct</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -5197,11 +5197,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>vile_acceleration</t>
+          <t>magus_anomaly</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -5210,11 +5210,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>vile_precision</t>
+          <t>magus_melt</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -5223,11 +5223,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>vital_sense</t>
+          <t>magus_accelerant</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -5236,11 +5236,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>wildfire</t>
+          <t>magus_repair</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>deft_tempo</t>
+          <t>virtuos_null</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -5262,11 +5262,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>guided_ordnance</t>
+          <t>virtuos_tempo</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>gun_glide</t>
+          <t>virtuos_fury</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>hydraulic_gauge</t>
+          <t>virtuos_strike</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="375">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>loose_hatch</t>
+          <t>virtuos_ghost</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -5314,11 +5314,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>maximum_capacity</t>
+          <t>virtuos_shadow</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -5327,11 +5327,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>rifle_ammo_mutation</t>
+          <t>virtuos_forge</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5340,11 +5340,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>primed_rifle_ammo_mutation</t>
+          <t>virtuos_trojan</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>79.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -5353,11 +5353,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>tactical_reload</t>
+          <t>virtuos_surge</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5366,11 +5366,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>tainted_mag</t>
+          <t>pax_bolt</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>accelerated_blast</t>
+          <t>pax_seeker</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ammo_stock</t>
+          <t>pax_soar</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>blaze</t>
+          <t>exodia_triumph</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>44.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>blunderbuss</t>
+          <t>exodia_valor</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>breach_loader</t>
+          <t>exodia_brave</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -5444,11 +5444,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>burdened_magazine</t>
+          <t>exodia_force</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="387">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>charged_shell</t>
+          <t>exodia_hunt</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>chilling_grasp</t>
+          <t>exodia_might</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -5483,11 +5483,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>chilling_reload</t>
+          <t>exodia_contagion</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390">
@@ -5496,11 +5496,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>contagious_spread</t>
+          <t>exodia_epidemic</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>critical_deceleration</t>
+          <t>aero_periphery</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -5522,11 +5522,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>fatal_acceleration</t>
+          <t>primed_firestorm</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="393">
@@ -5535,11 +5535,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>frail_momentum</t>
+          <t>primed_fulmination</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3.7</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="394">
@@ -5548,11 +5548,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>frigid_blast</t>
+          <t>hunter_munitions</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="395">
@@ -5561,11 +5561,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>full_contact</t>
+          <t>hunter_track</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -5574,11 +5574,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>incendiary_coat</t>
+          <t>vigilante_armaments</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="397">
@@ -5587,11 +5587,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>laser_sight</t>
+          <t>vigilante_fervor</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
@@ -5600,11 +5600,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>narrow_barrel</t>
+          <t>vigilante_offense</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="399">
@@ -5613,11 +5613,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>point_blank</t>
+          <t>vigilante_supplies</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="400">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>primed_cleanse_corpus</t>
+          <t>adhesive_blast</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -5639,11 +5639,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>primed_cleanse_corrupted</t>
+          <t>agile_aim</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="402">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>primed_cleanse_grineer</t>
+          <t>ammo_drum</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -5665,11 +5665,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>primed_cleanse_infested</t>
+          <t>argon_scope</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="404">
@@ -5678,11 +5678,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>primed_charged_shell</t>
+          <t>bladed_rounds</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>31.4</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="405">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>primed_point_blank</t>
+          <t>catalyzer_link</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>53.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>primed_ravage</t>
+          <t>cautious_shot</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>29.7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>primed_shotgun_ammo_mutation</t>
+          <t>continuous_misery</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -5730,11 +5730,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ravage</t>
+          <t>crash_course</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="409">
@@ -5743,11 +5743,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>repeater_clip</t>
+          <t>critical_delay</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -5756,11 +5756,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>scattering_inferno</t>
+          <t>cryo_rounds</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -5769,11 +5769,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>seeking_force</t>
+          <t>fanged_fusillade</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="412">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>seeking_fury</t>
+          <t>firestorm</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -5795,11 +5795,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>shell_shock</t>
+          <t>hammer_shot</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>32</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="414">
@@ -5808,11 +5808,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>shotgun_ammo_mutation</t>
+          <t>heavy_caliber</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="415">
@@ -5821,11 +5821,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>shotgun_savvy</t>
+          <t>hellfire</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="416">
@@ -5834,11 +5834,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>shotgun_spazz</t>
+          <t>high_voltage</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="417">
@@ -5847,11 +5847,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>shrapnel_shot</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="418">
@@ -5860,11 +5860,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>silent_battery</t>
+          <t>infected_clip</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="419">
@@ -5873,11 +5873,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>snap_shot</t>
+          <t>malignant_force</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="420">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>soft_hands</t>
+          <t>metal_auger</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -5899,11 +5899,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>sweeping_serration</t>
+          <t>piercing_caliber</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>8.699999999999999</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="422">
@@ -5912,11 +5912,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>tainted_shell</t>
+          <t>point_strike</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>toxic_barrage</t>
+          <t>primed_cryo_rounds</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3.9</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="424">
@@ -5938,11 +5938,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>vicious_spread</t>
+          <t>primed_fast_hands</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>4.6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="425">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>aero_agility</t>
+          <t>proton_jet</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>charged_chamber</t>
+          <t>rifle_aptitude</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -5977,11 +5977,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>depleted_reload</t>
+          <t>rime_rounds</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4.3</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="428">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>emergent_aftermath</t>
+          <t>serration</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>harkonar_scope</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430">
@@ -6016,11 +6016,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>primed_chamber</t>
+          <t>sinister_reach</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>453.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -6029,11 +6029,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>sharpshooter</t>
+          <t>speed_trigger</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="432">
@@ -6042,11 +6042,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>sniper_ammo_mutation</t>
+          <t>split_chamber</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="433">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>target_acquired</t>
+          <t>stabilizer</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="434">
@@ -6068,11 +6068,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>arrow_mutation</t>
+          <t>stormbringer</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -6081,11 +6081,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>split_flights</t>
+          <t>terminal_velocity</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>36.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -6094,11 +6094,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>anemic_agility</t>
+          <t>thermite_rounds</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="437">
@@ -6107,11 +6107,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>augur_pact</t>
+          <t>twitch</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="438">
@@ -6120,11 +6120,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>augur_seeker</t>
+          <t>vile_acceleration</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="439">
@@ -6133,11 +6133,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>barrel_diffusion</t>
+          <t>vile_precision</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -6146,11 +6146,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>vital_sense</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>9.300000000000001</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="441">
@@ -6159,11 +6159,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>concealed_explosives</t>
+          <t>wildfire</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="442">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>convulsion</t>
+          <t>guided_ordnance</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -6185,11 +6185,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>creeping_bullseye</t>
+          <t>gun_glide</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="444">
@@ -6198,11 +6198,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>deep_freeze</t>
+          <t>rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="445">
@@ -6211,11 +6211,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>eject_magazine</t>
+          <t>primed_rifle_ammo_mutation</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>12.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="446">
@@ -6224,11 +6224,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>saxum_spittle</t>
+          <t>tactical_reload</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>50.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="447">
@@ -6237,11 +6237,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>carnis_stinger</t>
+          <t>tainted_mag</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -6250,11 +6250,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>jugulus_spines</t>
+          <t>accelerated_blast</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>53.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="449">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>embedded_catalyzer</t>
+          <t>ammo_stock</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="450">
@@ -6276,11 +6276,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>frostbite</t>
+          <t>blaze</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>8.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="451">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>fulmination</t>
+          <t>blunderbuss</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>gunslinger</t>
+          <t>breach_loader</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>heated_charge</t>
+          <t>burdened_magazine</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>heavy_warhead</t>
+          <t>charged_shell</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -6341,11 +6341,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>hollow_point</t>
+          <t>chilling_grasp</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="456">
@@ -6354,11 +6354,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>hornet_strike</t>
+          <t>chilling_reload</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -6367,11 +6367,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>hydraulic_barrel</t>
+          <t>contagious_spread</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458">
@@ -6380,11 +6380,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>hydraulic_crosshairs</t>
+          <t>critical_deceleration</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="459">
@@ -6393,11 +6393,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ice_storm</t>
+          <t>fatal_acceleration</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="460">
@@ -6406,11 +6406,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>frail_momentum</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>55.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="461">
@@ -6419,11 +6419,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>lethal_torrent</t>
+          <t>frigid_blast</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>16.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="462">
@@ -6432,11 +6432,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>magnum_force</t>
+          <t>full_contact</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>maim</t>
+          <t>incendiary_coat</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="464">
@@ -6458,11 +6458,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>pathogen_rounds</t>
+          <t>laser_sight</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="465">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>pistol_ammo_mutation</t>
+          <t>narrow_barrel</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="466">
@@ -6484,11 +6484,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>pistol_gambit</t>
+          <t>point_blank</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -6497,11 +6497,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>pistol_pestilence</t>
+          <t>primed_cleanse_corpus</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>5.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="468">
@@ -6510,11 +6510,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>pressurized_magazine</t>
+          <t>primed_cleanse_corrupted</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3.9</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="469">
@@ -6523,11 +6523,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>primed_expel_corpus</t>
+          <t>primed_cleanse_grineer</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="470">
@@ -6536,11 +6536,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>primed_expel_corrupted</t>
+          <t>primed_cleanse_infested</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="471">
@@ -6549,11 +6549,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>primed_expel_grineer</t>
+          <t>primed_charged_shell</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>52.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="472">
@@ -6562,11 +6562,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>primed_expel_infested</t>
+          <t>primed_point_blank</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="473">
@@ -6575,11 +6575,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>primed_heated_charge</t>
+          <t>primed_ravage</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="474">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>primed_pistol_ammo_mutation</t>
+          <t>primed_shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>118.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>primed_pistol_gambit</t>
+          <t>ravage</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>84.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="476">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>primed_quickdraw</t>
+          <t>repeater_clip</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -6627,11 +6627,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>primed_slip_magazine</t>
+          <t>scattering_inferno</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="478">
@@ -6640,11 +6640,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>primed_target_cracker</t>
+          <t>seeking_force</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>45.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479">
@@ -6653,11 +6653,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>pummel</t>
+          <t>seeking_fury</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="480">
@@ -6666,11 +6666,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>reflex_draw</t>
+          <t>shell_shock</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>7.9</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="481">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ruinous_extension</t>
+          <t>shotgun_ammo_mutation</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="482">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>sharpened_bullets</t>
+          <t>shotgun_savvy</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>spry_sights</t>
+          <t>shotgun_spazz</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -6718,11 +6718,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>steady_hands</t>
+          <t>shrapnel_shot</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="485">
@@ -6731,11 +6731,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>strafing_slide</t>
+          <t>silent_battery</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="486">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>stunning_speed</t>
+          <t>snap_shot</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -6757,11 +6757,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>sure_shot</t>
+          <t>sweeping_serration</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="488">
@@ -6770,11 +6770,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>synth_charge</t>
+          <t>tainted_shell</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -6783,11 +6783,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>tainted_clip</t>
+          <t>toxic_barrage</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="490">
@@ -6796,11 +6796,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>target_cracker</t>
+          <t>vicious_spread</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="491">
@@ -6809,11 +6809,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>targeting_subsystem</t>
+          <t>aero_agility</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="492">
@@ -6822,11 +6822,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>auger_strike</t>
+          <t>charged_chamber</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -6835,11 +6835,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>berserker</t>
+          <t>depleted_reload</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>10.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="494">
@@ -6848,11 +6848,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>blood_rush</t>
+          <t>primed_chamber</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>11.7</v>
+        <v>468.5</v>
       </c>
     </row>
     <row r="495">
@@ -6861,11 +6861,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>body_count</t>
+          <t>sharpshooter</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>13.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="496">
@@ -6874,11 +6874,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>buzz_kill</t>
+          <t>sniper_ammo_mutation</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>collision_force</t>
+          <t>target_acquired</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>condition_overload</t>
+          <t>arrow_mutation</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="499">
@@ -6913,11 +6913,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>corrupt_charge</t>
+          <t>split_flights</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>9.1</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="500">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>covert_lethality</t>
+          <t>anemic_agility</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501">
@@ -6939,11 +6939,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>dispatch_overdrive</t>
+          <t>augur_pact</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="502">
@@ -6952,11 +6952,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>drifting_contact</t>
+          <t>augur_seeker</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="503">
@@ -6965,11 +6965,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>enduring_affliction</t>
+          <t>barrel_diffusion</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="504">
@@ -6978,11 +6978,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>enduring_strike</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="505">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>energy_channel</t>
+          <t>concealed_explosives</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>fever_strike</t>
+          <t>convulsion</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -7017,11 +7017,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>finishing_touch</t>
+          <t>creeping_bullseye</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="508">
@@ -7030,11 +7030,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>focus_energy</t>
+          <t>deep_freeze</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="509">
@@ -7043,11 +7043,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>fury</t>
+          <t>eject_magazine</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510">
@@ -7056,11 +7056,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>gladiator_might</t>
+          <t>saxum_spittle</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>18.6</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="511">
@@ -7069,11 +7069,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>gladiator_rush</t>
+          <t>carnis_stinger</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="512">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>gladiator_vice</t>
+          <t>jugulus_spines</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>18</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="513">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>guardian_derision</t>
+          <t>embedded_catalyzer</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -7108,11 +7108,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>healing_return</t>
+          <t>frostbite</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="515">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>heavy_trauma</t>
+          <t>fulmination</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -7134,11 +7134,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>jagged_edge</t>
+          <t>gunslinger</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="517">
@@ -7147,11 +7147,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>killing_blow</t>
+          <t>heated_charge</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="518">
@@ -7160,11 +7160,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>life_strike</t>
+          <t>heavy_warhead</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -7173,11 +7173,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>maiming_strike</t>
+          <t>hollow_point</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="520">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>molten_impact</t>
+          <t>hornet_strike</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="521">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>motus_impact</t>
+          <t>hydraulic_crosshairs</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="522">
@@ -7212,11 +7212,11 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>north_wind</t>
+          <t>ice_storm</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="523">
@@ -7225,11 +7225,11 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>organ_shatter</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="524">
@@ -7238,11 +7238,11 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>power_throw</t>
+          <t>lethal_torrent</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="525">
@@ -7251,11 +7251,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>pressure_point</t>
+          <t>magnum_force</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="526">
@@ -7264,11 +7264,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>primed_fever_strike</t>
+          <t>maim</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>43.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="527">
@@ -7277,11 +7277,11 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>primed_heavy_trauma</t>
+          <t>pathogen_rounds</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="528">
@@ -7290,11 +7290,11 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>primed_pressure_point</t>
+          <t>pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>92.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="529">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>primed_reach</t>
+          <t>pistol_gambit</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>71.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -7316,11 +7316,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>primed_smite_corpus</t>
+          <t>pistol_pestilence</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>142.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="531">
@@ -7329,11 +7329,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>primed_smite_corrupted</t>
+          <t>pressurized_magazine</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>primed_smite_grineer</t>
+          <t>primed_expel_corpus</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>149.8</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="533">
@@ -7355,11 +7355,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>primed_smite_infested</t>
+          <t>primed_expel_corrupted</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>108.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>proton_snap</t>
+          <t>primed_expel_grineer</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -7381,11 +7381,11 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>quickening</t>
+          <t>primed_expel_infested</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -7394,11 +7394,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>reflex_coil</t>
+          <t>primed_heated_charge</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="537">
@@ -7407,11 +7407,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>relentless_combination</t>
+          <t>primed_pistol_ammo_mutation</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="538">
@@ -7420,11 +7420,11 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>rending_strike</t>
+          <t>primed_pistol_gambit</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2.7</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="539">
@@ -7433,11 +7433,11 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>seismic_wave</t>
+          <t>primed_quickdraw</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>5.1</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="540">
@@ -7446,11 +7446,11 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>shattering_impact</t>
+          <t>primed_slip_magazine</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -7459,11 +7459,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>shocking_touch</t>
+          <t>primed_target_cracker</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="542">
@@ -7472,11 +7472,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>spoiled_strike</t>
+          <t>pummel</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>strain_infection</t>
+          <t>reflex_draw</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>sundering_strike</t>
+          <t>ruinous_extension</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="545">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>tek_gravity</t>
+          <t>sharpened_bullets</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -7524,11 +7524,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>true_punishment</t>
+          <t>spry_sights</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -7537,11 +7537,11 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>true_steel</t>
+          <t>steady_hands</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="548">
@@ -7550,11 +7550,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>vicious_frost</t>
+          <t>strafing_slide</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -7563,11 +7563,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>virulent_scourge</t>
+          <t>stunning_speed</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -7576,11 +7576,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>volcanic_edge</t>
+          <t>sure_shot</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>voltaic_strike</t>
+          <t>synth_charge</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -7602,11 +7602,11 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>weeping_wounds</t>
+          <t>tainted_clip</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>whirlwind</t>
+          <t>target_cracker</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -7628,11 +7628,11 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>saxum_thorax</t>
+          <t>targeting_subsystem</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -7641,11 +7641,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>carnis_mandible</t>
+          <t>auger_strike</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -7654,11 +7654,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>jugulus_barbs</t>
+          <t>berserker</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="557">
@@ -7667,11 +7667,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>astral_twilight</t>
+          <t>blood_rush</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>4.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="558">
@@ -7680,11 +7680,11 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>atlantis_vulcan</t>
+          <t>body_count</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="559">
@@ -7693,11 +7693,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>bleeding_willow</t>
+          <t>buzz_kill</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="560">
@@ -7706,11 +7706,11 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>blind_justice</t>
+          <t>collision_force</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="561">
@@ -7719,11 +7719,11 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>brutal_tide</t>
+          <t>condition_overload</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562">
@@ -7732,11 +7732,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>bullet_dance</t>
+          <t>corrupt_charge</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>50.2</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="563">
@@ -7745,11 +7745,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>burning_wasp</t>
+          <t>covert_lethality</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>carving_mantis</t>
+          <t>dispatch_overdrive</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -7771,11 +7771,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>clashing_forest</t>
+          <t>drifting_contact</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="566">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>cleaving_whirlwind</t>
+          <t>enduring_affliction</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>coiling_viper</t>
+          <t>enduring_strike</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>crashing_havoc</t>
+          <t>energy_channel</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -7823,11 +7823,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>crimson_dervish</t>
+          <t>fever_strike</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="570">
@@ -7836,11 +7836,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>crossing_snakes</t>
+          <t>finishing_touch</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="571">
@@ -7849,11 +7849,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>crushing_ruin</t>
+          <t>focus_energy</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572">
@@ -7862,11 +7862,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>cyclone_kraken</t>
+          <t>fury</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -7875,11 +7875,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>decisive_judgement</t>
+          <t>gladiator_might</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4.7</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="574">
@@ -7888,11 +7888,11 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>defiled_snapdragon</t>
+          <t>gladiator_rush</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="575">
@@ -7901,11 +7901,11 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>eleventh_storm</t>
+          <t>gladiator_vice</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="576">
@@ -7914,11 +7914,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>final_harbinger</t>
+          <t>guardian_derision</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>flailing_branch</t>
+          <t>healing_return</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="578">
@@ -7940,11 +7940,11 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>four_riders</t>
+          <t>heavy_trauma</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -7953,11 +7953,11 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>fracturing_wind</t>
+          <t>jagged_edge</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="580">
@@ -7966,11 +7966,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>gemini_cross</t>
+          <t>killing_blow</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="581">
@@ -7979,11 +7979,11 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>gleaming_talon</t>
+          <t>life_strike</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>9.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="582">
@@ -7992,11 +7992,11 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>gnashing_payara</t>
+          <t>maiming_strike</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="583">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>grim_fury</t>
+          <t>molten_impact</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -8018,11 +8018,11 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>high_noon</t>
+          <t>motus_impact</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -8031,11 +8031,11 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>homing_fang</t>
+          <t>north_wind</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -8044,11 +8044,11 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>iron_phoenix</t>
+          <t>organ_shatter</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="587">
@@ -8057,11 +8057,11 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>pointed_wind</t>
+          <t>power_throw</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="588">
@@ -8070,11 +8070,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>reaping_spiral</t>
+          <t>pressure_point</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>rending_crane</t>
+          <t>primed_fever_strike</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>8.5</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="590">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>seismic_palm</t>
+          <t>primed_heavy_trauma</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -8109,11 +8109,11 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>shattering_storm</t>
+          <t>primed_pressure_point</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="592">
@@ -8122,11 +8122,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>shimmering_blight</t>
+          <t>primed_reach</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>4</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="593">
@@ -8135,11 +8135,11 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>sinking_talon</t>
+          <t>primed_smite_corpus</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="594">
@@ -8148,11 +8148,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>slicing_feathers</t>
+          <t>primed_smite_corrupted</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>4.1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="595">
@@ -8161,11 +8161,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>sovereign_outcast</t>
+          <t>primed_smite_grineer</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>8.699999999999999</v>
+        <v>144</v>
       </c>
     </row>
     <row r="596">
@@ -8174,11 +8174,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>spinning_needle</t>
+          <t>primed_smite_infested</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="597">
@@ -8187,11 +8187,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>stalking_fan</t>
+          <t>proton_snap</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="598">
@@ -8200,11 +8200,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>stinging_thorn</t>
+          <t>quickening</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="599">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>sundering_weave</t>
+          <t>reflex_coil</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>swirling_tiger</t>
+          <t>relentless_combination</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -8239,11 +8239,11 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>swooping_falcon</t>
+          <t>rending_strike</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -8252,11 +8252,11 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>tempo_royale</t>
+          <t>seismic_wave</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>37.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -8265,11 +8265,11 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>tranquil_cleave</t>
+          <t>shattering_impact</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="604">
@@ -8278,11 +8278,11 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>twirling_spire</t>
+          <t>shocking_touch</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -8291,11 +8291,11 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>vengeful_revenant</t>
+          <t>spoiled_strike</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>16.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="606">
@@ -8304,11 +8304,11 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>vermillion_storm</t>
+          <t>strain_infection</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>10</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="607">
@@ -8317,11 +8317,817 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
+          <t>sundering_strike</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>tek_gravity</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>true_punishment</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>true_steel</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>vicious_frost</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>virulent_scourge</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>volcanic_edge</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>voltaic_strike</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>weeping_wounds</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>whirlwind</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>saxum_thorax</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>carnis_mandible</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>jugulus_barbs</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>astral_twilight</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>atlantis_vulcan</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>bleeding_willow</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>blind_justice</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>brutal_tide</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>bullet_dance</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>burning_wasp</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>carving_mantis</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>clashing_forest</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>cleaving_whirlwind</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>coiling_viper</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>crimson_dervish</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>crossing_snakes</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>crushing_ruin</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>cyclone_kraken</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>decisive_judgement</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>defiled_snapdragon</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>eleventh_storm</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>final_harbinger</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>flailing_branch</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>four_riders</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>fracturing_wind</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>gemini_cross</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>gleaming_talon</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>gnashing_payara</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>grim_fury</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>high_noon</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>homing_fang</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>iron_phoenix</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>pointed_wind</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>reaping_spiral</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>rending_crane</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>seismic_palm</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>shattering_storm</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>shimmering_blight</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>sinking_talon</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>slicing_feathers</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>sovereign_outcast</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>spinning_needle</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>stalking_fan</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>stinging_thorn</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>sundering_weave</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>swirling_tiger</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>swooping_falcon</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>tempo_royale</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>tranquil_cleave</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>twirling_spire</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>vengeful_revenant</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>vermillion_storm</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
           <t>vulpine_mask</t>
         </is>
       </c>
-      <c r="C607" t="n">
-        <v>2.1</v>
+      <c r="C669" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
